--- a/bill-pay-checklist_Reichhard.excel.xlsx
+++ b/bill-pay-checklist_Reichhard.excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rreichhard\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B19B30-296B-418F-AB67-582576CC980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67079CEA-E244-4766-AE18-B14DD655B5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="March 2017" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1153,16 +1153,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>42811</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1446,7 +1446,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1494,7 +1494,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1515,7 +1515,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1536,7 +1536,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1557,7 +1557,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1578,7 +1578,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1599,7 +1599,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1620,7 +1620,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1641,7 +1641,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1662,7 +1662,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1683,7 +1683,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1704,7 +1704,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1725,7 +1725,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1746,7 +1746,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1767,7 +1767,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1788,7 +1788,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1823,18 +1823,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43063</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2069,15 +2069,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2100,11 +2100,11 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2124,11 +2124,11 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -2168,18 +2168,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43105</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2414,15 +2414,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2445,11 +2445,11 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2469,11 +2469,11 @@
         <v>1280.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>255.20000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1834.34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1389.3400000000001</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="6"/>
     </row>
   </sheetData>
@@ -2547,18 +2547,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43133</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>1003.84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2773,15 +2773,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2804,11 +2804,11 @@
         <v>1525.8400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2828,11 +2828,11 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>-206.84000000000015</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -2873,18 +2873,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43175</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -3137,15 +3137,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3168,11 +3168,11 @@
         <v>1415.57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3192,11 +3192,11 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3219,12 +3219,12 @@
         <v>-73.569999999999936</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3242,20 +3242,20 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43203</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>1129.57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3500,15 +3500,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3534,11 +3534,11 @@
         <v>2109.21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3561,11 +3561,11 @@
         <v>1619.57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>489.6400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3609,17 +3609,17 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43231</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3764,15 +3764,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3791,11 +3791,11 @@
         <v>338.29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3809,11 +3809,11 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
       <c r="G21" t="s">
         <v>70</v>
@@ -3842,13 +3842,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" s="8"/>
       <c r="G24" t="s">
         <v>28</v>
@@ -3858,262 +3858,262 @@
         <v>309.28999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="8"/>
     </row>
   </sheetData>
@@ -4130,16 +4130,16 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43259</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4430,7 +4430,7 @@
       <c r="I14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4439,7 +4439,7 @@
       <c r="I15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4475,7 +4475,7 @@
       <c r="I17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4506,7 +4506,7 @@
       <c r="I19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4542,7 +4542,7 @@
       <c r="I21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4553,7 +4553,7 @@
       <c r="I22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4569,7 +4569,7 @@
       <c r="I23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4578,7 +4578,7 @@
       <c r="I24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
@@ -4591,7 +4591,7 @@
       <c r="I25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4600,7 +4600,7 @@
       <c r="I26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
@@ -4614,7 +4614,7 @@
       <c r="I27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4623,7 +4623,7 @@
       <c r="I28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4632,7 +4632,7 @@
       <c r="I29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
@@ -4646,7 +4646,7 @@
       <c r="I30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -4655,7 +4655,7 @@
       <c r="I31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
@@ -4668,7 +4668,7 @@
       <c r="I32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -4677,7 +4677,7 @@
       <c r="I33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -4686,7 +4686,7 @@
       <c r="I34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -4695,451 +4695,451 @@
       <c r="I35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="G36" s="8"/>
       <c r="I36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="G37" s="8"/>
       <c r="I37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
       <c r="I38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
       <c r="I39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
       <c r="I40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
       <c r="I41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
       <c r="I42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
       <c r="I43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
       <c r="I44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
       <c r="I45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
       <c r="I46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
       <c r="I47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
       <c r="I48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
       <c r="I49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
       <c r="I50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
       <c r="I51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
       <c r="I52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
       <c r="I53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
       <c r="I54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
       <c r="I55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
       <c r="I56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
       <c r="I57" s="8"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
       <c r="I58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
       <c r="I59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
       <c r="I60" s="8"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
       <c r="I61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
       <c r="I62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
       <c r="I63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
       <c r="I64" s="8"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
       <c r="I65" s="8"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
       <c r="I66" s="8"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
       <c r="I67" s="8"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
       <c r="I68" s="8"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
       <c r="I69" s="8"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
       <c r="I70" s="8"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
       <c r="I71" s="8"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
       <c r="I72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
       <c r="I73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
       <c r="I74" s="8"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
       <c r="I75" s="8"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
       <c r="I76" s="8"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
       <c r="I77" s="8"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
       <c r="I78" s="8"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
       <c r="I79" s="8"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
       <c r="I80" s="8"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
       <c r="I81" s="8"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
       <c r="I82" s="8"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
       <c r="I83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
       <c r="I84" s="8"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
       <c r="I85" s="8"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
       <c r="I86" s="8"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
       <c r="I87" s="8"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
       <c r="I88" s="8"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
       <c r="I89" s="8"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
       <c r="I90" s="8"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
       <c r="I91" s="8"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
       <c r="I92" s="8"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
       <c r="I93" s="8"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
       <c r="I94" s="8"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
       <c r="I95" s="8"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
       <c r="I96" s="8"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
       <c r="I97" s="8"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
       <c r="I98" s="8"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
       <c r="I99" s="8"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
       <c r="I100" s="8"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
       <c r="I101" s="8"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
       <c r="I102" s="8"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
       <c r="I103" s="8"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
       <c r="I104" s="8"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
       <c r="I105" s="8"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
       <c r="I106" s="8"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
       <c r="I107" s="8"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
       <c r="I108" s="8"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
       <c r="I109" s="8"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
       <c r="I110" s="8"/>
@@ -5159,21 +5159,21 @@
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="17" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43343</v>
@@ -5209,7 +5209,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -5657,7 +5657,7 @@
       <c r="W13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="E14" s="12"/>
       <c r="G14" s="12"/>
@@ -5674,7 +5674,7 @@
       <c r="W14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="E16" s="12"/>
       <c r="G16" s="12"/>
@@ -5738,7 +5738,7 @@
       <c r="W16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="E18" s="12"/>
       <c r="G18" s="12"/>
@@ -5794,7 +5794,7 @@
       <c r="W18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="W19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="E20" s="12"/>
       <c r="G20" s="12"/>
@@ -5839,7 +5839,7 @@
       <c r="W20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
@@ -5908,7 +5908,7 @@
       <c r="W22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="E23" s="12"/>
       <c r="G23" s="12"/>
@@ -5925,7 +5925,7 @@
       <c r="W23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="W24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
@@ -5974,7 +5974,7 @@
       <c r="W25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>-775</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="E27" s="12"/>
       <c r="G27" s="12"/>
@@ -6037,7 +6037,7 @@
       <c r="W27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="E28" s="12"/>
       <c r="G28" s="12"/>
@@ -6054,7 +6054,7 @@
       <c r="W28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -6074,31 +6074,31 @@
       <c r="W29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="E36" s="12"/>
       <c r="G36" s="12"/>
@@ -6115,7 +6115,7 @@
       <c r="W36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="E37" s="12"/>
       <c r="G37" s="12"/>
@@ -6132,7 +6132,7 @@
       <c r="W37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="E38" s="12"/>
       <c r="G38" s="12"/>
@@ -6149,7 +6149,7 @@
       <c r="W38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
@@ -6166,7 +6166,7 @@
       <c r="W39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
@@ -6183,7 +6183,7 @@
       <c r="W40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
@@ -6200,7 +6200,7 @@
       <c r="W41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
@@ -6217,7 +6217,7 @@
       <c r="W42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
@@ -6234,7 +6234,7 @@
       <c r="W43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
@@ -6251,7 +6251,7 @@
       <c r="W44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
@@ -6268,7 +6268,7 @@
       <c r="W45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
@@ -6285,7 +6285,7 @@
       <c r="W46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
@@ -6302,7 +6302,7 @@
       <c r="W47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
@@ -6319,7 +6319,7 @@
       <c r="W48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
@@ -6336,7 +6336,7 @@
       <c r="W49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
@@ -6353,7 +6353,7 @@
       <c r="W50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
@@ -6370,7 +6370,7 @@
       <c r="W51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
@@ -6387,7 +6387,7 @@
       <c r="W52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
@@ -6404,7 +6404,7 @@
       <c r="W53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
@@ -6421,7 +6421,7 @@
       <c r="W54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
@@ -6438,7 +6438,7 @@
       <c r="W55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
@@ -6455,7 +6455,7 @@
       <c r="W56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
@@ -6472,7 +6472,7 @@
       <c r="W57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
@@ -6489,7 +6489,7 @@
       <c r="W58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
@@ -6506,7 +6506,7 @@
       <c r="W59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
@@ -6523,7 +6523,7 @@
       <c r="W60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
@@ -6540,7 +6540,7 @@
       <c r="W61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
@@ -6557,7 +6557,7 @@
       <c r="W62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
@@ -6574,7 +6574,7 @@
       <c r="W63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
@@ -6591,7 +6591,7 @@
       <c r="W64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
@@ -6608,7 +6608,7 @@
       <c r="W65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
@@ -6625,7 +6625,7 @@
       <c r="W66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
@@ -6642,7 +6642,7 @@
       <c r="W67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
@@ -6659,7 +6659,7 @@
       <c r="W68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
@@ -6676,7 +6676,7 @@
       <c r="W69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
@@ -6693,7 +6693,7 @@
       <c r="W70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
@@ -6710,7 +6710,7 @@
       <c r="W71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
@@ -6727,7 +6727,7 @@
       <c r="W72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
@@ -6744,7 +6744,7 @@
       <c r="W73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
@@ -6761,7 +6761,7 @@
       <c r="W74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
@@ -6778,7 +6778,7 @@
       <c r="W75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
@@ -6795,7 +6795,7 @@
       <c r="W76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
@@ -6812,7 +6812,7 @@
       <c r="W77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
@@ -6829,7 +6829,7 @@
       <c r="W78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
@@ -6846,7 +6846,7 @@
       <c r="W79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
@@ -6863,7 +6863,7 @@
       <c r="W80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
@@ -6880,7 +6880,7 @@
       <c r="W81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
@@ -6897,7 +6897,7 @@
       <c r="W82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
@@ -6914,7 +6914,7 @@
       <c r="W83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
@@ -6931,7 +6931,7 @@
       <c r="W84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
@@ -6948,7 +6948,7 @@
       <c r="W85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
@@ -6965,7 +6965,7 @@
       <c r="W86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
@@ -6982,7 +6982,7 @@
       <c r="W87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
@@ -6999,7 +6999,7 @@
       <c r="W88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
@@ -7016,7 +7016,7 @@
       <c r="W89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
@@ -7033,7 +7033,7 @@
       <c r="W90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
@@ -7050,7 +7050,7 @@
       <c r="W91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
@@ -7067,7 +7067,7 @@
       <c r="W92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
@@ -7084,7 +7084,7 @@
       <c r="W93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
@@ -7101,7 +7101,7 @@
       <c r="W94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
@@ -7118,7 +7118,7 @@
       <c r="W95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
@@ -7135,7 +7135,7 @@
       <c r="W96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
@@ -7152,7 +7152,7 @@
       <c r="W97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
@@ -7169,7 +7169,7 @@
       <c r="W98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
@@ -7186,7 +7186,7 @@
       <c r="W99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
@@ -7203,7 +7203,7 @@
       <c r="W100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
@@ -7220,7 +7220,7 @@
       <c r="W101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
@@ -7237,7 +7237,7 @@
       <c r="W102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
@@ -7254,7 +7254,7 @@
       <c r="W103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
@@ -7271,7 +7271,7 @@
       <c r="W104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
@@ -7288,7 +7288,7 @@
       <c r="W105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
@@ -7305,7 +7305,7 @@
       <c r="W106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
@@ -7322,7 +7322,7 @@
       <c r="W107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
@@ -7339,7 +7339,7 @@
       <c r="W108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
@@ -7356,7 +7356,7 @@
       <c r="W109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
@@ -7373,7 +7373,7 @@
       <c r="W110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="E111" s="8"/>
       <c r="G111" s="8"/>
@@ -7390,7 +7390,7 @@
       <c r="W111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="E112" s="8"/>
       <c r="G112" s="8"/>
@@ -7407,7 +7407,7 @@
       <c r="W112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="E113" s="8"/>
       <c r="G113" s="8"/>
@@ -7438,43 +7438,43 @@
       <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43455</v>
@@ -7534,7 +7534,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="D15" s="12"/>
       <c r="F15" s="12"/>
@@ -8361,7 +8361,7 @@
       <c r="AJ15" s="12"/>
       <c r="AL15" s="12"/>
     </row>
-    <row r="16" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
       <c r="D16" s="20"/>
       <c r="F16" s="20"/>
@@ -8382,7 +8382,7 @@
       <c r="AJ16" s="20"/>
       <c r="AL16" s="20"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="D17" s="12"/>
       <c r="F17" s="12"/>
@@ -8403,7 +8403,7 @@
       <c r="AJ17" s="12"/>
       <c r="AL17" s="12"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="F19" s="12"/>
@@ -8505,7 +8505,7 @@
       <c r="AJ19" s="12"/>
       <c r="AL19" s="12"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
       <c r="F21" s="12"/>
@@ -8588,7 +8588,7 @@
       <c r="AJ21" s="12"/>
       <c r="AL21" s="12"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -8616,7 +8616,7 @@
       <c r="AJ22" s="12"/>
       <c r="AL22" s="12"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
       <c r="F23" s="12"/>
@@ -8637,7 +8637,7 @@
       <c r="AJ23" s="12"/>
       <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="D25" s="12"/>
       <c r="F25" s="12"/>
@@ -8739,7 +8739,7 @@
       <c r="AJ25" s="12"/>
       <c r="AL25" s="12"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="D26" s="12"/>
       <c r="F26" s="12"/>
@@ -8760,7 +8760,7 @@
       <c r="AJ26" s="12"/>
       <c r="AL26" s="12"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -8814,7 +8814,7 @@
       <c r="AJ27" s="12"/>
       <c r="AL27" s="12"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
       <c r="F28" s="12"/>
@@ -8835,7 +8835,7 @@
       <c r="AJ28" s="12"/>
       <c r="AL28" s="12"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>-1447</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
       <c r="F30" s="12"/>
@@ -8935,7 +8935,7 @@
       <c r="AF30" s="12"/>
       <c r="AH30" s="12"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
       <c r="F31" s="12"/>
@@ -8954,7 +8954,7 @@
       <c r="AF31" s="12"/>
       <c r="AH31" s="12"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -8976,29 +8976,29 @@
       <c r="AF32" s="12"/>
       <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="V33" s="8">
         <v>2250.19</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
       <c r="F39" s="12"/>
@@ -9017,7 +9017,7 @@
       <c r="AF39" s="12"/>
       <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="D40" s="12"/>
       <c r="F40" s="12"/>
@@ -9036,7 +9036,7 @@
       <c r="AF40" s="12"/>
       <c r="AH40" s="12"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="D41" s="12"/>
       <c r="F41" s="12"/>
@@ -9055,7 +9055,7 @@
       <c r="AF41" s="12"/>
       <c r="AH41" s="12"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="D42" s="8"/>
       <c r="F42" s="8"/>
@@ -9074,7 +9074,7 @@
       <c r="AF42" s="8"/>
       <c r="AH42" s="8"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="D43" s="8"/>
       <c r="F43" s="8"/>
@@ -9093,7 +9093,7 @@
       <c r="AF43" s="8"/>
       <c r="AH43" s="8"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="D44" s="8"/>
       <c r="F44" s="8"/>
@@ -9112,7 +9112,7 @@
       <c r="AF44" s="8"/>
       <c r="AH44" s="8"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="D45" s="8"/>
       <c r="F45" s="8"/>
@@ -9131,7 +9131,7 @@
       <c r="AF45" s="8"/>
       <c r="AH45" s="8"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="D46" s="8"/>
       <c r="F46" s="8"/>
@@ -9150,7 +9150,7 @@
       <c r="AF46" s="8"/>
       <c r="AH46" s="8"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="D47" s="8"/>
       <c r="F47" s="8"/>
@@ -9169,7 +9169,7 @@
       <c r="AF47" s="8"/>
       <c r="AH47" s="8"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="D48" s="8"/>
       <c r="F48" s="8"/>
@@ -9188,7 +9188,7 @@
       <c r="AF48" s="8"/>
       <c r="AH48" s="8"/>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="D49" s="8"/>
       <c r="F49" s="8"/>
@@ -9207,7 +9207,7 @@
       <c r="AF49" s="8"/>
       <c r="AH49" s="8"/>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="D50" s="8"/>
       <c r="F50" s="8"/>
@@ -9226,7 +9226,7 @@
       <c r="AF50" s="8"/>
       <c r="AH50" s="8"/>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="D51" s="8"/>
       <c r="F51" s="8"/>
@@ -9245,7 +9245,7 @@
       <c r="AF51" s="8"/>
       <c r="AH51" s="8"/>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="D52" s="8"/>
       <c r="F52" s="8"/>
@@ -9264,7 +9264,7 @@
       <c r="AF52" s="8"/>
       <c r="AH52" s="8"/>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="8"/>
@@ -9283,7 +9283,7 @@
       <c r="AF53" s="8"/>
       <c r="AH53" s="8"/>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="D54" s="8"/>
       <c r="F54" s="8"/>
@@ -9302,7 +9302,7 @@
       <c r="AF54" s="8"/>
       <c r="AH54" s="8"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="D55" s="8"/>
       <c r="F55" s="8"/>
@@ -9321,7 +9321,7 @@
       <c r="AF55" s="8"/>
       <c r="AH55" s="8"/>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="D56" s="8"/>
       <c r="F56" s="8"/>
@@ -9340,7 +9340,7 @@
       <c r="AF56" s="8"/>
       <c r="AH56" s="8"/>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="D57" s="8"/>
       <c r="F57" s="8"/>
@@ -9359,7 +9359,7 @@
       <c r="AF57" s="8"/>
       <c r="AH57" s="8"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="D58" s="8"/>
       <c r="F58" s="8"/>
@@ -9378,7 +9378,7 @@
       <c r="AF58" s="8"/>
       <c r="AH58" s="8"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="D59" s="8"/>
       <c r="F59" s="8"/>
@@ -9397,7 +9397,7 @@
       <c r="AF59" s="8"/>
       <c r="AH59" s="8"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="D60" s="8"/>
       <c r="F60" s="8"/>
@@ -9416,7 +9416,7 @@
       <c r="AF60" s="8"/>
       <c r="AH60" s="8"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="D61" s="8"/>
       <c r="F61" s="8"/>
@@ -9435,7 +9435,7 @@
       <c r="AF61" s="8"/>
       <c r="AH61" s="8"/>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="D62" s="8"/>
       <c r="F62" s="8"/>
@@ -9454,7 +9454,7 @@
       <c r="AF62" s="8"/>
       <c r="AH62" s="8"/>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="D63" s="8"/>
       <c r="F63" s="8"/>
@@ -9473,7 +9473,7 @@
       <c r="AF63" s="8"/>
       <c r="AH63" s="8"/>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="D64" s="8"/>
       <c r="F64" s="8"/>
@@ -9492,7 +9492,7 @@
       <c r="AF64" s="8"/>
       <c r="AH64" s="8"/>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="D65" s="8"/>
       <c r="F65" s="8"/>
@@ -9511,7 +9511,7 @@
       <c r="AF65" s="8"/>
       <c r="AH65" s="8"/>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="D66" s="8"/>
       <c r="F66" s="8"/>
@@ -9530,7 +9530,7 @@
       <c r="AF66" s="8"/>
       <c r="AH66" s="8"/>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="D67" s="8"/>
       <c r="F67" s="8"/>
@@ -9549,7 +9549,7 @@
       <c r="AF67" s="8"/>
       <c r="AH67" s="8"/>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="D68" s="8"/>
       <c r="F68" s="8"/>
@@ -9568,7 +9568,7 @@
       <c r="AF68" s="8"/>
       <c r="AH68" s="8"/>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="D69" s="8"/>
       <c r="F69" s="8"/>
@@ -9587,7 +9587,7 @@
       <c r="AF69" s="8"/>
       <c r="AH69" s="8"/>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="D70" s="8"/>
       <c r="F70" s="8"/>
@@ -9606,7 +9606,7 @@
       <c r="AF70" s="8"/>
       <c r="AH70" s="8"/>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="D71" s="8"/>
       <c r="F71" s="8"/>
@@ -9625,7 +9625,7 @@
       <c r="AF71" s="8"/>
       <c r="AH71" s="8"/>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="D72" s="8"/>
       <c r="F72" s="8"/>
@@ -9644,7 +9644,7 @@
       <c r="AF72" s="8"/>
       <c r="AH72" s="8"/>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="D73" s="8"/>
       <c r="F73" s="8"/>
@@ -9663,7 +9663,7 @@
       <c r="AF73" s="8"/>
       <c r="AH73" s="8"/>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="D74" s="8"/>
       <c r="F74" s="8"/>
@@ -9682,7 +9682,7 @@
       <c r="AF74" s="8"/>
       <c r="AH74" s="8"/>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="D75" s="8"/>
       <c r="F75" s="8"/>
@@ -9701,7 +9701,7 @@
       <c r="AF75" s="8"/>
       <c r="AH75" s="8"/>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="D76" s="8"/>
       <c r="F76" s="8"/>
@@ -9720,7 +9720,7 @@
       <c r="AF76" s="8"/>
       <c r="AH76" s="8"/>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
       <c r="F77" s="8"/>
@@ -9739,7 +9739,7 @@
       <c r="AF77" s="8"/>
       <c r="AH77" s="8"/>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
       <c r="F78" s="8"/>
@@ -9758,7 +9758,7 @@
       <c r="AF78" s="8"/>
       <c r="AH78" s="8"/>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="D79" s="8"/>
       <c r="F79" s="8"/>
@@ -9777,7 +9777,7 @@
       <c r="AF79" s="8"/>
       <c r="AH79" s="8"/>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="D80" s="8"/>
       <c r="F80" s="8"/>
@@ -9796,7 +9796,7 @@
       <c r="AF80" s="8"/>
       <c r="AH80" s="8"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="D81" s="8"/>
       <c r="F81" s="8"/>
@@ -9815,7 +9815,7 @@
       <c r="AF81" s="8"/>
       <c r="AH81" s="8"/>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="D82" s="8"/>
       <c r="F82" s="8"/>
@@ -9834,7 +9834,7 @@
       <c r="AF82" s="8"/>
       <c r="AH82" s="8"/>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="D83" s="8"/>
       <c r="F83" s="8"/>
@@ -9853,7 +9853,7 @@
       <c r="AF83" s="8"/>
       <c r="AH83" s="8"/>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="D84" s="8"/>
       <c r="F84" s="8"/>
@@ -9872,7 +9872,7 @@
       <c r="AF84" s="8"/>
       <c r="AH84" s="8"/>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="D85" s="8"/>
       <c r="F85" s="8"/>
@@ -9891,7 +9891,7 @@
       <c r="AF85" s="8"/>
       <c r="AH85" s="8"/>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="D86" s="8"/>
       <c r="F86" s="8"/>
@@ -9910,7 +9910,7 @@
       <c r="AF86" s="8"/>
       <c r="AH86" s="8"/>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="D87" s="8"/>
       <c r="F87" s="8"/>
@@ -9929,7 +9929,7 @@
       <c r="AF87" s="8"/>
       <c r="AH87" s="8"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="D88" s="8"/>
       <c r="F88" s="8"/>
@@ -9948,7 +9948,7 @@
       <c r="AF88" s="8"/>
       <c r="AH88" s="8"/>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="D89" s="8"/>
       <c r="F89" s="8"/>
@@ -9967,7 +9967,7 @@
       <c r="AF89" s="8"/>
       <c r="AH89" s="8"/>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="D90" s="8"/>
       <c r="F90" s="8"/>
@@ -9986,7 +9986,7 @@
       <c r="AF90" s="8"/>
       <c r="AH90" s="8"/>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="D91" s="8"/>
       <c r="F91" s="8"/>
@@ -10005,7 +10005,7 @@
       <c r="AF91" s="8"/>
       <c r="AH91" s="8"/>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="D92" s="8"/>
       <c r="F92" s="8"/>
@@ -10024,7 +10024,7 @@
       <c r="AF92" s="8"/>
       <c r="AH92" s="8"/>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="D93" s="8"/>
       <c r="F93" s="8"/>
@@ -10043,7 +10043,7 @@
       <c r="AF93" s="8"/>
       <c r="AH93" s="8"/>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="D94" s="8"/>
       <c r="F94" s="8"/>
@@ -10062,7 +10062,7 @@
       <c r="AF94" s="8"/>
       <c r="AH94" s="8"/>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="D95" s="8"/>
       <c r="F95" s="8"/>
@@ -10081,7 +10081,7 @@
       <c r="AF95" s="8"/>
       <c r="AH95" s="8"/>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="D96" s="8"/>
       <c r="F96" s="8"/>
@@ -10100,7 +10100,7 @@
       <c r="AF96" s="8"/>
       <c r="AH96" s="8"/>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="D97" s="8"/>
       <c r="F97" s="8"/>
@@ -10119,7 +10119,7 @@
       <c r="AF97" s="8"/>
       <c r="AH97" s="8"/>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="D98" s="8"/>
       <c r="F98" s="8"/>
@@ -10138,7 +10138,7 @@
       <c r="AF98" s="8"/>
       <c r="AH98" s="8"/>
     </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="F99" s="8"/>
@@ -10157,7 +10157,7 @@
       <c r="AF99" s="8"/>
       <c r="AH99" s="8"/>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="D100" s="8"/>
       <c r="F100" s="8"/>
@@ -10176,7 +10176,7 @@
       <c r="AF100" s="8"/>
       <c r="AH100" s="8"/>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="D101" s="8"/>
       <c r="F101" s="8"/>
@@ -10195,7 +10195,7 @@
       <c r="AF101" s="8"/>
       <c r="AH101" s="8"/>
     </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="D102" s="8"/>
       <c r="F102" s="8"/>
@@ -10214,7 +10214,7 @@
       <c r="AF102" s="8"/>
       <c r="AH102" s="8"/>
     </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="D103" s="8"/>
       <c r="F103" s="8"/>
@@ -10233,7 +10233,7 @@
       <c r="AF103" s="8"/>
       <c r="AH103" s="8"/>
     </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="D104" s="8"/>
       <c r="F104" s="8"/>
@@ -10252,7 +10252,7 @@
       <c r="AF104" s="8"/>
       <c r="AH104" s="8"/>
     </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="D105" s="8"/>
       <c r="F105" s="8"/>
@@ -10271,7 +10271,7 @@
       <c r="AF105" s="8"/>
       <c r="AH105" s="8"/>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="D106" s="8"/>
       <c r="F106" s="8"/>
@@ -10290,7 +10290,7 @@
       <c r="AF106" s="8"/>
       <c r="AH106" s="8"/>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="D107" s="8"/>
       <c r="F107" s="8"/>
@@ -10309,7 +10309,7 @@
       <c r="AF107" s="8"/>
       <c r="AH107" s="8"/>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="D108" s="8"/>
       <c r="F108" s="8"/>
@@ -10328,7 +10328,7 @@
       <c r="AF108" s="8"/>
       <c r="AH108" s="8"/>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="D109" s="8"/>
       <c r="F109" s="8"/>
@@ -10347,7 +10347,7 @@
       <c r="AF109" s="8"/>
       <c r="AH109" s="8"/>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="D110" s="8"/>
       <c r="F110" s="8"/>
@@ -10366,7 +10366,7 @@
       <c r="AF110" s="8"/>
       <c r="AH110" s="8"/>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="D111" s="8"/>
       <c r="F111" s="8"/>
@@ -10385,7 +10385,7 @@
       <c r="AF111" s="8"/>
       <c r="AH111" s="8"/>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="D112" s="8"/>
       <c r="F112" s="8"/>
@@ -10404,7 +10404,7 @@
       <c r="AF112" s="8"/>
       <c r="AH112" s="8"/>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="D113" s="8"/>
       <c r="F113" s="8"/>
@@ -10423,7 +10423,7 @@
       <c r="AF113" s="8"/>
       <c r="AH113" s="8"/>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="D114" s="8"/>
       <c r="F114" s="8"/>
@@ -10442,7 +10442,7 @@
       <c r="AF114" s="8"/>
       <c r="AH114" s="8"/>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="D115" s="8"/>
       <c r="F115" s="8"/>
@@ -10461,7 +10461,7 @@
       <c r="AF115" s="8"/>
       <c r="AH115" s="8"/>
     </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="D116" s="8"/>
       <c r="F116" s="8"/>
@@ -10490,28 +10490,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A2:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>134</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -10535,11 +10535,11 @@
         <v>887</v>
       </c>
       <c r="H5" s="9">
-        <v>1774</v>
+        <v>887</v>
       </c>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -10552,11 +10552,11 @@
         <v>13</v>
       </c>
       <c r="H6" s="9">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -10569,11 +10569,11 @@
         <v>32</v>
       </c>
       <c r="H7" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -10607,7 +10607,7 @@
       </c>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -10653,11 +10653,11 @@
         <v>29</v>
       </c>
       <c r="H12" s="9">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -10669,11 +10669,11 @@
         <v>30</v>
       </c>
       <c r="H13" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -10685,11 +10685,11 @@
         <v>25</v>
       </c>
       <c r="H14" s="9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -10702,18 +10702,18 @@
         <v>104.5</v>
       </c>
       <c r="H15" s="9">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="37"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -10730,16 +10730,16 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>140</v>
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>148</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>149</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>150</v>
       </c>
@@ -10814,16 +10814,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -10840,19 +10840,19 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>141</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>142</v>
       </c>
@@ -10864,10 +10864,10 @@
         <v>200</v>
       </c>
       <c r="H33" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>143</v>
       </c>
@@ -10879,10 +10879,10 @@
         <v>30</v>
       </c>
       <c r="H34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>98</v>
       </c>
@@ -10894,10 +10894,10 @@
         <v>30</v>
       </c>
       <c r="H35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>147</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>151</v>
       </c>
@@ -10924,10 +10924,10 @@
         <v>25</v>
       </c>
       <c r="H37" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
         <v>152</v>
       </c>
@@ -10939,10 +10939,10 @@
         <v>10</v>
       </c>
       <c r="H38" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
         <v>157</v>
       </c>
@@ -10951,14 +10951,14 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>25.64</v>
+        <v>0</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
         <v>47</v>
       </c>
@@ -10970,10 +10970,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -10992,13 +10992,13 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -11011,10 +11011,10 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -11029,10 +11029,10 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9">
         <f>SUM(H5:H40)</f>
-        <v>2248.64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>145</v>
       </c>
@@ -11047,13 +11047,13 @@
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -11061,14 +11061,14 @@
         <v>62</v>
       </c>
       <c r="F51" s="12">
-        <v>2110</v>
+        <v>1093</v>
       </c>
       <c r="H51" s="35">
         <f>F51-H47</f>
-        <v>-138.63999999999987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>134</v>
       </c>
@@ -11079,7 +11079,7 @@
       <c r="C52" s="33"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>140</v>
       </c>
@@ -11089,7 +11089,7 @@
       </c>
       <c r="C53" s="33"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>141</v>
       </c>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="C54" s="33"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>9</v>
       </c>
@@ -11123,15 +11123,15 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42839</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -11244,7 +11244,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -11307,13 +11307,13 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -11329,10 +11329,10 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -11346,10 +11346,10 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -11365,13 +11365,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>34</v>
       </c>
@@ -11379,13 +11379,13 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="9">
         <f>SUM(E7:E14)</f>
         <v>1096</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>35</v>
       </c>
@@ -11394,10 +11394,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>36</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>37</v>
       </c>
@@ -11413,10 +11413,10 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>38</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>39</v>
       </c>
@@ -11432,13 +11432,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E34" s="8">
         <f>SUM(E32:E33)</f>
         <v>1112</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>40</v>
       </c>
@@ -11447,10 +11447,10 @@
         <v>873</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>41</v>
       </c>
@@ -11458,10 +11458,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -11470,43 +11470,43 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
     </row>
   </sheetData>
@@ -11521,15 +11521,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>47</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>90</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>91</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>92</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>93</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>146.79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>26</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>72.709999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>47</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>1035.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>94</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>95</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>96</v>
       </c>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>55</v>
       </c>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>94</v>
       </c>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>26</v>
       </c>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>97</v>
       </c>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>94</v>
       </c>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>99</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>94</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>100</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>101</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>102</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>98</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>98</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>104</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>70.16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>105</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>97.17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>47</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>94</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>130</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>129</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>128</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>127</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>26.71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>114</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>94</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>94</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>126</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>94</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>125</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>124</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>47</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>94</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>105</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>94</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>123</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>98</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>122</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>26.27</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>121</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>104</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>80.33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>106</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>120</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>105</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>16</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>63.59</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>30</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>244.42</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
         <v>119</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
         <v>92</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>118</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>117</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
         <v>116</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>107</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>108</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>115</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="s">
         <v>114</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
         <v>92</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>2</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>164.84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>94</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>94</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
         <v>113</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>35.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>112</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>94</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>102</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>105</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>94</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="23" t="s">
         <v>111</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>104</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
         <v>94</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="23" t="s">
         <v>110</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
         <v>109</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>47</v>
       </c>
@@ -12200,14 +12200,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43156</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43542</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43599</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43606</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43609</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43630</v>
       </c>
@@ -12284,16 +12284,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12338,22 +12338,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42867</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12444,7 +12444,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12458,7 +12458,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12470,7 +12470,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12509,13 +12509,13 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -12531,10 +12531,10 @@
         <v>883</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12549,10 +12549,10 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -12565,12 +12565,12 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>1136.5899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>544.56999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>592.02</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>345</v>
       </c>
@@ -12635,20 +12635,20 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42881</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12885,15 +12885,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -12916,11 +12916,11 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12943,11 +12943,11 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -12987,17 +12987,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42923</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13077,7 +13077,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13185,13 +13185,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13207,10 +13207,10 @@
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13224,10 +13224,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13260,17 +13260,17 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42951</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13460,13 +13460,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13482,10 +13482,10 @@
         <v>1132.57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13499,10 +13499,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>206.43000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13535,20 +13535,20 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="10"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="10"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42979</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13614,7 +13614,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13632,7 +13632,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13672,7 +13672,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13708,7 +13708,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13726,7 +13726,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13744,7 +13744,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13780,15 +13780,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13805,11 +13805,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13824,11 +13824,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13888,18 +13888,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43007</v>
       </c>
@@ -13908,7 +13908,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13926,7 +13926,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14000,7 +14000,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14018,7 +14018,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14036,7 +14036,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14057,7 +14057,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14075,7 +14075,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -14093,7 +14093,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -14109,15 +14109,15 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -14134,11 +14134,11 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -14153,11 +14153,11 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14174,7 +14174,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="6"/>
     </row>
   </sheetData>
@@ -14191,18 +14191,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43035</v>
       </c>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14226,7 +14226,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14256,7 +14256,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14291,7 +14291,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14309,7 +14309,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14327,7 +14327,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14345,7 +14345,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14363,7 +14363,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -14381,7 +14381,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -14399,7 +14399,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -14412,15 +14412,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -14437,11 +14437,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -14456,11 +14456,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>

--- a/bill-pay-checklist_Reichhard.excel.xlsx
+++ b/bill-pay-checklist_Reichhard.excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rreichhard\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67079CEA-E244-4766-AE18-B14DD655B5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382CEE1-7306-4AFE-ABB3-0FED2F43F172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="March 2017" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1153,16 +1153,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>42811</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1446,7 +1446,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1494,7 +1494,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1515,7 +1515,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1536,7 +1536,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1557,7 +1557,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1578,7 +1578,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1599,7 +1599,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1620,7 +1620,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1641,7 +1641,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1662,7 +1662,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1683,7 +1683,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1704,7 +1704,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1725,7 +1725,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1746,7 +1746,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1767,7 +1767,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1788,7 +1788,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1823,18 +1823,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43063</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2069,15 +2069,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2100,11 +2100,11 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2124,11 +2124,11 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -2168,18 +2168,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43105</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2414,15 +2414,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2445,11 +2445,11 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2469,11 +2469,11 @@
         <v>1280.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>255.20000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1834.34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1389.3400000000001</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" s="6"/>
     </row>
   </sheetData>
@@ -2547,18 +2547,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43133</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>1003.84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2773,15 +2773,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2804,11 +2804,11 @@
         <v>1525.8400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2828,11 +2828,11 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>-206.84000000000015</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -2873,18 +2873,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43175</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -3137,15 +3137,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3168,11 +3168,11 @@
         <v>1415.57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3192,11 +3192,11 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3219,12 +3219,12 @@
         <v>-73.569999999999936</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I23">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3242,20 +3242,20 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43203</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>1129.57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3500,15 +3500,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3534,11 +3534,11 @@
         <v>2109.21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3561,11 +3561,11 @@
         <v>1619.57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>489.6400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3609,17 +3609,17 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43231</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3764,15 +3764,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3791,11 +3791,11 @@
         <v>338.29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3809,11 +3809,11 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E21" s="8"/>
       <c r="G21" t="s">
         <v>70</v>
@@ -3842,13 +3842,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E24" s="8"/>
       <c r="G24" t="s">
         <v>28</v>
@@ -3858,262 +3858,262 @@
         <v>309.28999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E110" s="8"/>
     </row>
   </sheetData>
@@ -4130,16 +4130,16 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43259</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4430,7 +4430,7 @@
       <c r="I14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4439,7 +4439,7 @@
       <c r="I15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4475,7 +4475,7 @@
       <c r="I17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4506,7 +4506,7 @@
       <c r="I19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4542,7 +4542,7 @@
       <c r="I21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4553,7 +4553,7 @@
       <c r="I22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4569,7 +4569,7 @@
       <c r="I23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4578,7 +4578,7 @@
       <c r="I24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
@@ -4591,7 +4591,7 @@
       <c r="I25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4600,7 +4600,7 @@
       <c r="I26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
@@ -4614,7 +4614,7 @@
       <c r="I27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4623,7 +4623,7 @@
       <c r="I28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4632,7 +4632,7 @@
       <c r="I29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
@@ -4646,7 +4646,7 @@
       <c r="I30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -4655,7 +4655,7 @@
       <c r="I31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
@@ -4668,7 +4668,7 @@
       <c r="I32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -4677,7 +4677,7 @@
       <c r="I33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -4686,7 +4686,7 @@
       <c r="I34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -4695,451 +4695,451 @@
       <c r="I35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="G36" s="8"/>
       <c r="I36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E37" s="8"/>
       <c r="G37" s="8"/>
       <c r="I37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
       <c r="I38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
       <c r="I39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
       <c r="I40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
       <c r="I41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
       <c r="I42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
       <c r="I43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
       <c r="I44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
       <c r="I45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
       <c r="I46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
       <c r="I47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
       <c r="I48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
       <c r="I49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
       <c r="I50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
       <c r="I51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
       <c r="I52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
       <c r="I53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
       <c r="I54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
       <c r="I55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
       <c r="I56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
       <c r="I57" s="8"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
       <c r="I58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
       <c r="I59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
       <c r="I60" s="8"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
       <c r="I61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
       <c r="I62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
       <c r="I63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
       <c r="I64" s="8"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
       <c r="I65" s="8"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
       <c r="I66" s="8"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
       <c r="I67" s="8"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
       <c r="I68" s="8"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
       <c r="I69" s="8"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
       <c r="I70" s="8"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
       <c r="I71" s="8"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
       <c r="I72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
       <c r="I73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
       <c r="I74" s="8"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
       <c r="I75" s="8"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
       <c r="I76" s="8"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
       <c r="I77" s="8"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
       <c r="I78" s="8"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
       <c r="I79" s="8"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
       <c r="I80" s="8"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
       <c r="I81" s="8"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
       <c r="I82" s="8"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
       <c r="I83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
       <c r="I84" s="8"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
       <c r="I85" s="8"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
       <c r="I86" s="8"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
       <c r="I87" s="8"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
       <c r="I88" s="8"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
       <c r="I89" s="8"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
       <c r="I90" s="8"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
       <c r="I91" s="8"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
       <c r="I92" s="8"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
       <c r="I93" s="8"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
       <c r="I94" s="8"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
       <c r="I95" s="8"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
       <c r="I96" s="8"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
       <c r="I97" s="8"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
       <c r="I98" s="8"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
       <c r="I99" s="8"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
       <c r="I100" s="8"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
       <c r="I101" s="8"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
       <c r="I102" s="8"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
       <c r="I103" s="8"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
       <c r="I104" s="8"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
       <c r="I105" s="8"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
       <c r="I106" s="8"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
       <c r="I107" s="8"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
       <c r="I108" s="8"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
       <c r="I109" s="8"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
       <c r="I110" s="8"/>
@@ -5159,21 +5159,21 @@
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="17" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43343</v>
@@ -5209,7 +5209,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -5657,7 +5657,7 @@
       <c r="W13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="E14" s="12"/>
       <c r="G14" s="12"/>
@@ -5674,7 +5674,7 @@
       <c r="W14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="E16" s="12"/>
       <c r="G16" s="12"/>
@@ -5738,7 +5738,7 @@
       <c r="W16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="E18" s="12"/>
       <c r="G18" s="12"/>
@@ -5794,7 +5794,7 @@
       <c r="W18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="W19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="E20" s="12"/>
       <c r="G20" s="12"/>
@@ -5839,7 +5839,7 @@
       <c r="W20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
@@ -5908,7 +5908,7 @@
       <c r="W22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="E23" s="12"/>
       <c r="G23" s="12"/>
@@ -5925,7 +5925,7 @@
       <c r="W23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="W24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
@@ -5974,7 +5974,7 @@
       <c r="W25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>-775</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B27" s="12"/>
       <c r="E27" s="12"/>
       <c r="G27" s="12"/>
@@ -6037,7 +6037,7 @@
       <c r="W27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="E28" s="12"/>
       <c r="G28" s="12"/>
@@ -6054,7 +6054,7 @@
       <c r="W28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -6074,31 +6074,31 @@
       <c r="W29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="E36" s="12"/>
       <c r="G36" s="12"/>
@@ -6115,7 +6115,7 @@
       <c r="W36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
       <c r="E37" s="12"/>
       <c r="G37" s="12"/>
@@ -6132,7 +6132,7 @@
       <c r="W37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
       <c r="E38" s="12"/>
       <c r="G38" s="12"/>
@@ -6149,7 +6149,7 @@
       <c r="W38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
@@ -6166,7 +6166,7 @@
       <c r="W39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
@@ -6183,7 +6183,7 @@
       <c r="W40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
@@ -6200,7 +6200,7 @@
       <c r="W41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
@@ -6217,7 +6217,7 @@
       <c r="W42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
@@ -6234,7 +6234,7 @@
       <c r="W43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
@@ -6251,7 +6251,7 @@
       <c r="W44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
@@ -6268,7 +6268,7 @@
       <c r="W45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
@@ -6285,7 +6285,7 @@
       <c r="W46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
@@ -6302,7 +6302,7 @@
       <c r="W47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
@@ -6319,7 +6319,7 @@
       <c r="W48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
@@ -6336,7 +6336,7 @@
       <c r="W49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
@@ -6353,7 +6353,7 @@
       <c r="W50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
@@ -6370,7 +6370,7 @@
       <c r="W51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
@@ -6387,7 +6387,7 @@
       <c r="W52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
@@ -6404,7 +6404,7 @@
       <c r="W53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
@@ -6421,7 +6421,7 @@
       <c r="W54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
@@ -6438,7 +6438,7 @@
       <c r="W55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
@@ -6455,7 +6455,7 @@
       <c r="W56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
@@ -6472,7 +6472,7 @@
       <c r="W57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B58" s="8"/>
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
@@ -6489,7 +6489,7 @@
       <c r="W58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
@@ -6506,7 +6506,7 @@
       <c r="W59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B60" s="8"/>
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
@@ -6523,7 +6523,7 @@
       <c r="W60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
@@ -6540,7 +6540,7 @@
       <c r="W61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
@@ -6557,7 +6557,7 @@
       <c r="W62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
@@ -6574,7 +6574,7 @@
       <c r="W63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B64" s="8"/>
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
@@ -6591,7 +6591,7 @@
       <c r="W64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
@@ -6608,7 +6608,7 @@
       <c r="W65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
@@ -6625,7 +6625,7 @@
       <c r="W66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
@@ -6642,7 +6642,7 @@
       <c r="W67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
@@ -6659,7 +6659,7 @@
       <c r="W68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
@@ -6676,7 +6676,7 @@
       <c r="W69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
@@ -6693,7 +6693,7 @@
       <c r="W70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B71" s="8"/>
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
@@ -6710,7 +6710,7 @@
       <c r="W71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B72" s="8"/>
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
@@ -6727,7 +6727,7 @@
       <c r="W72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
@@ -6744,7 +6744,7 @@
       <c r="W73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
@@ -6761,7 +6761,7 @@
       <c r="W74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
@@ -6778,7 +6778,7 @@
       <c r="W75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B76" s="8"/>
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
@@ -6795,7 +6795,7 @@
       <c r="W76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
@@ -6812,7 +6812,7 @@
       <c r="W77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B78" s="8"/>
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
@@ -6829,7 +6829,7 @@
       <c r="W78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
@@ -6846,7 +6846,7 @@
       <c r="W79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B80" s="8"/>
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
@@ -6863,7 +6863,7 @@
       <c r="W80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
@@ -6880,7 +6880,7 @@
       <c r="W81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B82" s="8"/>
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
@@ -6897,7 +6897,7 @@
       <c r="W82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
@@ -6914,7 +6914,7 @@
       <c r="W83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
@@ -6931,7 +6931,7 @@
       <c r="W84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
@@ -6948,7 +6948,7 @@
       <c r="W85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B86" s="8"/>
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
@@ -6965,7 +6965,7 @@
       <c r="W86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B87" s="8"/>
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
@@ -6982,7 +6982,7 @@
       <c r="W87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
@@ -6999,7 +6999,7 @@
       <c r="W88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B89" s="8"/>
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
@@ -7016,7 +7016,7 @@
       <c r="W89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
@@ -7033,7 +7033,7 @@
       <c r="W90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B91" s="8"/>
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
@@ -7050,7 +7050,7 @@
       <c r="W91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B92" s="8"/>
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
@@ -7067,7 +7067,7 @@
       <c r="W92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
@@ -7084,7 +7084,7 @@
       <c r="W93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
@@ -7101,7 +7101,7 @@
       <c r="W94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
@@ -7118,7 +7118,7 @@
       <c r="W95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B96" s="8"/>
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
@@ -7135,7 +7135,7 @@
       <c r="W96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B97" s="8"/>
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
@@ -7152,7 +7152,7 @@
       <c r="W97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B98" s="8"/>
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
@@ -7169,7 +7169,7 @@
       <c r="W98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B99" s="8"/>
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
@@ -7186,7 +7186,7 @@
       <c r="W99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B100" s="8"/>
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
@@ -7203,7 +7203,7 @@
       <c r="W100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B101" s="8"/>
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
@@ -7220,7 +7220,7 @@
       <c r="W101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B102" s="8"/>
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
@@ -7237,7 +7237,7 @@
       <c r="W102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B103" s="8"/>
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
@@ -7254,7 +7254,7 @@
       <c r="W103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B104" s="8"/>
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
@@ -7271,7 +7271,7 @@
       <c r="W104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B105" s="8"/>
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
@@ -7288,7 +7288,7 @@
       <c r="W105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B106" s="8"/>
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
@@ -7305,7 +7305,7 @@
       <c r="W106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B107" s="8"/>
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
@@ -7322,7 +7322,7 @@
       <c r="W107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B108" s="8"/>
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
@@ -7339,7 +7339,7 @@
       <c r="W108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B109" s="8"/>
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
@@ -7356,7 +7356,7 @@
       <c r="W109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B110" s="8"/>
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
@@ -7373,7 +7373,7 @@
       <c r="W110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B111" s="8"/>
       <c r="E111" s="8"/>
       <c r="G111" s="8"/>
@@ -7390,7 +7390,7 @@
       <c r="W111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B112" s="8"/>
       <c r="E112" s="8"/>
       <c r="G112" s="8"/>
@@ -7407,7 +7407,7 @@
       <c r="W112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B113" s="8"/>
       <c r="E113" s="8"/>
       <c r="G113" s="8"/>
@@ -7438,43 +7438,43 @@
       <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43455</v>
@@ -7534,7 +7534,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="D15" s="12"/>
       <c r="F15" s="12"/>
@@ -8361,7 +8361,7 @@
       <c r="AJ15" s="12"/>
       <c r="AL15" s="12"/>
     </row>
-    <row r="16" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="D16" s="20"/>
       <c r="F16" s="20"/>
@@ -8382,7 +8382,7 @@
       <c r="AJ16" s="20"/>
       <c r="AL16" s="20"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="D17" s="12"/>
       <c r="F17" s="12"/>
@@ -8403,7 +8403,7 @@
       <c r="AJ17" s="12"/>
       <c r="AL17" s="12"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="F19" s="12"/>
@@ -8505,7 +8505,7 @@
       <c r="AJ19" s="12"/>
       <c r="AL19" s="12"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
       <c r="F21" s="12"/>
@@ -8588,7 +8588,7 @@
       <c r="AJ21" s="12"/>
       <c r="AL21" s="12"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -8616,7 +8616,7 @@
       <c r="AJ22" s="12"/>
       <c r="AL22" s="12"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
       <c r="F23" s="12"/>
@@ -8637,7 +8637,7 @@
       <c r="AJ23" s="12"/>
       <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="D25" s="12"/>
       <c r="F25" s="12"/>
@@ -8739,7 +8739,7 @@
       <c r="AJ25" s="12"/>
       <c r="AL25" s="12"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="D26" s="12"/>
       <c r="F26" s="12"/>
@@ -8760,7 +8760,7 @@
       <c r="AJ26" s="12"/>
       <c r="AL26" s="12"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -8814,7 +8814,7 @@
       <c r="AJ27" s="12"/>
       <c r="AL27" s="12"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
       <c r="F28" s="12"/>
@@ -8835,7 +8835,7 @@
       <c r="AJ28" s="12"/>
       <c r="AL28" s="12"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>-1447</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
       <c r="F30" s="12"/>
@@ -8935,7 +8935,7 @@
       <c r="AF30" s="12"/>
       <c r="AH30" s="12"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
       <c r="F31" s="12"/>
@@ -8954,7 +8954,7 @@
       <c r="AF31" s="12"/>
       <c r="AH31" s="12"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -8976,29 +8976,29 @@
       <c r="AF32" s="12"/>
       <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="V33" s="8">
         <v>2250.19</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
       <c r="F39" s="12"/>
@@ -9017,7 +9017,7 @@
       <c r="AF39" s="12"/>
       <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="D40" s="12"/>
       <c r="F40" s="12"/>
@@ -9036,7 +9036,7 @@
       <c r="AF40" s="12"/>
       <c r="AH40" s="12"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
       <c r="D41" s="12"/>
       <c r="F41" s="12"/>
@@ -9055,7 +9055,7 @@
       <c r="AF41" s="12"/>
       <c r="AH41" s="12"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="D42" s="8"/>
       <c r="F42" s="8"/>
@@ -9074,7 +9074,7 @@
       <c r="AF42" s="8"/>
       <c r="AH42" s="8"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
       <c r="D43" s="8"/>
       <c r="F43" s="8"/>
@@ -9093,7 +9093,7 @@
       <c r="AF43" s="8"/>
       <c r="AH43" s="8"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
       <c r="D44" s="8"/>
       <c r="F44" s="8"/>
@@ -9112,7 +9112,7 @@
       <c r="AF44" s="8"/>
       <c r="AH44" s="8"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="D45" s="8"/>
       <c r="F45" s="8"/>
@@ -9131,7 +9131,7 @@
       <c r="AF45" s="8"/>
       <c r="AH45" s="8"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="D46" s="8"/>
       <c r="F46" s="8"/>
@@ -9150,7 +9150,7 @@
       <c r="AF46" s="8"/>
       <c r="AH46" s="8"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
       <c r="D47" s="8"/>
       <c r="F47" s="8"/>
@@ -9169,7 +9169,7 @@
       <c r="AF47" s="8"/>
       <c r="AH47" s="8"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
       <c r="D48" s="8"/>
       <c r="F48" s="8"/>
@@ -9188,7 +9188,7 @@
       <c r="AF48" s="8"/>
       <c r="AH48" s="8"/>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
       <c r="D49" s="8"/>
       <c r="F49" s="8"/>
@@ -9207,7 +9207,7 @@
       <c r="AF49" s="8"/>
       <c r="AH49" s="8"/>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
       <c r="D50" s="8"/>
       <c r="F50" s="8"/>
@@ -9226,7 +9226,7 @@
       <c r="AF50" s="8"/>
       <c r="AH50" s="8"/>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
       <c r="D51" s="8"/>
       <c r="F51" s="8"/>
@@ -9245,7 +9245,7 @@
       <c r="AF51" s="8"/>
       <c r="AH51" s="8"/>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
       <c r="D52" s="8"/>
       <c r="F52" s="8"/>
@@ -9264,7 +9264,7 @@
       <c r="AF52" s="8"/>
       <c r="AH52" s="8"/>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="8"/>
@@ -9283,7 +9283,7 @@
       <c r="AF53" s="8"/>
       <c r="AH53" s="8"/>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
       <c r="D54" s="8"/>
       <c r="F54" s="8"/>
@@ -9302,7 +9302,7 @@
       <c r="AF54" s="8"/>
       <c r="AH54" s="8"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
       <c r="D55" s="8"/>
       <c r="F55" s="8"/>
@@ -9321,7 +9321,7 @@
       <c r="AF55" s="8"/>
       <c r="AH55" s="8"/>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
       <c r="D56" s="8"/>
       <c r="F56" s="8"/>
@@ -9340,7 +9340,7 @@
       <c r="AF56" s="8"/>
       <c r="AH56" s="8"/>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
       <c r="D57" s="8"/>
       <c r="F57" s="8"/>
@@ -9359,7 +9359,7 @@
       <c r="AF57" s="8"/>
       <c r="AH57" s="8"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B58" s="8"/>
       <c r="D58" s="8"/>
       <c r="F58" s="8"/>
@@ -9378,7 +9378,7 @@
       <c r="AF58" s="8"/>
       <c r="AH58" s="8"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
       <c r="D59" s="8"/>
       <c r="F59" s="8"/>
@@ -9397,7 +9397,7 @@
       <c r="AF59" s="8"/>
       <c r="AH59" s="8"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B60" s="8"/>
       <c r="D60" s="8"/>
       <c r="F60" s="8"/>
@@ -9416,7 +9416,7 @@
       <c r="AF60" s="8"/>
       <c r="AH60" s="8"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
       <c r="D61" s="8"/>
       <c r="F61" s="8"/>
@@ -9435,7 +9435,7 @@
       <c r="AF61" s="8"/>
       <c r="AH61" s="8"/>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
       <c r="D62" s="8"/>
       <c r="F62" s="8"/>
@@ -9454,7 +9454,7 @@
       <c r="AF62" s="8"/>
       <c r="AH62" s="8"/>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
       <c r="D63" s="8"/>
       <c r="F63" s="8"/>
@@ -9473,7 +9473,7 @@
       <c r="AF63" s="8"/>
       <c r="AH63" s="8"/>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B64" s="8"/>
       <c r="D64" s="8"/>
       <c r="F64" s="8"/>
@@ -9492,7 +9492,7 @@
       <c r="AF64" s="8"/>
       <c r="AH64" s="8"/>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
       <c r="D65" s="8"/>
       <c r="F65" s="8"/>
@@ -9511,7 +9511,7 @@
       <c r="AF65" s="8"/>
       <c r="AH65" s="8"/>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
       <c r="D66" s="8"/>
       <c r="F66" s="8"/>
@@ -9530,7 +9530,7 @@
       <c r="AF66" s="8"/>
       <c r="AH66" s="8"/>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
       <c r="D67" s="8"/>
       <c r="F67" s="8"/>
@@ -9549,7 +9549,7 @@
       <c r="AF67" s="8"/>
       <c r="AH67" s="8"/>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
       <c r="D68" s="8"/>
       <c r="F68" s="8"/>
@@ -9568,7 +9568,7 @@
       <c r="AF68" s="8"/>
       <c r="AH68" s="8"/>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
       <c r="D69" s="8"/>
       <c r="F69" s="8"/>
@@ -9587,7 +9587,7 @@
       <c r="AF69" s="8"/>
       <c r="AH69" s="8"/>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
       <c r="D70" s="8"/>
       <c r="F70" s="8"/>
@@ -9606,7 +9606,7 @@
       <c r="AF70" s="8"/>
       <c r="AH70" s="8"/>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B71" s="8"/>
       <c r="D71" s="8"/>
       <c r="F71" s="8"/>
@@ -9625,7 +9625,7 @@
       <c r="AF71" s="8"/>
       <c r="AH71" s="8"/>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B72" s="8"/>
       <c r="D72" s="8"/>
       <c r="F72" s="8"/>
@@ -9644,7 +9644,7 @@
       <c r="AF72" s="8"/>
       <c r="AH72" s="8"/>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
       <c r="D73" s="8"/>
       <c r="F73" s="8"/>
@@ -9663,7 +9663,7 @@
       <c r="AF73" s="8"/>
       <c r="AH73" s="8"/>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
       <c r="D74" s="8"/>
       <c r="F74" s="8"/>
@@ -9682,7 +9682,7 @@
       <c r="AF74" s="8"/>
       <c r="AH74" s="8"/>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
       <c r="D75" s="8"/>
       <c r="F75" s="8"/>
@@ -9701,7 +9701,7 @@
       <c r="AF75" s="8"/>
       <c r="AH75" s="8"/>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B76" s="8"/>
       <c r="D76" s="8"/>
       <c r="F76" s="8"/>
@@ -9720,7 +9720,7 @@
       <c r="AF76" s="8"/>
       <c r="AH76" s="8"/>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
       <c r="F77" s="8"/>
@@ -9739,7 +9739,7 @@
       <c r="AF77" s="8"/>
       <c r="AH77" s="8"/>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
       <c r="F78" s="8"/>
@@ -9758,7 +9758,7 @@
       <c r="AF78" s="8"/>
       <c r="AH78" s="8"/>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
       <c r="D79" s="8"/>
       <c r="F79" s="8"/>
@@ -9777,7 +9777,7 @@
       <c r="AF79" s="8"/>
       <c r="AH79" s="8"/>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B80" s="8"/>
       <c r="D80" s="8"/>
       <c r="F80" s="8"/>
@@ -9796,7 +9796,7 @@
       <c r="AF80" s="8"/>
       <c r="AH80" s="8"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
       <c r="D81" s="8"/>
       <c r="F81" s="8"/>
@@ -9815,7 +9815,7 @@
       <c r="AF81" s="8"/>
       <c r="AH81" s="8"/>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B82" s="8"/>
       <c r="D82" s="8"/>
       <c r="F82" s="8"/>
@@ -9834,7 +9834,7 @@
       <c r="AF82" s="8"/>
       <c r="AH82" s="8"/>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
       <c r="D83" s="8"/>
       <c r="F83" s="8"/>
@@ -9853,7 +9853,7 @@
       <c r="AF83" s="8"/>
       <c r="AH83" s="8"/>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
       <c r="D84" s="8"/>
       <c r="F84" s="8"/>
@@ -9872,7 +9872,7 @@
       <c r="AF84" s="8"/>
       <c r="AH84" s="8"/>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
       <c r="D85" s="8"/>
       <c r="F85" s="8"/>
@@ -9891,7 +9891,7 @@
       <c r="AF85" s="8"/>
       <c r="AH85" s="8"/>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B86" s="8"/>
       <c r="D86" s="8"/>
       <c r="F86" s="8"/>
@@ -9910,7 +9910,7 @@
       <c r="AF86" s="8"/>
       <c r="AH86" s="8"/>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B87" s="8"/>
       <c r="D87" s="8"/>
       <c r="F87" s="8"/>
@@ -9929,7 +9929,7 @@
       <c r="AF87" s="8"/>
       <c r="AH87" s="8"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
       <c r="D88" s="8"/>
       <c r="F88" s="8"/>
@@ -9948,7 +9948,7 @@
       <c r="AF88" s="8"/>
       <c r="AH88" s="8"/>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B89" s="8"/>
       <c r="D89" s="8"/>
       <c r="F89" s="8"/>
@@ -9967,7 +9967,7 @@
       <c r="AF89" s="8"/>
       <c r="AH89" s="8"/>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
       <c r="D90" s="8"/>
       <c r="F90" s="8"/>
@@ -9986,7 +9986,7 @@
       <c r="AF90" s="8"/>
       <c r="AH90" s="8"/>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B91" s="8"/>
       <c r="D91" s="8"/>
       <c r="F91" s="8"/>
@@ -10005,7 +10005,7 @@
       <c r="AF91" s="8"/>
       <c r="AH91" s="8"/>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B92" s="8"/>
       <c r="D92" s="8"/>
       <c r="F92" s="8"/>
@@ -10024,7 +10024,7 @@
       <c r="AF92" s="8"/>
       <c r="AH92" s="8"/>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
       <c r="D93" s="8"/>
       <c r="F93" s="8"/>
@@ -10043,7 +10043,7 @@
       <c r="AF93" s="8"/>
       <c r="AH93" s="8"/>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
       <c r="D94" s="8"/>
       <c r="F94" s="8"/>
@@ -10062,7 +10062,7 @@
       <c r="AF94" s="8"/>
       <c r="AH94" s="8"/>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
       <c r="D95" s="8"/>
       <c r="F95" s="8"/>
@@ -10081,7 +10081,7 @@
       <c r="AF95" s="8"/>
       <c r="AH95" s="8"/>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B96" s="8"/>
       <c r="D96" s="8"/>
       <c r="F96" s="8"/>
@@ -10100,7 +10100,7 @@
       <c r="AF96" s="8"/>
       <c r="AH96" s="8"/>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B97" s="8"/>
       <c r="D97" s="8"/>
       <c r="F97" s="8"/>
@@ -10119,7 +10119,7 @@
       <c r="AF97" s="8"/>
       <c r="AH97" s="8"/>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B98" s="8"/>
       <c r="D98" s="8"/>
       <c r="F98" s="8"/>
@@ -10138,7 +10138,7 @@
       <c r="AF98" s="8"/>
       <c r="AH98" s="8"/>
     </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="F99" s="8"/>
@@ -10157,7 +10157,7 @@
       <c r="AF99" s="8"/>
       <c r="AH99" s="8"/>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B100" s="8"/>
       <c r="D100" s="8"/>
       <c r="F100" s="8"/>
@@ -10176,7 +10176,7 @@
       <c r="AF100" s="8"/>
       <c r="AH100" s="8"/>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B101" s="8"/>
       <c r="D101" s="8"/>
       <c r="F101" s="8"/>
@@ -10195,7 +10195,7 @@
       <c r="AF101" s="8"/>
       <c r="AH101" s="8"/>
     </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B102" s="8"/>
       <c r="D102" s="8"/>
       <c r="F102" s="8"/>
@@ -10214,7 +10214,7 @@
       <c r="AF102" s="8"/>
       <c r="AH102" s="8"/>
     </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B103" s="8"/>
       <c r="D103" s="8"/>
       <c r="F103" s="8"/>
@@ -10233,7 +10233,7 @@
       <c r="AF103" s="8"/>
       <c r="AH103" s="8"/>
     </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B104" s="8"/>
       <c r="D104" s="8"/>
       <c r="F104" s="8"/>
@@ -10252,7 +10252,7 @@
       <c r="AF104" s="8"/>
       <c r="AH104" s="8"/>
     </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B105" s="8"/>
       <c r="D105" s="8"/>
       <c r="F105" s="8"/>
@@ -10271,7 +10271,7 @@
       <c r="AF105" s="8"/>
       <c r="AH105" s="8"/>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B106" s="8"/>
       <c r="D106" s="8"/>
       <c r="F106" s="8"/>
@@ -10290,7 +10290,7 @@
       <c r="AF106" s="8"/>
       <c r="AH106" s="8"/>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B107" s="8"/>
       <c r="D107" s="8"/>
       <c r="F107" s="8"/>
@@ -10309,7 +10309,7 @@
       <c r="AF107" s="8"/>
       <c r="AH107" s="8"/>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B108" s="8"/>
       <c r="D108" s="8"/>
       <c r="F108" s="8"/>
@@ -10328,7 +10328,7 @@
       <c r="AF108" s="8"/>
       <c r="AH108" s="8"/>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B109" s="8"/>
       <c r="D109" s="8"/>
       <c r="F109" s="8"/>
@@ -10347,7 +10347,7 @@
       <c r="AF109" s="8"/>
       <c r="AH109" s="8"/>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B110" s="8"/>
       <c r="D110" s="8"/>
       <c r="F110" s="8"/>
@@ -10366,7 +10366,7 @@
       <c r="AF110" s="8"/>
       <c r="AH110" s="8"/>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B111" s="8"/>
       <c r="D111" s="8"/>
       <c r="F111" s="8"/>
@@ -10385,7 +10385,7 @@
       <c r="AF111" s="8"/>
       <c r="AH111" s="8"/>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B112" s="8"/>
       <c r="D112" s="8"/>
       <c r="F112" s="8"/>
@@ -10404,7 +10404,7 @@
       <c r="AF112" s="8"/>
       <c r="AH112" s="8"/>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B113" s="8"/>
       <c r="D113" s="8"/>
       <c r="F113" s="8"/>
@@ -10423,7 +10423,7 @@
       <c r="AF113" s="8"/>
       <c r="AH113" s="8"/>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B114" s="8"/>
       <c r="D114" s="8"/>
       <c r="F114" s="8"/>
@@ -10442,7 +10442,7 @@
       <c r="AF114" s="8"/>
       <c r="AH114" s="8"/>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B115" s="8"/>
       <c r="D115" s="8"/>
       <c r="F115" s="8"/>
@@ -10461,7 +10461,7 @@
       <c r="AF115" s="8"/>
       <c r="AH115" s="8"/>
     </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B116" s="8"/>
       <c r="D116" s="8"/>
       <c r="F116" s="8"/>
@@ -10491,27 +10491,27 @@
   <dimension ref="A2:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>134</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -10607,7 +10607,7 @@
       </c>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -10657,7 +10657,7 @@
       </c>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -10673,7 +10673,7 @@
       </c>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -10706,14 +10706,14 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E16" s="37"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -10730,16 +10730,16 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>140</v>
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
         <v>148</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
         <v>149</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>150</v>
       </c>
@@ -10814,16 +10814,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -10840,19 +10840,19 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>141</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>142</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>143</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>98</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>147</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>151</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>152</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>157</v>
       </c>
@@ -10958,7 +10958,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>47</v>
       </c>
@@ -10970,10 +10970,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -10992,13 +10992,13 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -11011,10 +11011,10 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A48" s="31" t="s">
         <v>145</v>
       </c>
@@ -11047,13 +11047,13 @@
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -11061,14 +11061,14 @@
         <v>62</v>
       </c>
       <c r="F51" s="12">
-        <v>1093</v>
+        <v>1943</v>
       </c>
       <c r="H51" s="35">
         <f>F51-H47</f>
-        <v>-513</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="28" t="s">
         <v>134</v>
       </c>
@@ -11079,7 +11079,7 @@
       <c r="C52" s="33"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="28" t="s">
         <v>140</v>
       </c>
@@ -11089,7 +11089,7 @@
       </c>
       <c r="C53" s="33"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="28" t="s">
         <v>141</v>
       </c>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="C54" s="33"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="28" t="s">
         <v>9</v>
       </c>
@@ -11123,15 +11123,15 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42839</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -11244,7 +11244,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -11307,13 +11307,13 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -11329,10 +11329,10 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -11346,10 +11346,10 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -11365,13 +11365,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>34</v>
       </c>
@@ -11379,13 +11379,13 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E25" s="9">
         <f>SUM(E7:E14)</f>
         <v>1096</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>35</v>
       </c>
@@ -11394,10 +11394,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>36</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>37</v>
       </c>
@@ -11413,10 +11413,10 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>38</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>39</v>
       </c>
@@ -11432,13 +11432,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E34" s="8">
         <f>SUM(E32:E33)</f>
         <v>1112</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>40</v>
       </c>
@@ -11447,10 +11447,10 @@
         <v>873</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>41</v>
       </c>
@@ -11458,10 +11458,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -11470,43 +11470,43 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" s="8"/>
     </row>
   </sheetData>
@@ -11521,15 +11521,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
         <v>47</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
         <v>90</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
         <v>91</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23" t="s">
         <v>92</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>93</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>146.79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23" t="s">
         <v>26</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>72.709999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>47</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>1035.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>94</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>95</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>96</v>
       </c>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>55</v>
       </c>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
         <v>94</v>
       </c>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23" t="s">
         <v>26</v>
       </c>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>97</v>
       </c>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
         <v>94</v>
       </c>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>99</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>94</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>100</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>101</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="24" t="s">
         <v>102</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23" t="s">
         <v>98</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="23" t="s">
         <v>98</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>104</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>70.16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>105</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>97.17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>47</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>94</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>130</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>129</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
         <v>128</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23" t="s">
         <v>127</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>26.71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
         <v>114</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
         <v>94</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>94</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
         <v>126</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>94</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="22" t="s">
         <v>125</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="23" t="s">
         <v>124</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
         <v>47</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>94</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="24" t="s">
         <v>105</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>94</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
         <v>123</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="23" t="s">
         <v>98</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
         <v>122</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>26.27</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>121</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
         <v>104</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>80.33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="22" t="s">
         <v>106</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23" t="s">
         <v>120</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A52" s="24" t="s">
         <v>105</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="22" t="s">
         <v>16</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>63.59</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="22" t="s">
         <v>30</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>244.42</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="23" t="s">
         <v>119</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="23" t="s">
         <v>92</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>118</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="24" t="s">
         <v>117</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="23" t="s">
         <v>116</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A60" s="22" t="s">
         <v>107</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>108</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="22" t="s">
         <v>115</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="24" t="s">
         <v>114</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="23" t="s">
         <v>92</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
         <v>2</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>164.84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="24" t="s">
         <v>94</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="24" t="s">
         <v>94</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="23" t="s">
         <v>113</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>35.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A69" s="24" t="s">
         <v>112</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
         <v>94</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="24" t="s">
         <v>102</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="24" t="s">
         <v>105</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="24" t="s">
         <v>94</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="23" t="s">
         <v>111</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A75" s="24" t="s">
         <v>104</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="24" t="s">
         <v>94</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="23" t="s">
         <v>110</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="23" t="s">
         <v>109</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A79" s="21" t="s">
         <v>47</v>
       </c>
@@ -12200,14 +12200,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43156</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43542</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43599</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43606</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43609</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43630</v>
       </c>
@@ -12284,16 +12284,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12338,22 +12338,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42867</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12444,7 +12444,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12458,7 +12458,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12470,7 +12470,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12509,13 +12509,13 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -12531,10 +12531,10 @@
         <v>883</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12549,10 +12549,10 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -12565,12 +12565,12 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>1136.5899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>544.56999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>592.02</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <v>345</v>
       </c>
@@ -12635,20 +12635,20 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42881</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12885,15 +12885,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -12916,11 +12916,11 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12943,11 +12943,11 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -12987,17 +12987,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42923</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13077,7 +13077,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13185,13 +13185,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13207,10 +13207,10 @@
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13224,10 +13224,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13260,17 +13260,17 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42951</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13460,13 +13460,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13482,10 +13482,10 @@
         <v>1132.57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13499,10 +13499,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>206.43000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13535,20 +13535,20 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="10"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="10"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42979</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13614,7 +13614,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13632,7 +13632,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13672,7 +13672,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13708,7 +13708,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13726,7 +13726,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13744,7 +13744,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13780,15 +13780,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13805,11 +13805,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13824,11 +13824,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13888,18 +13888,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43007</v>
       </c>
@@ -13908,7 +13908,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13926,7 +13926,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14000,7 +14000,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14018,7 +14018,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14036,7 +14036,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14057,7 +14057,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14075,7 +14075,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -14093,7 +14093,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -14109,15 +14109,15 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -14134,11 +14134,11 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -14153,11 +14153,11 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14174,7 +14174,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C31" s="6"/>
     </row>
   </sheetData>
@@ -14191,18 +14191,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43035</v>
       </c>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14226,7 +14226,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14256,7 +14256,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14291,7 +14291,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14309,7 +14309,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14327,7 +14327,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14345,7 +14345,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14363,7 +14363,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -14381,7 +14381,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -14399,7 +14399,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -14412,15 +14412,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -14437,11 +14437,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -14456,11 +14456,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>

--- a/bill-pay-checklist_Reichhard.excel.xlsx
+++ b/bill-pay-checklist_Reichhard.excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rreichhard\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382CEE1-7306-4AFE-ABB3-0FED2F43F172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ABA03F-A166-446C-B375-70C4FDD27BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="March 2017" sheetId="1" state="hidden" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="168">
   <si>
     <t>Rent</t>
   </si>
@@ -610,6 +610,24 @@
   </si>
   <si>
     <t>Due Date</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Emergency Fund</t>
+  </si>
+  <si>
+    <t>Running Bal</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>PPMC</t>
   </si>
 </sst>
 </file>
@@ -1153,16 +1171,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>42811</v>
       </c>
@@ -1170,7 +1188,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1205,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1244,7 +1262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1264,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1284,7 +1302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1344,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1360,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +1374,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1390,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1416,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1425,7 +1443,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1446,7 +1464,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -1473,7 +1491,7 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1494,7 +1512,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1515,7 +1533,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1536,7 +1554,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1557,7 +1575,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1578,7 +1596,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1599,7 +1617,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1620,7 +1638,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1641,7 +1659,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1662,7 +1680,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1683,7 +1701,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1704,7 +1722,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1725,7 +1743,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1746,7 +1764,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1767,7 +1785,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1788,7 +1806,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1823,18 +1841,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43063</v>
       </c>
@@ -1846,7 +1864,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1863,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1914,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1936,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1956,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1976,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1996,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2016,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2034,7 +2052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2072,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2069,15 +2087,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2100,11 +2118,11 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2124,11 +2142,11 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2151,7 +2169,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -2168,18 +2186,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43105</v>
       </c>
@@ -2191,7 +2209,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2208,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2281,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2301,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2321,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2341,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2361,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2379,7 +2397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2399,7 +2417,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2414,15 +2432,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2445,11 +2463,11 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2469,11 +2487,11 @@
         <v>1280.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2496,7 +2514,7 @@
         <v>255.20000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2504,7 +2522,7 @@
         <v>1834.34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2521,7 +2539,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2530,7 +2548,7 @@
         <v>1389.3400000000001</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="6"/>
     </row>
   </sheetData>
@@ -2547,18 +2565,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43133</v>
       </c>
@@ -2570,7 +2588,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2587,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2604,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2638,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2660,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2680,7 +2698,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2700,7 +2718,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2720,7 +2738,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2738,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2776,7 @@
         <v>1003.84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2773,15 +2791,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2804,11 +2822,11 @@
         <v>1525.8400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2828,11 +2846,11 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2855,7 +2873,7 @@
         <v>-206.84000000000015</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -2873,18 +2891,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43175</v>
       </c>
@@ -2896,7 +2914,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2916,7 +2934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2933,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2953,7 +2971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2970,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2992,7 +3010,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3012,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3032,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3055,7 +3073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3076,7 +3094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +3117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3117,7 +3135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -3137,15 +3155,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3168,11 +3186,11 @@
         <v>1415.57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3192,11 +3210,11 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3219,12 +3237,12 @@
         <v>-73.569999999999936</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3242,20 +3260,20 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43203</v>
       </c>
@@ -3268,7 +3286,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3286,7 +3304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3309,7 +3327,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3327,7 +3345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3350,7 +3368,7 @@
         <v>1129.57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3370,7 +3388,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3393,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3411,7 +3429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3432,7 +3450,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3453,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3490,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3503,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3500,15 +3518,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3534,11 +3552,11 @@
         <v>2109.21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3561,11 +3579,11 @@
         <v>1619.57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3592,7 +3610,7 @@
         <v>489.6400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3609,17 +3627,17 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43231</v>
       </c>
@@ -3630,7 +3648,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3642,7 +3660,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3654,7 +3672,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3666,7 +3684,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3678,7 +3696,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3689,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3700,7 +3718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3711,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3720,7 +3738,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3731,7 +3749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3742,7 +3760,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3753,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3764,15 +3782,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3791,11 +3809,11 @@
         <v>338.29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3809,11 +3827,11 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3832,7 +3850,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
       <c r="G21" t="s">
         <v>70</v>
@@ -3842,13 +3860,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" s="8"/>
       <c r="G24" t="s">
         <v>28</v>
@@ -3858,262 +3876,262 @@
         <v>309.28999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="8"/>
     </row>
   </sheetData>
@@ -4130,16 +4148,16 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43259</v>
       </c>
@@ -4156,7 +4174,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4178,7 +4196,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4200,7 +4218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4222,7 +4240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4244,7 +4262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4266,7 +4284,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4288,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4310,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4332,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4355,7 +4373,7 @@
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4395,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4399,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4430,7 +4448,7 @@
       <c r="I14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4439,7 +4457,7 @@
       <c r="I15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4466,7 +4484,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4475,7 +4493,7 @@
       <c r="I17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4497,7 +4515,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4506,7 +4524,7 @@
       <c r="I19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4533,7 +4551,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4542,7 +4560,7 @@
       <c r="I21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4553,7 +4571,7 @@
       <c r="I22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4569,7 +4587,7 @@
       <c r="I23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4578,7 +4596,7 @@
       <c r="I24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
@@ -4591,7 +4609,7 @@
       <c r="I25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4600,7 +4618,7 @@
       <c r="I26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
@@ -4614,7 +4632,7 @@
       <c r="I27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4623,7 +4641,7 @@
       <c r="I28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4632,7 +4650,7 @@
       <c r="I29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
@@ -4646,7 +4664,7 @@
       <c r="I30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -4655,7 +4673,7 @@
       <c r="I31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
@@ -4668,7 +4686,7 @@
       <c r="I32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -4677,7 +4695,7 @@
       <c r="I33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -4686,7 +4704,7 @@
       <c r="I34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -4695,451 +4713,451 @@
       <c r="I35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="G36" s="8"/>
       <c r="I36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="G37" s="8"/>
       <c r="I37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
       <c r="I38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
       <c r="I39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
       <c r="I40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
       <c r="I41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
       <c r="I42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
       <c r="I43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
       <c r="I44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
       <c r="I45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
       <c r="I46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
       <c r="I47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
       <c r="I48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
       <c r="I49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
       <c r="I50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
       <c r="I51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
       <c r="I52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
       <c r="I53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
       <c r="I54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
       <c r="I55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
       <c r="I56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
       <c r="I57" s="8"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
       <c r="I58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
       <c r="I59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
       <c r="I60" s="8"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
       <c r="I61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
       <c r="I62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
       <c r="I63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
       <c r="I64" s="8"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
       <c r="I65" s="8"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
       <c r="I66" s="8"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
       <c r="I67" s="8"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
       <c r="I68" s="8"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
       <c r="I69" s="8"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
       <c r="I70" s="8"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
       <c r="I71" s="8"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
       <c r="I72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
       <c r="I73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
       <c r="I74" s="8"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
       <c r="I75" s="8"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
       <c r="I76" s="8"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
       <c r="I77" s="8"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
       <c r="I78" s="8"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
       <c r="I79" s="8"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
       <c r="I80" s="8"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
       <c r="I81" s="8"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
       <c r="I82" s="8"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
       <c r="I83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
       <c r="I84" s="8"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
       <c r="I85" s="8"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
       <c r="I86" s="8"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
       <c r="I87" s="8"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
       <c r="I88" s="8"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
       <c r="I89" s="8"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
       <c r="I90" s="8"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
       <c r="I91" s="8"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
       <c r="I92" s="8"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
       <c r="I93" s="8"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
       <c r="I94" s="8"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
       <c r="I95" s="8"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
       <c r="I96" s="8"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
       <c r="I97" s="8"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
       <c r="I98" s="8"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
       <c r="I99" s="8"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
       <c r="I100" s="8"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
       <c r="I101" s="8"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
       <c r="I102" s="8"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
       <c r="I103" s="8"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
       <c r="I104" s="8"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
       <c r="I105" s="8"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
       <c r="I106" s="8"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
       <c r="I107" s="8"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
       <c r="I108" s="8"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
       <c r="I109" s="8"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
       <c r="I110" s="8"/>
@@ -5159,21 +5177,21 @@
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="17" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43343</v>
@@ -5209,7 +5227,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5247,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5285,7 +5303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5323,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -5361,7 +5379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -5399,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5437,7 +5455,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5475,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5513,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -5553,7 +5571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5591,7 +5609,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5629,7 +5647,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -5657,7 +5675,7 @@
       <c r="W13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="E14" s="12"/>
       <c r="G14" s="12"/>
@@ -5674,7 +5692,7 @@
       <c r="W14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5721,7 +5739,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="E16" s="12"/>
       <c r="G16" s="12"/>
@@ -5738,7 +5756,7 @@
       <c r="W16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5777,7 +5795,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="E18" s="12"/>
       <c r="G18" s="12"/>
@@ -5794,7 +5812,7 @@
       <c r="W18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -5822,7 +5840,7 @@
       <c r="W19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="E20" s="12"/>
       <c r="G20" s="12"/>
@@ -5839,7 +5857,7 @@
       <c r="W20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5891,7 +5909,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
@@ -5908,7 +5926,7 @@
       <c r="W22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="E23" s="12"/>
       <c r="G23" s="12"/>
@@ -5925,7 +5943,7 @@
       <c r="W23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5957,7 +5975,7 @@
       <c r="W24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
@@ -5974,7 +5992,7 @@
       <c r="W25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -6020,7 +6038,7 @@
         <v>-775</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="E27" s="12"/>
       <c r="G27" s="12"/>
@@ -6037,7 +6055,7 @@
       <c r="W27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="E28" s="12"/>
       <c r="G28" s="12"/>
@@ -6054,7 +6072,7 @@
       <c r="W28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -6074,31 +6092,31 @@
       <c r="W29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="E36" s="12"/>
       <c r="G36" s="12"/>
@@ -6115,7 +6133,7 @@
       <c r="W36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="E37" s="12"/>
       <c r="G37" s="12"/>
@@ -6132,7 +6150,7 @@
       <c r="W37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="E38" s="12"/>
       <c r="G38" s="12"/>
@@ -6149,7 +6167,7 @@
       <c r="W38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
@@ -6166,7 +6184,7 @@
       <c r="W39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
@@ -6183,7 +6201,7 @@
       <c r="W40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
@@ -6200,7 +6218,7 @@
       <c r="W41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
@@ -6217,7 +6235,7 @@
       <c r="W42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
@@ -6234,7 +6252,7 @@
       <c r="W43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
@@ -6251,7 +6269,7 @@
       <c r="W44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
@@ -6268,7 +6286,7 @@
       <c r="W45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
@@ -6285,7 +6303,7 @@
       <c r="W46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
@@ -6302,7 +6320,7 @@
       <c r="W47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
@@ -6319,7 +6337,7 @@
       <c r="W48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
@@ -6336,7 +6354,7 @@
       <c r="W49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
@@ -6353,7 +6371,7 @@
       <c r="W50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
@@ -6370,7 +6388,7 @@
       <c r="W51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
@@ -6387,7 +6405,7 @@
       <c r="W52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
@@ -6404,7 +6422,7 @@
       <c r="W53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
@@ -6421,7 +6439,7 @@
       <c r="W54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
@@ -6438,7 +6456,7 @@
       <c r="W55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
@@ -6455,7 +6473,7 @@
       <c r="W56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
@@ -6472,7 +6490,7 @@
       <c r="W57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
@@ -6489,7 +6507,7 @@
       <c r="W58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
@@ -6506,7 +6524,7 @@
       <c r="W59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
@@ -6523,7 +6541,7 @@
       <c r="W60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
@@ -6540,7 +6558,7 @@
       <c r="W61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
@@ -6557,7 +6575,7 @@
       <c r="W62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
@@ -6574,7 +6592,7 @@
       <c r="W63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
@@ -6591,7 +6609,7 @@
       <c r="W64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
@@ -6608,7 +6626,7 @@
       <c r="W65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
@@ -6625,7 +6643,7 @@
       <c r="W66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
@@ -6642,7 +6660,7 @@
       <c r="W67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
@@ -6659,7 +6677,7 @@
       <c r="W68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
@@ -6676,7 +6694,7 @@
       <c r="W69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
@@ -6693,7 +6711,7 @@
       <c r="W70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
@@ -6710,7 +6728,7 @@
       <c r="W71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
@@ -6727,7 +6745,7 @@
       <c r="W72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
@@ -6744,7 +6762,7 @@
       <c r="W73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
@@ -6761,7 +6779,7 @@
       <c r="W74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
@@ -6778,7 +6796,7 @@
       <c r="W75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
@@ -6795,7 +6813,7 @@
       <c r="W76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
@@ -6812,7 +6830,7 @@
       <c r="W77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
@@ -6829,7 +6847,7 @@
       <c r="W78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
@@ -6846,7 +6864,7 @@
       <c r="W79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
@@ -6863,7 +6881,7 @@
       <c r="W80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
@@ -6880,7 +6898,7 @@
       <c r="W81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
@@ -6897,7 +6915,7 @@
       <c r="W82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
@@ -6914,7 +6932,7 @@
       <c r="W83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
@@ -6931,7 +6949,7 @@
       <c r="W84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
@@ -6948,7 +6966,7 @@
       <c r="W85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
@@ -6965,7 +6983,7 @@
       <c r="W86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
@@ -6982,7 +7000,7 @@
       <c r="W87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
@@ -6999,7 +7017,7 @@
       <c r="W88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
@@ -7016,7 +7034,7 @@
       <c r="W89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
@@ -7033,7 +7051,7 @@
       <c r="W90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
@@ -7050,7 +7068,7 @@
       <c r="W91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
@@ -7067,7 +7085,7 @@
       <c r="W92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
@@ -7084,7 +7102,7 @@
       <c r="W93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
@@ -7101,7 +7119,7 @@
       <c r="W94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
@@ -7118,7 +7136,7 @@
       <c r="W95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
@@ -7135,7 +7153,7 @@
       <c r="W96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
@@ -7152,7 +7170,7 @@
       <c r="W97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
@@ -7169,7 +7187,7 @@
       <c r="W98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
@@ -7186,7 +7204,7 @@
       <c r="W99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
@@ -7203,7 +7221,7 @@
       <c r="W100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
@@ -7220,7 +7238,7 @@
       <c r="W101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
@@ -7237,7 +7255,7 @@
       <c r="W102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
@@ -7254,7 +7272,7 @@
       <c r="W103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
@@ -7271,7 +7289,7 @@
       <c r="W104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
@@ -7288,7 +7306,7 @@
       <c r="W105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
@@ -7305,7 +7323,7 @@
       <c r="W106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
@@ -7322,7 +7340,7 @@
       <c r="W107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
@@ -7339,7 +7357,7 @@
       <c r="W108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
@@ -7356,7 +7374,7 @@
       <c r="W109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
@@ -7373,7 +7391,7 @@
       <c r="W110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="E111" s="8"/>
       <c r="G111" s="8"/>
@@ -7390,7 +7408,7 @@
       <c r="W111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="E112" s="8"/>
       <c r="G112" s="8"/>
@@ -7407,7 +7425,7 @@
       <c r="W112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="E113" s="8"/>
       <c r="G113" s="8"/>
@@ -7438,43 +7456,43 @@
       <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43455</v>
@@ -7534,7 +7552,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -7596,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7658,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -7720,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -7782,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -7844,7 +7862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -7906,7 +7924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -7968,7 +7986,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8030,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -8092,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8154,7 +8172,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -8216,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -8278,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -8340,7 +8358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="D15" s="12"/>
       <c r="F15" s="12"/>
@@ -8361,7 +8379,7 @@
       <c r="AJ15" s="12"/>
       <c r="AL15" s="12"/>
     </row>
-    <row r="16" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
       <c r="D16" s="20"/>
       <c r="F16" s="20"/>
@@ -8382,7 +8400,7 @@
       <c r="AJ16" s="20"/>
       <c r="AL16" s="20"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="D17" s="12"/>
       <c r="F17" s="12"/>
@@ -8403,7 +8421,7 @@
       <c r="AJ17" s="12"/>
       <c r="AL17" s="12"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8484,7 +8502,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="F19" s="12"/>
@@ -8505,7 +8523,7 @@
       <c r="AJ19" s="12"/>
       <c r="AL19" s="12"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8567,7 +8585,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
       <c r="F21" s="12"/>
@@ -8588,7 +8606,7 @@
       <c r="AJ21" s="12"/>
       <c r="AL21" s="12"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -8616,7 +8634,7 @@
       <c r="AJ22" s="12"/>
       <c r="AL22" s="12"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
       <c r="F23" s="12"/>
@@ -8637,7 +8655,7 @@
       <c r="AJ23" s="12"/>
       <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8718,7 +8736,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="D25" s="12"/>
       <c r="F25" s="12"/>
@@ -8739,7 +8757,7 @@
       <c r="AJ25" s="12"/>
       <c r="AL25" s="12"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="D26" s="12"/>
       <c r="F26" s="12"/>
@@ -8760,7 +8778,7 @@
       <c r="AJ26" s="12"/>
       <c r="AL26" s="12"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -8814,7 +8832,7 @@
       <c r="AJ27" s="12"/>
       <c r="AL27" s="12"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
       <c r="F28" s="12"/>
@@ -8835,7 +8853,7 @@
       <c r="AJ28" s="12"/>
       <c r="AL28" s="12"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8916,7 +8934,7 @@
         <v>-1447</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
       <c r="F30" s="12"/>
@@ -8935,7 +8953,7 @@
       <c r="AF30" s="12"/>
       <c r="AH30" s="12"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
       <c r="F31" s="12"/>
@@ -8954,7 +8972,7 @@
       <c r="AF31" s="12"/>
       <c r="AH31" s="12"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -8976,29 +8994,29 @@
       <c r="AF32" s="12"/>
       <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="V33" s="8">
         <v>2250.19</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
       <c r="F39" s="12"/>
@@ -9017,7 +9035,7 @@
       <c r="AF39" s="12"/>
       <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="D40" s="12"/>
       <c r="F40" s="12"/>
@@ -9036,7 +9054,7 @@
       <c r="AF40" s="12"/>
       <c r="AH40" s="12"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="D41" s="12"/>
       <c r="F41" s="12"/>
@@ -9055,7 +9073,7 @@
       <c r="AF41" s="12"/>
       <c r="AH41" s="12"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="D42" s="8"/>
       <c r="F42" s="8"/>
@@ -9074,7 +9092,7 @@
       <c r="AF42" s="8"/>
       <c r="AH42" s="8"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="D43" s="8"/>
       <c r="F43" s="8"/>
@@ -9093,7 +9111,7 @@
       <c r="AF43" s="8"/>
       <c r="AH43" s="8"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="D44" s="8"/>
       <c r="F44" s="8"/>
@@ -9112,7 +9130,7 @@
       <c r="AF44" s="8"/>
       <c r="AH44" s="8"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="D45" s="8"/>
       <c r="F45" s="8"/>
@@ -9131,7 +9149,7 @@
       <c r="AF45" s="8"/>
       <c r="AH45" s="8"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="D46" s="8"/>
       <c r="F46" s="8"/>
@@ -9150,7 +9168,7 @@
       <c r="AF46" s="8"/>
       <c r="AH46" s="8"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="D47" s="8"/>
       <c r="F47" s="8"/>
@@ -9169,7 +9187,7 @@
       <c r="AF47" s="8"/>
       <c r="AH47" s="8"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="D48" s="8"/>
       <c r="F48" s="8"/>
@@ -9188,7 +9206,7 @@
       <c r="AF48" s="8"/>
       <c r="AH48" s="8"/>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="D49" s="8"/>
       <c r="F49" s="8"/>
@@ -9207,7 +9225,7 @@
       <c r="AF49" s="8"/>
       <c r="AH49" s="8"/>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="D50" s="8"/>
       <c r="F50" s="8"/>
@@ -9226,7 +9244,7 @@
       <c r="AF50" s="8"/>
       <c r="AH50" s="8"/>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="D51" s="8"/>
       <c r="F51" s="8"/>
@@ -9245,7 +9263,7 @@
       <c r="AF51" s="8"/>
       <c r="AH51" s="8"/>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="D52" s="8"/>
       <c r="F52" s="8"/>
@@ -9264,7 +9282,7 @@
       <c r="AF52" s="8"/>
       <c r="AH52" s="8"/>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="8"/>
@@ -9283,7 +9301,7 @@
       <c r="AF53" s="8"/>
       <c r="AH53" s="8"/>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="D54" s="8"/>
       <c r="F54" s="8"/>
@@ -9302,7 +9320,7 @@
       <c r="AF54" s="8"/>
       <c r="AH54" s="8"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="D55" s="8"/>
       <c r="F55" s="8"/>
@@ -9321,7 +9339,7 @@
       <c r="AF55" s="8"/>
       <c r="AH55" s="8"/>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="D56" s="8"/>
       <c r="F56" s="8"/>
@@ -9340,7 +9358,7 @@
       <c r="AF56" s="8"/>
       <c r="AH56" s="8"/>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="D57" s="8"/>
       <c r="F57" s="8"/>
@@ -9359,7 +9377,7 @@
       <c r="AF57" s="8"/>
       <c r="AH57" s="8"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="D58" s="8"/>
       <c r="F58" s="8"/>
@@ -9378,7 +9396,7 @@
       <c r="AF58" s="8"/>
       <c r="AH58" s="8"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="D59" s="8"/>
       <c r="F59" s="8"/>
@@ -9397,7 +9415,7 @@
       <c r="AF59" s="8"/>
       <c r="AH59" s="8"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="D60" s="8"/>
       <c r="F60" s="8"/>
@@ -9416,7 +9434,7 @@
       <c r="AF60" s="8"/>
       <c r="AH60" s="8"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="D61" s="8"/>
       <c r="F61" s="8"/>
@@ -9435,7 +9453,7 @@
       <c r="AF61" s="8"/>
       <c r="AH61" s="8"/>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="D62" s="8"/>
       <c r="F62" s="8"/>
@@ -9454,7 +9472,7 @@
       <c r="AF62" s="8"/>
       <c r="AH62" s="8"/>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="D63" s="8"/>
       <c r="F63" s="8"/>
@@ -9473,7 +9491,7 @@
       <c r="AF63" s="8"/>
       <c r="AH63" s="8"/>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="D64" s="8"/>
       <c r="F64" s="8"/>
@@ -9492,7 +9510,7 @@
       <c r="AF64" s="8"/>
       <c r="AH64" s="8"/>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="D65" s="8"/>
       <c r="F65" s="8"/>
@@ -9511,7 +9529,7 @@
       <c r="AF65" s="8"/>
       <c r="AH65" s="8"/>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="D66" s="8"/>
       <c r="F66" s="8"/>
@@ -9530,7 +9548,7 @@
       <c r="AF66" s="8"/>
       <c r="AH66" s="8"/>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="D67" s="8"/>
       <c r="F67" s="8"/>
@@ -9549,7 +9567,7 @@
       <c r="AF67" s="8"/>
       <c r="AH67" s="8"/>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="D68" s="8"/>
       <c r="F68" s="8"/>
@@ -9568,7 +9586,7 @@
       <c r="AF68" s="8"/>
       <c r="AH68" s="8"/>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="D69" s="8"/>
       <c r="F69" s="8"/>
@@ -9587,7 +9605,7 @@
       <c r="AF69" s="8"/>
       <c r="AH69" s="8"/>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="D70" s="8"/>
       <c r="F70" s="8"/>
@@ -9606,7 +9624,7 @@
       <c r="AF70" s="8"/>
       <c r="AH70" s="8"/>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="D71" s="8"/>
       <c r="F71" s="8"/>
@@ -9625,7 +9643,7 @@
       <c r="AF71" s="8"/>
       <c r="AH71" s="8"/>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="D72" s="8"/>
       <c r="F72" s="8"/>
@@ -9644,7 +9662,7 @@
       <c r="AF72" s="8"/>
       <c r="AH72" s="8"/>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="D73" s="8"/>
       <c r="F73" s="8"/>
@@ -9663,7 +9681,7 @@
       <c r="AF73" s="8"/>
       <c r="AH73" s="8"/>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="D74" s="8"/>
       <c r="F74" s="8"/>
@@ -9682,7 +9700,7 @@
       <c r="AF74" s="8"/>
       <c r="AH74" s="8"/>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="D75" s="8"/>
       <c r="F75" s="8"/>
@@ -9701,7 +9719,7 @@
       <c r="AF75" s="8"/>
       <c r="AH75" s="8"/>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="D76" s="8"/>
       <c r="F76" s="8"/>
@@ -9720,7 +9738,7 @@
       <c r="AF76" s="8"/>
       <c r="AH76" s="8"/>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
       <c r="F77" s="8"/>
@@ -9739,7 +9757,7 @@
       <c r="AF77" s="8"/>
       <c r="AH77" s="8"/>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
       <c r="F78" s="8"/>
@@ -9758,7 +9776,7 @@
       <c r="AF78" s="8"/>
       <c r="AH78" s="8"/>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="D79" s="8"/>
       <c r="F79" s="8"/>
@@ -9777,7 +9795,7 @@
       <c r="AF79" s="8"/>
       <c r="AH79" s="8"/>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="D80" s="8"/>
       <c r="F80" s="8"/>
@@ -9796,7 +9814,7 @@
       <c r="AF80" s="8"/>
       <c r="AH80" s="8"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="D81" s="8"/>
       <c r="F81" s="8"/>
@@ -9815,7 +9833,7 @@
       <c r="AF81" s="8"/>
       <c r="AH81" s="8"/>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="D82" s="8"/>
       <c r="F82" s="8"/>
@@ -9834,7 +9852,7 @@
       <c r="AF82" s="8"/>
       <c r="AH82" s="8"/>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="D83" s="8"/>
       <c r="F83" s="8"/>
@@ -9853,7 +9871,7 @@
       <c r="AF83" s="8"/>
       <c r="AH83" s="8"/>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="D84" s="8"/>
       <c r="F84" s="8"/>
@@ -9872,7 +9890,7 @@
       <c r="AF84" s="8"/>
       <c r="AH84" s="8"/>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="D85" s="8"/>
       <c r="F85" s="8"/>
@@ -9891,7 +9909,7 @@
       <c r="AF85" s="8"/>
       <c r="AH85" s="8"/>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="D86" s="8"/>
       <c r="F86" s="8"/>
@@ -9910,7 +9928,7 @@
       <c r="AF86" s="8"/>
       <c r="AH86" s="8"/>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="D87" s="8"/>
       <c r="F87" s="8"/>
@@ -9929,7 +9947,7 @@
       <c r="AF87" s="8"/>
       <c r="AH87" s="8"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="D88" s="8"/>
       <c r="F88" s="8"/>
@@ -9948,7 +9966,7 @@
       <c r="AF88" s="8"/>
       <c r="AH88" s="8"/>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="D89" s="8"/>
       <c r="F89" s="8"/>
@@ -9967,7 +9985,7 @@
       <c r="AF89" s="8"/>
       <c r="AH89" s="8"/>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="D90" s="8"/>
       <c r="F90" s="8"/>
@@ -9986,7 +10004,7 @@
       <c r="AF90" s="8"/>
       <c r="AH90" s="8"/>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="D91" s="8"/>
       <c r="F91" s="8"/>
@@ -10005,7 +10023,7 @@
       <c r="AF91" s="8"/>
       <c r="AH91" s="8"/>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="D92" s="8"/>
       <c r="F92" s="8"/>
@@ -10024,7 +10042,7 @@
       <c r="AF92" s="8"/>
       <c r="AH92" s="8"/>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="D93" s="8"/>
       <c r="F93" s="8"/>
@@ -10043,7 +10061,7 @@
       <c r="AF93" s="8"/>
       <c r="AH93" s="8"/>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="D94" s="8"/>
       <c r="F94" s="8"/>
@@ -10062,7 +10080,7 @@
       <c r="AF94" s="8"/>
       <c r="AH94" s="8"/>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="D95" s="8"/>
       <c r="F95" s="8"/>
@@ -10081,7 +10099,7 @@
       <c r="AF95" s="8"/>
       <c r="AH95" s="8"/>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="D96" s="8"/>
       <c r="F96" s="8"/>
@@ -10100,7 +10118,7 @@
       <c r="AF96" s="8"/>
       <c r="AH96" s="8"/>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="D97" s="8"/>
       <c r="F97" s="8"/>
@@ -10119,7 +10137,7 @@
       <c r="AF97" s="8"/>
       <c r="AH97" s="8"/>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="D98" s="8"/>
       <c r="F98" s="8"/>
@@ -10138,7 +10156,7 @@
       <c r="AF98" s="8"/>
       <c r="AH98" s="8"/>
     </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="F99" s="8"/>
@@ -10157,7 +10175,7 @@
       <c r="AF99" s="8"/>
       <c r="AH99" s="8"/>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="D100" s="8"/>
       <c r="F100" s="8"/>
@@ -10176,7 +10194,7 @@
       <c r="AF100" s="8"/>
       <c r="AH100" s="8"/>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="D101" s="8"/>
       <c r="F101" s="8"/>
@@ -10195,7 +10213,7 @@
       <c r="AF101" s="8"/>
       <c r="AH101" s="8"/>
     </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="D102" s="8"/>
       <c r="F102" s="8"/>
@@ -10214,7 +10232,7 @@
       <c r="AF102" s="8"/>
       <c r="AH102" s="8"/>
     </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="D103" s="8"/>
       <c r="F103" s="8"/>
@@ -10233,7 +10251,7 @@
       <c r="AF103" s="8"/>
       <c r="AH103" s="8"/>
     </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="D104" s="8"/>
       <c r="F104" s="8"/>
@@ -10252,7 +10270,7 @@
       <c r="AF104" s="8"/>
       <c r="AH104" s="8"/>
     </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="D105" s="8"/>
       <c r="F105" s="8"/>
@@ -10271,7 +10289,7 @@
       <c r="AF105" s="8"/>
       <c r="AH105" s="8"/>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="D106" s="8"/>
       <c r="F106" s="8"/>
@@ -10290,7 +10308,7 @@
       <c r="AF106" s="8"/>
       <c r="AH106" s="8"/>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="D107" s="8"/>
       <c r="F107" s="8"/>
@@ -10309,7 +10327,7 @@
       <c r="AF107" s="8"/>
       <c r="AH107" s="8"/>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="D108" s="8"/>
       <c r="F108" s="8"/>
@@ -10328,7 +10346,7 @@
       <c r="AF108" s="8"/>
       <c r="AH108" s="8"/>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="D109" s="8"/>
       <c r="F109" s="8"/>
@@ -10347,7 +10365,7 @@
       <c r="AF109" s="8"/>
       <c r="AH109" s="8"/>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="D110" s="8"/>
       <c r="F110" s="8"/>
@@ -10366,7 +10384,7 @@
       <c r="AF110" s="8"/>
       <c r="AH110" s="8"/>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="D111" s="8"/>
       <c r="F111" s="8"/>
@@ -10385,7 +10403,7 @@
       <c r="AF111" s="8"/>
       <c r="AH111" s="8"/>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="D112" s="8"/>
       <c r="F112" s="8"/>
@@ -10404,7 +10422,7 @@
       <c r="AF112" s="8"/>
       <c r="AH112" s="8"/>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="D113" s="8"/>
       <c r="F113" s="8"/>
@@ -10423,7 +10441,7 @@
       <c r="AF113" s="8"/>
       <c r="AH113" s="8"/>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="D114" s="8"/>
       <c r="F114" s="8"/>
@@ -10442,7 +10460,7 @@
       <c r="AF114" s="8"/>
       <c r="AH114" s="8"/>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="D115" s="8"/>
       <c r="F115" s="8"/>
@@ -10461,7 +10479,7 @@
       <c r="AF115" s="8"/>
       <c r="AH115" s="8"/>
     </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="D116" s="8"/>
       <c r="F116" s="8"/>
@@ -10488,30 +10506,30 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A2:L55"/>
+  <dimension ref="A2:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>134</v>
       </c>
@@ -10522,7 +10540,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -10535,11 +10553,11 @@
         <v>887</v>
       </c>
       <c r="H5" s="9">
-        <v>887</v>
+        <v>1774</v>
       </c>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -10552,28 +10570,28 @@
         <v>13</v>
       </c>
       <c r="H6" s="9">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="8">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H7" s="9">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -10590,7 +10608,7 @@
       </c>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -10607,7 +10625,7 @@
       </c>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -10624,7 +10642,7 @@
       </c>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -10641,7 +10659,7 @@
       </c>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -10657,7 +10675,7 @@
       </c>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -10673,7 +10691,7 @@
       </c>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -10689,7 +10707,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -10702,44 +10720,44 @@
         <v>104.5</v>
       </c>
       <c r="H15" s="9">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="37"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="8">
         <f>SUM(B5:B17)</f>
-        <v>3312</v>
+        <v>3320</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
       </c>
       <c r="E18" s="30">
         <f>B45-B18</f>
-        <v>-22</v>
+        <v>-30</v>
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>140</v>
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -10754,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -10769,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>148</v>
       </c>
@@ -10784,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>149</v>
       </c>
@@ -10799,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>150</v>
       </c>
@@ -10814,16 +10832,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -10836,23 +10854,23 @@
       </c>
       <c r="E29" s="8">
         <f>(E18-B29)</f>
-        <v>-276</v>
+        <v>-284</v>
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>141</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>142</v>
       </c>
@@ -10867,7 +10885,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>143</v>
       </c>
@@ -10882,7 +10900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>98</v>
       </c>
@@ -10897,7 +10915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>147</v>
       </c>
@@ -10912,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>151</v>
       </c>
@@ -10927,7 +10945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
         <v>152</v>
       </c>
@@ -10942,7 +10960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
         <v>157</v>
       </c>
@@ -10951,14 +10969,14 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
         <v>47</v>
       </c>
@@ -10970,10 +10988,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -10992,13 +11010,13 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -11011,49 +11029,49 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>146</v>
       </c>
       <c r="B47" s="8">
         <f>SUM(B18,B29,B42)</f>
-        <v>4182</v>
+        <v>4190</v>
       </c>
       <c r="F47" s="9">
         <f>SUM(F5:F40)</f>
-        <v>1678.5</v>
+        <v>1682.5</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9">
         <f>SUM(H5:H40)</f>
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>145</v>
       </c>
       <c r="B48" s="32">
         <f>E29-B42</f>
-        <v>-892</v>
+        <v>-900</v>
       </c>
       <c r="C48" s="32"/>
       <c r="F48" s="9">
         <f>C45-F47</f>
-        <v>-33.5</v>
+        <v>-37.5</v>
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -11061,25 +11079,25 @@
         <v>62</v>
       </c>
       <c r="F51" s="12">
-        <v>1943</v>
+        <v>5978</v>
       </c>
       <c r="H51" s="35">
         <f>F51-H47</f>
-        <v>337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>134</v>
       </c>
       <c r="B52" s="33">
         <f>B18/B45</f>
-        <v>1.0066869300911854</v>
+        <v>1.0091185410334347</v>
       </c>
       <c r="C52" s="33"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>140</v>
       </c>
@@ -11089,7 +11107,7 @@
       </c>
       <c r="C53" s="33"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>141</v>
       </c>
@@ -11098,16 +11116,95 @@
         <v>0.18723404255319148</v>
       </c>
       <c r="C54" s="33"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="33">
         <f>B48/B45</f>
-        <v>-0.2711246200607903</v>
+        <v>-0.2735562310030395</v>
       </c>
       <c r="C55" s="33"/>
+      <c r="F55" s="7"/>
+      <c r="G55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E56" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="7">
+        <v>471</v>
+      </c>
+      <c r="G56" s="7">
+        <f>H51-F56</f>
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E57" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="7">
+        <f>G56-F57</f>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E58" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="7">
+        <f>G57-F58</f>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E59" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F59" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="7">
+        <f>G58-F59</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E63" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" s="7">
+        <f>G61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11123,15 +11220,15 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42839</v>
       </c>
@@ -11139,7 +11236,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11150,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11161,7 +11258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11172,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -11183,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -11201,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11216,7 +11313,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -11231,7 +11328,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -11244,7 +11341,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -11257,7 +11354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -11270,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11285,7 +11382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -11298,7 +11395,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -11307,13 +11404,13 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -11329,10 +11426,10 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -11346,10 +11443,10 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -11365,13 +11462,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>34</v>
       </c>
@@ -11379,13 +11476,13 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="9">
         <f>SUM(E7:E14)</f>
         <v>1096</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>35</v>
       </c>
@@ -11394,10 +11491,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>36</v>
       </c>
@@ -11405,7 +11502,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>37</v>
       </c>
@@ -11413,10 +11510,10 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>38</v>
       </c>
@@ -11424,7 +11521,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>39</v>
       </c>
@@ -11432,13 +11529,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E34" s="8">
         <f>SUM(E32:E33)</f>
         <v>1112</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>40</v>
       </c>
@@ -11447,10 +11544,10 @@
         <v>873</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>41</v>
       </c>
@@ -11458,10 +11555,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -11470,43 +11567,43 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
     </row>
   </sheetData>
@@ -11521,15 +11618,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -11537,7 +11634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>47</v>
       </c>
@@ -11545,7 +11642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>90</v>
       </c>
@@ -11559,7 +11656,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>91</v>
       </c>
@@ -11573,7 +11670,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>92</v>
       </c>
@@ -11587,7 +11684,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>93</v>
       </c>
@@ -11595,7 +11692,7 @@
         <v>146.79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>26</v>
       </c>
@@ -11603,7 +11700,7 @@
         <v>72.709999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>47</v>
       </c>
@@ -11611,7 +11708,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -11619,7 +11716,7 @@
         <v>1035.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>94</v>
       </c>
@@ -11627,7 +11724,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>95</v>
       </c>
@@ -11636,7 +11733,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>96</v>
       </c>
@@ -11645,7 +11742,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>55</v>
       </c>
@@ -11654,7 +11751,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>94</v>
       </c>
@@ -11663,7 +11760,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>26</v>
       </c>
@@ -11672,7 +11769,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>97</v>
       </c>
@@ -11681,7 +11778,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>94</v>
       </c>
@@ -11690,7 +11787,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>99</v>
       </c>
@@ -11698,7 +11795,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>94</v>
       </c>
@@ -11706,7 +11803,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>100</v>
       </c>
@@ -11714,7 +11811,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>101</v>
       </c>
@@ -11722,7 +11819,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>102</v>
       </c>
@@ -11730,7 +11827,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>98</v>
       </c>
@@ -11738,7 +11835,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
@@ -11746,7 +11843,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>98</v>
       </c>
@@ -11754,7 +11851,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>104</v>
       </c>
@@ -11762,7 +11859,7 @@
         <v>70.16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>105</v>
       </c>
@@ -11770,7 +11867,7 @@
         <v>97.17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>47</v>
       </c>
@@ -11778,7 +11875,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>94</v>
       </c>
@@ -11786,7 +11883,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>130</v>
       </c>
@@ -11794,7 +11891,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>129</v>
       </c>
@@ -11802,7 +11899,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>128</v>
       </c>
@@ -11810,7 +11907,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>127</v>
       </c>
@@ -11818,7 +11915,7 @@
         <v>26.71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>114</v>
       </c>
@@ -11826,7 +11923,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>94</v>
       </c>
@@ -11834,7 +11931,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>94</v>
       </c>
@@ -11842,7 +11939,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>126</v>
       </c>
@@ -11850,7 +11947,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>94</v>
       </c>
@@ -11858,7 +11955,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>125</v>
       </c>
@@ -11866,7 +11963,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>124</v>
       </c>
@@ -11874,7 +11971,7 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>47</v>
       </c>
@@ -11882,7 +11979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>94</v>
       </c>
@@ -11890,7 +11987,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>105</v>
       </c>
@@ -11898,7 +11995,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>94</v>
       </c>
@@ -11906,7 +12003,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>123</v>
       </c>
@@ -11914,7 +12011,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>98</v>
       </c>
@@ -11922,7 +12019,7 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>122</v>
       </c>
@@ -11930,7 +12027,7 @@
         <v>26.27</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>121</v>
       </c>
@@ -11938,7 +12035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>104</v>
       </c>
@@ -11946,7 +12043,7 @@
         <v>80.33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>106</v>
       </c>
@@ -11954,7 +12051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>120</v>
       </c>
@@ -11962,7 +12059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>105</v>
       </c>
@@ -11970,7 +12067,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>16</v>
       </c>
@@ -11978,7 +12075,7 @@
         <v>63.59</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>30</v>
       </c>
@@ -11986,7 +12083,7 @@
         <v>244.42</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
         <v>119</v>
       </c>
@@ -11994,7 +12091,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
         <v>92</v>
       </c>
@@ -12002,7 +12099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>118</v>
       </c>
@@ -12010,7 +12107,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>117</v>
       </c>
@@ -12018,7 +12115,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
         <v>116</v>
       </c>
@@ -12026,7 +12123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>107</v>
       </c>
@@ -12034,7 +12131,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>108</v>
       </c>
@@ -12042,7 +12139,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>115</v>
       </c>
@@ -12050,7 +12147,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="s">
         <v>114</v>
       </c>
@@ -12058,7 +12155,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
         <v>92</v>
       </c>
@@ -12066,7 +12163,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>2</v>
       </c>
@@ -12074,7 +12171,7 @@
         <v>164.84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>94</v>
       </c>
@@ -12082,7 +12179,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>94</v>
       </c>
@@ -12090,7 +12187,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
         <v>113</v>
       </c>
@@ -12098,7 +12195,7 @@
         <v>35.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>112</v>
       </c>
@@ -12106,7 +12203,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>94</v>
       </c>
@@ -12114,7 +12211,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>102</v>
       </c>
@@ -12122,7 +12219,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>105</v>
       </c>
@@ -12130,7 +12227,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>94</v>
       </c>
@@ -12138,7 +12235,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="23" t="s">
         <v>111</v>
       </c>
@@ -12146,7 +12243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>104</v>
       </c>
@@ -12154,7 +12251,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
         <v>94</v>
       </c>
@@ -12162,7 +12259,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="23" t="s">
         <v>110</v>
       </c>
@@ -12170,7 +12267,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
         <v>109</v>
       </c>
@@ -12178,7 +12275,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>47</v>
       </c>
@@ -12200,14 +12297,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -12218,7 +12315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43156</v>
       </c>
@@ -12229,7 +12326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43542</v>
       </c>
@@ -12240,7 +12337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43599</v>
       </c>
@@ -12251,7 +12348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43606</v>
       </c>
@@ -12262,7 +12359,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43609</v>
       </c>
@@ -12273,7 +12370,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43630</v>
       </c>
@@ -12284,16 +12381,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -12302,7 +12399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -12310,7 +12407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12338,22 +12435,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42867</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12364,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12375,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12386,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12397,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12416,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12432,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12444,7 +12541,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12458,7 +12555,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12470,7 +12567,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12486,7 +12583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12500,7 +12597,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12509,13 +12606,13 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -12531,10 +12628,10 @@
         <v>883</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12549,10 +12646,10 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -12565,12 +12662,12 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -12578,7 +12675,7 @@
         <v>1136.5899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -12587,7 +12684,7 @@
         <v>544.56999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -12596,7 +12693,7 @@
         <v>592.02</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -12604,7 +12701,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -12616,7 +12713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>345</v>
       </c>
@@ -12635,20 +12732,20 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42881</v>
       </c>
@@ -12659,7 +12756,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12676,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12693,7 +12790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12710,7 +12807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12727,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12749,7 +12846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12769,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12789,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12809,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12829,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12852,7 +12949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12870,7 +12967,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12885,15 +12982,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -12916,11 +13013,11 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12943,11 +13040,11 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -12970,7 +13067,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -12987,17 +13084,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42923</v>
       </c>
@@ -13005,7 +13102,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13019,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13033,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13047,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13061,7 +13158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13077,7 +13174,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13093,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13109,7 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13125,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13141,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13157,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13173,7 +13270,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13185,13 +13282,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13207,10 +13304,10 @@
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13224,10 +13321,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13243,7 +13340,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13260,17 +13357,17 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42951</v>
       </c>
@@ -13278,7 +13375,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13292,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13306,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13320,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13334,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13352,7 +13449,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13368,7 +13465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13384,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13400,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13416,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13432,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13448,7 +13545,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13460,13 +13557,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13482,10 +13579,10 @@
         <v>1132.57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13499,10 +13596,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13518,7 +13615,7 @@
         <v>206.43000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13535,20 +13632,20 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="10"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="10"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42979</v>
       </c>
@@ -13560,7 +13657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13578,7 +13675,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13596,7 +13693,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13614,7 +13711,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13632,7 +13729,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13654,7 +13751,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13672,7 +13769,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13690,7 +13787,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13708,7 +13805,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13726,7 +13823,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13744,7 +13841,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13764,7 +13861,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13780,15 +13877,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13805,11 +13902,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13824,11 +13921,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13845,7 +13942,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -13853,7 +13950,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -13862,7 +13959,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -13871,7 +13968,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13888,18 +13985,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43007</v>
       </c>
@@ -13908,7 +14005,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13926,7 +14023,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13941,7 +14038,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13959,7 +14056,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13977,7 +14074,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14000,7 +14097,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14018,7 +14115,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14036,7 +14133,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14057,7 +14154,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14075,7 +14172,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -14093,7 +14190,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -14109,15 +14206,15 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -14134,11 +14231,11 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -14153,11 +14250,11 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14174,7 +14271,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="6"/>
     </row>
   </sheetData>
@@ -14191,18 +14288,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43035</v>
       </c>
@@ -14211,7 +14308,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14226,7 +14323,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14241,7 +14338,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14256,7 +14353,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -14271,7 +14368,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14291,7 +14388,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14309,7 +14406,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14327,7 +14424,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14345,7 +14442,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14363,7 +14460,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -14381,7 +14478,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -14399,7 +14496,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -14412,15 +14509,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -14437,11 +14534,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -14456,11 +14553,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14477,7 +14574,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>

--- a/bill-pay-checklist_Reichhard.excel.xlsx
+++ b/bill-pay-checklist_Reichhard.excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rreichhard\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ABA03F-A166-446C-B375-70C4FDD27BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC15DC-BAB7-490B-BD1F-0ACF9D1D2198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="March 2017" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1171,16 +1171,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>42811</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1464,7 +1464,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1512,7 +1512,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1533,7 +1533,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1554,7 +1554,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1575,7 +1575,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1596,7 +1596,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1617,7 +1617,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1638,7 +1638,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1659,7 +1659,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1680,7 +1680,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1701,7 +1701,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1722,7 +1722,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1743,7 +1743,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1764,7 +1764,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1785,7 +1785,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1806,7 +1806,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1841,18 +1841,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43063</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2087,15 +2087,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2118,11 +2118,11 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2142,11 +2142,11 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -2186,18 +2186,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43105</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2432,15 +2432,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2463,11 +2463,11 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2487,11 +2487,11 @@
         <v>1280.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>255.20000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>1834.34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>1389.3400000000001</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" s="6"/>
     </row>
   </sheetData>
@@ -2565,18 +2565,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43133</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>1003.84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2791,15 +2791,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2822,11 +2822,11 @@
         <v>1525.8400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2846,11 +2846,11 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>-206.84000000000015</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -2891,18 +2891,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43175</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -3155,15 +3155,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3186,11 +3186,11 @@
         <v>1415.57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3210,11 +3210,11 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3237,12 +3237,12 @@
         <v>-73.569999999999936</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I23">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3260,20 +3260,20 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43203</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1129.57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3518,15 +3518,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3552,11 +3552,11 @@
         <v>2109.21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3579,11 +3579,11 @@
         <v>1619.57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>489.6400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3627,17 +3627,17 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43231</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3782,15 +3782,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3809,11 +3809,11 @@
         <v>338.29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3827,11 +3827,11 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E21" s="8"/>
       <c r="G21" t="s">
         <v>70</v>
@@ -3860,13 +3860,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E24" s="8"/>
       <c r="G24" t="s">
         <v>28</v>
@@ -3876,262 +3876,262 @@
         <v>309.28999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E110" s="8"/>
     </row>
   </sheetData>
@@ -4148,16 +4148,16 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43259</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4448,7 +4448,7 @@
       <c r="I14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4457,7 +4457,7 @@
       <c r="I15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4493,7 +4493,7 @@
       <c r="I17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4524,7 +4524,7 @@
       <c r="I19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4560,7 +4560,7 @@
       <c r="I21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4571,7 +4571,7 @@
       <c r="I22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4587,7 +4587,7 @@
       <c r="I23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4596,7 +4596,7 @@
       <c r="I24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
@@ -4609,7 +4609,7 @@
       <c r="I25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4618,7 +4618,7 @@
       <c r="I26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
@@ -4632,7 +4632,7 @@
       <c r="I27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4641,7 +4641,7 @@
       <c r="I28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4650,7 +4650,7 @@
       <c r="I29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
@@ -4664,7 +4664,7 @@
       <c r="I30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -4673,7 +4673,7 @@
       <c r="I31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
@@ -4686,7 +4686,7 @@
       <c r="I32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -4695,7 +4695,7 @@
       <c r="I33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -4704,7 +4704,7 @@
       <c r="I34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -4713,451 +4713,451 @@
       <c r="I35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="G36" s="8"/>
       <c r="I36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E37" s="8"/>
       <c r="G37" s="8"/>
       <c r="I37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
       <c r="I38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
       <c r="I39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
       <c r="I40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
       <c r="I41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
       <c r="I42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
       <c r="I43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
       <c r="I44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
       <c r="I45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
       <c r="I46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
       <c r="I47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
       <c r="I48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
       <c r="I49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
       <c r="I50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
       <c r="I51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
       <c r="I52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
       <c r="I53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
       <c r="I54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
       <c r="I55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
       <c r="I56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
       <c r="I57" s="8"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
       <c r="I58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
       <c r="I59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
       <c r="I60" s="8"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
       <c r="I61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
       <c r="I62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
       <c r="I63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
       <c r="I64" s="8"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
       <c r="I65" s="8"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
       <c r="I66" s="8"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
       <c r="I67" s="8"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
       <c r="I68" s="8"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
       <c r="I69" s="8"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
       <c r="I70" s="8"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
       <c r="I71" s="8"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
       <c r="I72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
       <c r="I73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
       <c r="I74" s="8"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
       <c r="I75" s="8"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
       <c r="I76" s="8"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
       <c r="I77" s="8"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
       <c r="I78" s="8"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
       <c r="I79" s="8"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
       <c r="I80" s="8"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
       <c r="I81" s="8"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
       <c r="I82" s="8"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
       <c r="I83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
       <c r="I84" s="8"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
       <c r="I85" s="8"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
       <c r="I86" s="8"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
       <c r="I87" s="8"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
       <c r="I88" s="8"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
       <c r="I89" s="8"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
       <c r="I90" s="8"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
       <c r="I91" s="8"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
       <c r="I92" s="8"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
       <c r="I93" s="8"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
       <c r="I94" s="8"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
       <c r="I95" s="8"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
       <c r="I96" s="8"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
       <c r="I97" s="8"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
       <c r="I98" s="8"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
       <c r="I99" s="8"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
       <c r="I100" s="8"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
       <c r="I101" s="8"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
       <c r="I102" s="8"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
       <c r="I103" s="8"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
       <c r="I104" s="8"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
       <c r="I105" s="8"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
       <c r="I106" s="8"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
       <c r="I107" s="8"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
       <c r="I108" s="8"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
       <c r="I109" s="8"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
       <c r="I110" s="8"/>
@@ -5177,21 +5177,21 @@
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="17" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43343</v>
@@ -5227,7 +5227,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -5675,7 +5675,7 @@
       <c r="W13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="E14" s="12"/>
       <c r="G14" s="12"/>
@@ -5692,7 +5692,7 @@
       <c r="W14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="E16" s="12"/>
       <c r="G16" s="12"/>
@@ -5756,7 +5756,7 @@
       <c r="W16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="E18" s="12"/>
       <c r="G18" s="12"/>
@@ -5812,7 +5812,7 @@
       <c r="W18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="W19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="E20" s="12"/>
       <c r="G20" s="12"/>
@@ -5857,7 +5857,7 @@
       <c r="W20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
@@ -5926,7 +5926,7 @@
       <c r="W22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="E23" s="12"/>
       <c r="G23" s="12"/>
@@ -5943,7 +5943,7 @@
       <c r="W23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5975,7 +5975,7 @@
       <c r="W24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
@@ -5992,7 +5992,7 @@
       <c r="W25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>-775</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B27" s="12"/>
       <c r="E27" s="12"/>
       <c r="G27" s="12"/>
@@ -6055,7 +6055,7 @@
       <c r="W27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="E28" s="12"/>
       <c r="G28" s="12"/>
@@ -6072,7 +6072,7 @@
       <c r="W28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -6092,31 +6092,31 @@
       <c r="W29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="E36" s="12"/>
       <c r="G36" s="12"/>
@@ -6133,7 +6133,7 @@
       <c r="W36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
       <c r="E37" s="12"/>
       <c r="G37" s="12"/>
@@ -6150,7 +6150,7 @@
       <c r="W37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
       <c r="E38" s="12"/>
       <c r="G38" s="12"/>
@@ -6167,7 +6167,7 @@
       <c r="W38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
@@ -6184,7 +6184,7 @@
       <c r="W39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
@@ -6201,7 +6201,7 @@
       <c r="W40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
@@ -6218,7 +6218,7 @@
       <c r="W41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
@@ -6235,7 +6235,7 @@
       <c r="W42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
@@ -6252,7 +6252,7 @@
       <c r="W43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
@@ -6269,7 +6269,7 @@
       <c r="W44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
@@ -6286,7 +6286,7 @@
       <c r="W45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
@@ -6303,7 +6303,7 @@
       <c r="W46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
@@ -6320,7 +6320,7 @@
       <c r="W47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
@@ -6337,7 +6337,7 @@
       <c r="W48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
@@ -6354,7 +6354,7 @@
       <c r="W49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
@@ -6371,7 +6371,7 @@
       <c r="W50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
@@ -6388,7 +6388,7 @@
       <c r="W51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
@@ -6405,7 +6405,7 @@
       <c r="W52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
@@ -6422,7 +6422,7 @@
       <c r="W53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
@@ -6439,7 +6439,7 @@
       <c r="W54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
@@ -6456,7 +6456,7 @@
       <c r="W55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
@@ -6473,7 +6473,7 @@
       <c r="W56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
@@ -6490,7 +6490,7 @@
       <c r="W57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B58" s="8"/>
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
@@ -6507,7 +6507,7 @@
       <c r="W58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
@@ -6524,7 +6524,7 @@
       <c r="W59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B60" s="8"/>
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
@@ -6541,7 +6541,7 @@
       <c r="W60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
@@ -6558,7 +6558,7 @@
       <c r="W61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
@@ -6575,7 +6575,7 @@
       <c r="W62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
@@ -6592,7 +6592,7 @@
       <c r="W63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B64" s="8"/>
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
@@ -6609,7 +6609,7 @@
       <c r="W64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
@@ -6626,7 +6626,7 @@
       <c r="W65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
@@ -6643,7 +6643,7 @@
       <c r="W66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
@@ -6660,7 +6660,7 @@
       <c r="W67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
@@ -6677,7 +6677,7 @@
       <c r="W68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
@@ -6694,7 +6694,7 @@
       <c r="W69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
@@ -6711,7 +6711,7 @@
       <c r="W70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B71" s="8"/>
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
@@ -6728,7 +6728,7 @@
       <c r="W71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B72" s="8"/>
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
@@ -6745,7 +6745,7 @@
       <c r="W72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
@@ -6762,7 +6762,7 @@
       <c r="W73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
@@ -6779,7 +6779,7 @@
       <c r="W74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
@@ -6796,7 +6796,7 @@
       <c r="W75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B76" s="8"/>
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
@@ -6813,7 +6813,7 @@
       <c r="W76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
@@ -6830,7 +6830,7 @@
       <c r="W77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B78" s="8"/>
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
@@ -6847,7 +6847,7 @@
       <c r="W78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
@@ -6864,7 +6864,7 @@
       <c r="W79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B80" s="8"/>
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
@@ -6881,7 +6881,7 @@
       <c r="W80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
@@ -6898,7 +6898,7 @@
       <c r="W81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B82" s="8"/>
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
@@ -6915,7 +6915,7 @@
       <c r="W82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
@@ -6932,7 +6932,7 @@
       <c r="W83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
@@ -6949,7 +6949,7 @@
       <c r="W84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
@@ -6966,7 +6966,7 @@
       <c r="W85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B86" s="8"/>
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
@@ -6983,7 +6983,7 @@
       <c r="W86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B87" s="8"/>
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
@@ -7000,7 +7000,7 @@
       <c r="W87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
@@ -7017,7 +7017,7 @@
       <c r="W88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B89" s="8"/>
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
@@ -7034,7 +7034,7 @@
       <c r="W89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
@@ -7051,7 +7051,7 @@
       <c r="W90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B91" s="8"/>
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
@@ -7068,7 +7068,7 @@
       <c r="W91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B92" s="8"/>
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
@@ -7085,7 +7085,7 @@
       <c r="W92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
@@ -7102,7 +7102,7 @@
       <c r="W93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
@@ -7119,7 +7119,7 @@
       <c r="W94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
@@ -7136,7 +7136,7 @@
       <c r="W95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B96" s="8"/>
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
@@ -7153,7 +7153,7 @@
       <c r="W96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B97" s="8"/>
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
@@ -7170,7 +7170,7 @@
       <c r="W97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B98" s="8"/>
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
@@ -7187,7 +7187,7 @@
       <c r="W98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B99" s="8"/>
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
@@ -7204,7 +7204,7 @@
       <c r="W99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B100" s="8"/>
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
@@ -7221,7 +7221,7 @@
       <c r="W100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B101" s="8"/>
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
@@ -7238,7 +7238,7 @@
       <c r="W101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B102" s="8"/>
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
@@ -7255,7 +7255,7 @@
       <c r="W102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B103" s="8"/>
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
@@ -7272,7 +7272,7 @@
       <c r="W103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B104" s="8"/>
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
@@ -7289,7 +7289,7 @@
       <c r="W104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B105" s="8"/>
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
@@ -7306,7 +7306,7 @@
       <c r="W105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B106" s="8"/>
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
@@ -7323,7 +7323,7 @@
       <c r="W106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B107" s="8"/>
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
@@ -7340,7 +7340,7 @@
       <c r="W107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B108" s="8"/>
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
@@ -7357,7 +7357,7 @@
       <c r="W108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B109" s="8"/>
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
@@ -7374,7 +7374,7 @@
       <c r="W109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B110" s="8"/>
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
@@ -7391,7 +7391,7 @@
       <c r="W110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B111" s="8"/>
       <c r="E111" s="8"/>
       <c r="G111" s="8"/>
@@ -7408,7 +7408,7 @@
       <c r="W111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B112" s="8"/>
       <c r="E112" s="8"/>
       <c r="G112" s="8"/>
@@ -7425,7 +7425,7 @@
       <c r="W112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B113" s="8"/>
       <c r="E113" s="8"/>
       <c r="G113" s="8"/>
@@ -7456,43 +7456,43 @@
       <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43455</v>
@@ -7552,7 +7552,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="D15" s="12"/>
       <c r="F15" s="12"/>
@@ -8379,7 +8379,7 @@
       <c r="AJ15" s="12"/>
       <c r="AL15" s="12"/>
     </row>
-    <row r="16" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="D16" s="20"/>
       <c r="F16" s="20"/>
@@ -8400,7 +8400,7 @@
       <c r="AJ16" s="20"/>
       <c r="AL16" s="20"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="D17" s="12"/>
       <c r="F17" s="12"/>
@@ -8421,7 +8421,7 @@
       <c r="AJ17" s="12"/>
       <c r="AL17" s="12"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="F19" s="12"/>
@@ -8523,7 +8523,7 @@
       <c r="AJ19" s="12"/>
       <c r="AL19" s="12"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
       <c r="F21" s="12"/>
@@ -8606,7 +8606,7 @@
       <c r="AJ21" s="12"/>
       <c r="AL21" s="12"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -8634,7 +8634,7 @@
       <c r="AJ22" s="12"/>
       <c r="AL22" s="12"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
       <c r="F23" s="12"/>
@@ -8655,7 +8655,7 @@
       <c r="AJ23" s="12"/>
       <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="D25" s="12"/>
       <c r="F25" s="12"/>
@@ -8757,7 +8757,7 @@
       <c r="AJ25" s="12"/>
       <c r="AL25" s="12"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="D26" s="12"/>
       <c r="F26" s="12"/>
@@ -8778,7 +8778,7 @@
       <c r="AJ26" s="12"/>
       <c r="AL26" s="12"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -8832,7 +8832,7 @@
       <c r="AJ27" s="12"/>
       <c r="AL27" s="12"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
       <c r="F28" s="12"/>
@@ -8853,7 +8853,7 @@
       <c r="AJ28" s="12"/>
       <c r="AL28" s="12"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>-1447</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
       <c r="F30" s="12"/>
@@ -8953,7 +8953,7 @@
       <c r="AF30" s="12"/>
       <c r="AH30" s="12"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
       <c r="F31" s="12"/>
@@ -8972,7 +8972,7 @@
       <c r="AF31" s="12"/>
       <c r="AH31" s="12"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -8994,29 +8994,29 @@
       <c r="AF32" s="12"/>
       <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="V33" s="8">
         <v>2250.19</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
       <c r="F39" s="12"/>
@@ -9035,7 +9035,7 @@
       <c r="AF39" s="12"/>
       <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="D40" s="12"/>
       <c r="F40" s="12"/>
@@ -9054,7 +9054,7 @@
       <c r="AF40" s="12"/>
       <c r="AH40" s="12"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
       <c r="D41" s="12"/>
       <c r="F41" s="12"/>
@@ -9073,7 +9073,7 @@
       <c r="AF41" s="12"/>
       <c r="AH41" s="12"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="D42" s="8"/>
       <c r="F42" s="8"/>
@@ -9092,7 +9092,7 @@
       <c r="AF42" s="8"/>
       <c r="AH42" s="8"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
       <c r="D43" s="8"/>
       <c r="F43" s="8"/>
@@ -9111,7 +9111,7 @@
       <c r="AF43" s="8"/>
       <c r="AH43" s="8"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
       <c r="D44" s="8"/>
       <c r="F44" s="8"/>
@@ -9130,7 +9130,7 @@
       <c r="AF44" s="8"/>
       <c r="AH44" s="8"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="D45" s="8"/>
       <c r="F45" s="8"/>
@@ -9149,7 +9149,7 @@
       <c r="AF45" s="8"/>
       <c r="AH45" s="8"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="D46" s="8"/>
       <c r="F46" s="8"/>
@@ -9168,7 +9168,7 @@
       <c r="AF46" s="8"/>
       <c r="AH46" s="8"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
       <c r="D47" s="8"/>
       <c r="F47" s="8"/>
@@ -9187,7 +9187,7 @@
       <c r="AF47" s="8"/>
       <c r="AH47" s="8"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
       <c r="D48" s="8"/>
       <c r="F48" s="8"/>
@@ -9206,7 +9206,7 @@
       <c r="AF48" s="8"/>
       <c r="AH48" s="8"/>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
       <c r="D49" s="8"/>
       <c r="F49" s="8"/>
@@ -9225,7 +9225,7 @@
       <c r="AF49" s="8"/>
       <c r="AH49" s="8"/>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
       <c r="D50" s="8"/>
       <c r="F50" s="8"/>
@@ -9244,7 +9244,7 @@
       <c r="AF50" s="8"/>
       <c r="AH50" s="8"/>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
       <c r="D51" s="8"/>
       <c r="F51" s="8"/>
@@ -9263,7 +9263,7 @@
       <c r="AF51" s="8"/>
       <c r="AH51" s="8"/>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
       <c r="D52" s="8"/>
       <c r="F52" s="8"/>
@@ -9282,7 +9282,7 @@
       <c r="AF52" s="8"/>
       <c r="AH52" s="8"/>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="8"/>
@@ -9301,7 +9301,7 @@
       <c r="AF53" s="8"/>
       <c r="AH53" s="8"/>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
       <c r="D54" s="8"/>
       <c r="F54" s="8"/>
@@ -9320,7 +9320,7 @@
       <c r="AF54" s="8"/>
       <c r="AH54" s="8"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
       <c r="D55" s="8"/>
       <c r="F55" s="8"/>
@@ -9339,7 +9339,7 @@
       <c r="AF55" s="8"/>
       <c r="AH55" s="8"/>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
       <c r="D56" s="8"/>
       <c r="F56" s="8"/>
@@ -9358,7 +9358,7 @@
       <c r="AF56" s="8"/>
       <c r="AH56" s="8"/>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
       <c r="D57" s="8"/>
       <c r="F57" s="8"/>
@@ -9377,7 +9377,7 @@
       <c r="AF57" s="8"/>
       <c r="AH57" s="8"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B58" s="8"/>
       <c r="D58" s="8"/>
       <c r="F58" s="8"/>
@@ -9396,7 +9396,7 @@
       <c r="AF58" s="8"/>
       <c r="AH58" s="8"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
       <c r="D59" s="8"/>
       <c r="F59" s="8"/>
@@ -9415,7 +9415,7 @@
       <c r="AF59" s="8"/>
       <c r="AH59" s="8"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B60" s="8"/>
       <c r="D60" s="8"/>
       <c r="F60" s="8"/>
@@ -9434,7 +9434,7 @@
       <c r="AF60" s="8"/>
       <c r="AH60" s="8"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
       <c r="D61" s="8"/>
       <c r="F61" s="8"/>
@@ -9453,7 +9453,7 @@
       <c r="AF61" s="8"/>
       <c r="AH61" s="8"/>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
       <c r="D62" s="8"/>
       <c r="F62" s="8"/>
@@ -9472,7 +9472,7 @@
       <c r="AF62" s="8"/>
       <c r="AH62" s="8"/>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
       <c r="D63" s="8"/>
       <c r="F63" s="8"/>
@@ -9491,7 +9491,7 @@
       <c r="AF63" s="8"/>
       <c r="AH63" s="8"/>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B64" s="8"/>
       <c r="D64" s="8"/>
       <c r="F64" s="8"/>
@@ -9510,7 +9510,7 @@
       <c r="AF64" s="8"/>
       <c r="AH64" s="8"/>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
       <c r="D65" s="8"/>
       <c r="F65" s="8"/>
@@ -9529,7 +9529,7 @@
       <c r="AF65" s="8"/>
       <c r="AH65" s="8"/>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
       <c r="D66" s="8"/>
       <c r="F66" s="8"/>
@@ -9548,7 +9548,7 @@
       <c r="AF66" s="8"/>
       <c r="AH66" s="8"/>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
       <c r="D67" s="8"/>
       <c r="F67" s="8"/>
@@ -9567,7 +9567,7 @@
       <c r="AF67" s="8"/>
       <c r="AH67" s="8"/>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
       <c r="D68" s="8"/>
       <c r="F68" s="8"/>
@@ -9586,7 +9586,7 @@
       <c r="AF68" s="8"/>
       <c r="AH68" s="8"/>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
       <c r="D69" s="8"/>
       <c r="F69" s="8"/>
@@ -9605,7 +9605,7 @@
       <c r="AF69" s="8"/>
       <c r="AH69" s="8"/>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
       <c r="D70" s="8"/>
       <c r="F70" s="8"/>
@@ -9624,7 +9624,7 @@
       <c r="AF70" s="8"/>
       <c r="AH70" s="8"/>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B71" s="8"/>
       <c r="D71" s="8"/>
       <c r="F71" s="8"/>
@@ -9643,7 +9643,7 @@
       <c r="AF71" s="8"/>
       <c r="AH71" s="8"/>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B72" s="8"/>
       <c r="D72" s="8"/>
       <c r="F72" s="8"/>
@@ -9662,7 +9662,7 @@
       <c r="AF72" s="8"/>
       <c r="AH72" s="8"/>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
       <c r="D73" s="8"/>
       <c r="F73" s="8"/>
@@ -9681,7 +9681,7 @@
       <c r="AF73" s="8"/>
       <c r="AH73" s="8"/>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
       <c r="D74" s="8"/>
       <c r="F74" s="8"/>
@@ -9700,7 +9700,7 @@
       <c r="AF74" s="8"/>
       <c r="AH74" s="8"/>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
       <c r="D75" s="8"/>
       <c r="F75" s="8"/>
@@ -9719,7 +9719,7 @@
       <c r="AF75" s="8"/>
       <c r="AH75" s="8"/>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B76" s="8"/>
       <c r="D76" s="8"/>
       <c r="F76" s="8"/>
@@ -9738,7 +9738,7 @@
       <c r="AF76" s="8"/>
       <c r="AH76" s="8"/>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
       <c r="F77" s="8"/>
@@ -9757,7 +9757,7 @@
       <c r="AF77" s="8"/>
       <c r="AH77" s="8"/>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
       <c r="F78" s="8"/>
@@ -9776,7 +9776,7 @@
       <c r="AF78" s="8"/>
       <c r="AH78" s="8"/>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
       <c r="D79" s="8"/>
       <c r="F79" s="8"/>
@@ -9795,7 +9795,7 @@
       <c r="AF79" s="8"/>
       <c r="AH79" s="8"/>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B80" s="8"/>
       <c r="D80" s="8"/>
       <c r="F80" s="8"/>
@@ -9814,7 +9814,7 @@
       <c r="AF80" s="8"/>
       <c r="AH80" s="8"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
       <c r="D81" s="8"/>
       <c r="F81" s="8"/>
@@ -9833,7 +9833,7 @@
       <c r="AF81" s="8"/>
       <c r="AH81" s="8"/>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B82" s="8"/>
       <c r="D82" s="8"/>
       <c r="F82" s="8"/>
@@ -9852,7 +9852,7 @@
       <c r="AF82" s="8"/>
       <c r="AH82" s="8"/>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
       <c r="D83" s="8"/>
       <c r="F83" s="8"/>
@@ -9871,7 +9871,7 @@
       <c r="AF83" s="8"/>
       <c r="AH83" s="8"/>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
       <c r="D84" s="8"/>
       <c r="F84" s="8"/>
@@ -9890,7 +9890,7 @@
       <c r="AF84" s="8"/>
       <c r="AH84" s="8"/>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
       <c r="D85" s="8"/>
       <c r="F85" s="8"/>
@@ -9909,7 +9909,7 @@
       <c r="AF85" s="8"/>
       <c r="AH85" s="8"/>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B86" s="8"/>
       <c r="D86" s="8"/>
       <c r="F86" s="8"/>
@@ -9928,7 +9928,7 @@
       <c r="AF86" s="8"/>
       <c r="AH86" s="8"/>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B87" s="8"/>
       <c r="D87" s="8"/>
       <c r="F87" s="8"/>
@@ -9947,7 +9947,7 @@
       <c r="AF87" s="8"/>
       <c r="AH87" s="8"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
       <c r="D88" s="8"/>
       <c r="F88" s="8"/>
@@ -9966,7 +9966,7 @@
       <c r="AF88" s="8"/>
       <c r="AH88" s="8"/>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B89" s="8"/>
       <c r="D89" s="8"/>
       <c r="F89" s="8"/>
@@ -9985,7 +9985,7 @@
       <c r="AF89" s="8"/>
       <c r="AH89" s="8"/>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
       <c r="D90" s="8"/>
       <c r="F90" s="8"/>
@@ -10004,7 +10004,7 @@
       <c r="AF90" s="8"/>
       <c r="AH90" s="8"/>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B91" s="8"/>
       <c r="D91" s="8"/>
       <c r="F91" s="8"/>
@@ -10023,7 +10023,7 @@
       <c r="AF91" s="8"/>
       <c r="AH91" s="8"/>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B92" s="8"/>
       <c r="D92" s="8"/>
       <c r="F92" s="8"/>
@@ -10042,7 +10042,7 @@
       <c r="AF92" s="8"/>
       <c r="AH92" s="8"/>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
       <c r="D93" s="8"/>
       <c r="F93" s="8"/>
@@ -10061,7 +10061,7 @@
       <c r="AF93" s="8"/>
       <c r="AH93" s="8"/>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
       <c r="D94" s="8"/>
       <c r="F94" s="8"/>
@@ -10080,7 +10080,7 @@
       <c r="AF94" s="8"/>
       <c r="AH94" s="8"/>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
       <c r="D95" s="8"/>
       <c r="F95" s="8"/>
@@ -10099,7 +10099,7 @@
       <c r="AF95" s="8"/>
       <c r="AH95" s="8"/>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B96" s="8"/>
       <c r="D96" s="8"/>
       <c r="F96" s="8"/>
@@ -10118,7 +10118,7 @@
       <c r="AF96" s="8"/>
       <c r="AH96" s="8"/>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B97" s="8"/>
       <c r="D97" s="8"/>
       <c r="F97" s="8"/>
@@ -10137,7 +10137,7 @@
       <c r="AF97" s="8"/>
       <c r="AH97" s="8"/>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B98" s="8"/>
       <c r="D98" s="8"/>
       <c r="F98" s="8"/>
@@ -10156,7 +10156,7 @@
       <c r="AF98" s="8"/>
       <c r="AH98" s="8"/>
     </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="F99" s="8"/>
@@ -10175,7 +10175,7 @@
       <c r="AF99" s="8"/>
       <c r="AH99" s="8"/>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B100" s="8"/>
       <c r="D100" s="8"/>
       <c r="F100" s="8"/>
@@ -10194,7 +10194,7 @@
       <c r="AF100" s="8"/>
       <c r="AH100" s="8"/>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B101" s="8"/>
       <c r="D101" s="8"/>
       <c r="F101" s="8"/>
@@ -10213,7 +10213,7 @@
       <c r="AF101" s="8"/>
       <c r="AH101" s="8"/>
     </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B102" s="8"/>
       <c r="D102" s="8"/>
       <c r="F102" s="8"/>
@@ -10232,7 +10232,7 @@
       <c r="AF102" s="8"/>
       <c r="AH102" s="8"/>
     </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B103" s="8"/>
       <c r="D103" s="8"/>
       <c r="F103" s="8"/>
@@ -10251,7 +10251,7 @@
       <c r="AF103" s="8"/>
       <c r="AH103" s="8"/>
     </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B104" s="8"/>
       <c r="D104" s="8"/>
       <c r="F104" s="8"/>
@@ -10270,7 +10270,7 @@
       <c r="AF104" s="8"/>
       <c r="AH104" s="8"/>
     </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B105" s="8"/>
       <c r="D105" s="8"/>
       <c r="F105" s="8"/>
@@ -10289,7 +10289,7 @@
       <c r="AF105" s="8"/>
       <c r="AH105" s="8"/>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B106" s="8"/>
       <c r="D106" s="8"/>
       <c r="F106" s="8"/>
@@ -10308,7 +10308,7 @@
       <c r="AF106" s="8"/>
       <c r="AH106" s="8"/>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B107" s="8"/>
       <c r="D107" s="8"/>
       <c r="F107" s="8"/>
@@ -10327,7 +10327,7 @@
       <c r="AF107" s="8"/>
       <c r="AH107" s="8"/>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B108" s="8"/>
       <c r="D108" s="8"/>
       <c r="F108" s="8"/>
@@ -10346,7 +10346,7 @@
       <c r="AF108" s="8"/>
       <c r="AH108" s="8"/>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B109" s="8"/>
       <c r="D109" s="8"/>
       <c r="F109" s="8"/>
@@ -10365,7 +10365,7 @@
       <c r="AF109" s="8"/>
       <c r="AH109" s="8"/>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B110" s="8"/>
       <c r="D110" s="8"/>
       <c r="F110" s="8"/>
@@ -10384,7 +10384,7 @@
       <c r="AF110" s="8"/>
       <c r="AH110" s="8"/>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B111" s="8"/>
       <c r="D111" s="8"/>
       <c r="F111" s="8"/>
@@ -10403,7 +10403,7 @@
       <c r="AF111" s="8"/>
       <c r="AH111" s="8"/>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B112" s="8"/>
       <c r="D112" s="8"/>
       <c r="F112" s="8"/>
@@ -10422,7 +10422,7 @@
       <c r="AF112" s="8"/>
       <c r="AH112" s="8"/>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B113" s="8"/>
       <c r="D113" s="8"/>
       <c r="F113" s="8"/>
@@ -10441,7 +10441,7 @@
       <c r="AF113" s="8"/>
       <c r="AH113" s="8"/>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B114" s="8"/>
       <c r="D114" s="8"/>
       <c r="F114" s="8"/>
@@ -10460,7 +10460,7 @@
       <c r="AF114" s="8"/>
       <c r="AH114" s="8"/>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B115" s="8"/>
       <c r="D115" s="8"/>
       <c r="F115" s="8"/>
@@ -10479,7 +10479,7 @@
       <c r="AF115" s="8"/>
       <c r="AH115" s="8"/>
     </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B116" s="8"/>
       <c r="D116" s="8"/>
       <c r="F116" s="8"/>
@@ -10508,28 +10508,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A2:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>134</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -10642,7 +10642,7 @@
       </c>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -10659,7 +10659,7 @@
       </c>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -10724,14 +10724,14 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E16" s="37"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -10748,16 +10748,16 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>140</v>
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
         <v>148</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
         <v>149</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>150</v>
       </c>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -10858,19 +10858,19 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>141</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>142</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>143</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>98</v>
       </c>
@@ -10912,10 +10912,10 @@
         <v>30</v>
       </c>
       <c r="H35" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>147</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>151</v>
       </c>
@@ -10942,10 +10942,10 @@
         <v>25</v>
       </c>
       <c r="H37" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>152</v>
       </c>
@@ -10957,10 +10957,10 @@
         <v>10</v>
       </c>
       <c r="H38" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>157</v>
       </c>
@@ -10969,14 +10969,14 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>47</v>
       </c>
@@ -10988,10 +10988,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -11010,13 +11010,13 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -11029,10 +11029,10 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -11047,10 +11047,10 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9">
         <f>SUM(H5:H40)</f>
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A48" s="31" t="s">
         <v>145</v>
       </c>
@@ -11065,13 +11065,13 @@
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -11079,14 +11079,14 @@
         <v>62</v>
       </c>
       <c r="F51" s="12">
-        <v>5978</v>
+        <v>3090</v>
       </c>
       <c r="H51" s="35">
         <f>F51-H47</f>
-        <v>3486</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="28" t="s">
         <v>134</v>
       </c>
@@ -11097,7 +11097,7 @@
       <c r="C52" s="33"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="28" t="s">
         <v>140</v>
       </c>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="C53" s="33"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="28" t="s">
         <v>141</v>
       </c>
@@ -11118,7 +11118,7 @@
       <c r="C54" s="33"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="28" t="s">
         <v>9</v>
       </c>
@@ -11132,43 +11132,43 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E56" s="29" t="s">
         <v>163</v>
       </c>
       <c r="F56" s="7">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="G56" s="7">
         <f>H51-F56</f>
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E57" s="29" t="s">
         <v>165</v>
       </c>
       <c r="F57" s="7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G57" s="7">
         <f>G56-F57</f>
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E58" s="29" t="s">
         <v>167</v>
       </c>
       <c r="F58" s="7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="7">
         <f>G57-F58</f>
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E59" s="29" t="s">
         <v>166</v>
       </c>
@@ -11177,21 +11177,21 @@
       </c>
       <c r="G59" s="7">
         <f>G58-F59</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E63" s="29" t="s">
         <v>162</v>
       </c>
@@ -11200,10 +11200,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F65" s="7"/>
     </row>
   </sheetData>
@@ -11220,15 +11220,15 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42839</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -11341,7 +11341,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -11404,13 +11404,13 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -11426,10 +11426,10 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -11443,10 +11443,10 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -11462,13 +11462,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>34</v>
       </c>
@@ -11476,13 +11476,13 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E25" s="9">
         <f>SUM(E7:E14)</f>
         <v>1096</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>35</v>
       </c>
@@ -11491,10 +11491,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>36</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>37</v>
       </c>
@@ -11510,10 +11510,10 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>38</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>39</v>
       </c>
@@ -11529,13 +11529,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E34" s="8">
         <f>SUM(E32:E33)</f>
         <v>1112</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>40</v>
       </c>
@@ -11544,10 +11544,10 @@
         <v>873</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>41</v>
       </c>
@@ -11555,10 +11555,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -11567,43 +11567,43 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" s="8"/>
     </row>
   </sheetData>
@@ -11618,15 +11618,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
         <v>47</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
         <v>90</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
         <v>91</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23" t="s">
         <v>92</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>93</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>146.79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23" t="s">
         <v>26</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>72.709999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>47</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>1035.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>94</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>95</v>
       </c>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>96</v>
       </c>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>55</v>
       </c>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
         <v>94</v>
       </c>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23" t="s">
         <v>26</v>
       </c>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>97</v>
       </c>
@@ -11778,7 +11778,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
         <v>94</v>
       </c>
@@ -11787,7 +11787,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>99</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>94</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>100</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>101</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="24" t="s">
         <v>102</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23" t="s">
         <v>98</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="23" t="s">
         <v>98</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>104</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>70.16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>105</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>97.17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>47</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>94</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>130</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>129</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
         <v>128</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23" t="s">
         <v>127</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>26.71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
         <v>114</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
         <v>94</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>94</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
         <v>126</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>94</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="22" t="s">
         <v>125</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="23" t="s">
         <v>124</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
         <v>47</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>94</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="24" t="s">
         <v>105</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>94</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
         <v>123</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="23" t="s">
         <v>98</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
         <v>122</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>26.27</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>121</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
         <v>104</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>80.33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="22" t="s">
         <v>106</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23" t="s">
         <v>120</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A52" s="24" t="s">
         <v>105</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="22" t="s">
         <v>16</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>63.59</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="22" t="s">
         <v>30</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>244.42</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="23" t="s">
         <v>119</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="23" t="s">
         <v>92</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>118</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="24" t="s">
         <v>117</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="23" t="s">
         <v>116</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A60" s="22" t="s">
         <v>107</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>108</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="22" t="s">
         <v>115</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="24" t="s">
         <v>114</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="23" t="s">
         <v>92</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
         <v>2</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>164.84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="24" t="s">
         <v>94</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="24" t="s">
         <v>94</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="23" t="s">
         <v>113</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>35.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A69" s="24" t="s">
         <v>112</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
         <v>94</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="24" t="s">
         <v>102</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="24" t="s">
         <v>105</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="24" t="s">
         <v>94</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="23" t="s">
         <v>111</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A75" s="24" t="s">
         <v>104</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="24" t="s">
         <v>94</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="23" t="s">
         <v>110</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="23" t="s">
         <v>109</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A79" s="21" t="s">
         <v>47</v>
       </c>
@@ -12297,14 +12297,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43156</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43542</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43599</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43606</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43609</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43630</v>
       </c>
@@ -12381,16 +12381,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12435,22 +12435,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42867</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12541,7 +12541,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12555,7 +12555,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12567,7 +12567,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12606,13 +12606,13 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -12628,10 +12628,10 @@
         <v>883</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12646,10 +12646,10 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -12662,12 +12662,12 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>1136.5899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>544.56999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>592.02</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <v>345</v>
       </c>
@@ -12732,20 +12732,20 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42881</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12982,15 +12982,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13013,11 +13013,11 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13040,11 +13040,11 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13084,17 +13084,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42923</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13174,7 +13174,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13282,13 +13282,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13304,10 +13304,10 @@
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13321,10 +13321,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13357,17 +13357,17 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42951</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13557,13 +13557,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13579,10 +13579,10 @@
         <v>1132.57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13596,10 +13596,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>206.43000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13632,20 +13632,20 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="10"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="10"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42979</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13769,7 +13769,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13787,7 +13787,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13823,7 +13823,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13841,7 +13841,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13877,15 +13877,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13921,11 +13921,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13942,7 +13942,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13985,18 +13985,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43007</v>
       </c>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14023,7 +14023,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14056,7 +14056,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -14074,7 +14074,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14097,7 +14097,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14115,7 +14115,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14133,7 +14133,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14154,7 +14154,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14172,7 +14172,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -14206,15 +14206,15 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -14231,11 +14231,11 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -14250,11 +14250,11 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C31" s="6"/>
     </row>
   </sheetData>
@@ -14288,18 +14288,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43035</v>
       </c>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14323,7 +14323,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14338,7 +14338,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -14368,7 +14368,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14388,7 +14388,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14406,7 +14406,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14424,7 +14424,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14442,7 +14442,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14460,7 +14460,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -14478,7 +14478,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -14496,7 +14496,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -14509,15 +14509,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -14534,11 +14534,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -14553,11 +14553,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14574,7 +14574,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>

--- a/bill-pay-checklist_Reichhard.excel.xlsx
+++ b/bill-pay-checklist_Reichhard.excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rreichhard\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC15DC-BAB7-490B-BD1F-0ACF9D1D2198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E173FA-DD7E-4769-BA4C-C038C3EE0370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="169">
   <si>
     <t>Rent</t>
   </si>
@@ -612,22 +612,25 @@
     <t>Due Date</t>
   </si>
   <si>
-    <t>Net</t>
-  </si>
-  <si>
-    <t>Emergency Fund</t>
-  </si>
-  <si>
-    <t>Running Bal</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>PPMC</t>
+    <t>tax return</t>
+  </si>
+  <si>
+    <t>Current Bal</t>
+  </si>
+  <si>
+    <t>Desired Bal</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>PP Bal</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>Disco</t>
   </si>
 </sst>
 </file>
@@ -817,7 +820,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -837,7 +840,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3820,7 +3822,7 @@
       <c r="B18" s="8">
         <v>1365</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>1425</v>
       </c>
       <c r="I18" s="8">
@@ -3839,7 +3841,7 @@
         <f>(B18-B16)</f>
         <v>235.43000000000006</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <f>(E18-E16)</f>
         <v>475</v>
       </c>
@@ -5421,7 +5423,7 @@
       <c r="A7" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>56</v>
       </c>
       <c r="E7" s="12">
@@ -8379,26 +8381,26 @@
       <c r="AJ15" s="12"/>
       <c r="AL15" s="12"/>
     </row>
-    <row r="16" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AH16" s="20"/>
-      <c r="AJ16" s="20"/>
-      <c r="AL16" s="20"/>
+    <row r="16" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AL16" s="19"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
@@ -10506,10 +10508,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A2:L65"/>
+  <dimension ref="A2:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10518,19 +10520,24 @@
     <col min="2" max="2" width="15.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" style="8" customWidth="1"/>
     <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>134</v>
       </c>
       <c r="H4" t="s">
@@ -10540,65 +10547,65 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>1774</v>
-      </c>
-      <c r="E5" s="37"/>
+        <v>1900</v>
+      </c>
+      <c r="E5" s="36"/>
       <c r="F5" s="9">
         <f>B5/2</f>
-        <v>887</v>
+        <v>950</v>
       </c>
       <c r="H5" s="9">
-        <v>1774</v>
-      </c>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1950</v>
+      </c>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="8">
         <v>26</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="9">
         <f t="shared" ref="F6:F15" si="0">B6/2</f>
         <v>13</v>
       </c>
       <c r="H6" s="9">
-        <v>13</v>
-      </c>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="8">
-        <v>72</v>
-      </c>
-      <c r="E7" s="37"/>
+        <v>85</v>
+      </c>
+      <c r="E7" s="36"/>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>42.5</v>
       </c>
       <c r="H7" s="9">
-        <v>36</v>
-      </c>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="8">
         <v>56</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -10606,16 +10613,16 @@
       <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>138</v>
       </c>
       <c r="B9" s="8">
         <v>190</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -10623,16 +10630,16 @@
       <c r="H9" s="9">
         <v>0</v>
       </c>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10640,16 +10647,16 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10657,75 +10664,119 @@
       <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>158</v>
       </c>
       <c r="B12" s="8">
         <v>203</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="9">
         <v>29</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="M12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" t="s">
+        <v>165</v>
+      </c>
+      <c r="O12" t="s">
+        <v>166</v>
+      </c>
+      <c r="P12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>159</v>
       </c>
       <c r="B13" s="8">
         <v>715</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="9">
         <v>30</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
       </c>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L13" s="8">
+        <v>2976</v>
+      </c>
+      <c r="M13" s="8">
+        <v>500</v>
+      </c>
+      <c r="N13" s="8">
+        <f>L13-M13</f>
+        <v>2476</v>
+      </c>
+      <c r="O13" s="8">
+        <v>38.619999999999997</v>
+      </c>
+      <c r="P13" s="8">
+        <f>N13-O13</f>
+        <v>2437.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="8">
         <v>75</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="9">
         <v>25</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="L14" t="s">
+        <v>168</v>
+      </c>
+      <c r="P14" s="9">
+        <f>H40-P13</f>
+        <v>867.61999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>139</v>
       </c>
       <c r="B15" s="8">
         <v>209</v>
       </c>
-      <c r="E15" s="37"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>104.5</v>
       </c>
       <c r="H15" s="9">
-        <v>105</v>
-      </c>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E16" s="37"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="L15" s="8">
+        <v>1500</v>
+      </c>
+      <c r="P15" s="8">
+        <f>P14-L15</f>
+        <v>-632.38000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E16" s="36"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -10737,14 +10788,14 @@
       </c>
       <c r="B18" s="8">
         <f>SUM(B5:B17)</f>
-        <v>3320</v>
+        <v>3459</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <f>B45-B18</f>
-        <v>-30</v>
+        <v>-169</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -10752,7 +10803,7 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>140</v>
       </c>
       <c r="H20" s="9"/>
@@ -10788,7 +10839,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B23" s="8">
@@ -10803,7 +10854,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B24" s="8">
@@ -10818,7 +10869,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B25" s="8">
@@ -10854,7 +10905,7 @@
       </c>
       <c r="E29" s="8">
         <f>(E18-B29)</f>
-        <v>-284</v>
+        <v>-423</v>
       </c>
       <c r="H29" s="9"/>
     </row>
@@ -10865,13 +10916,13 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>141</v>
       </c>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>142</v>
       </c>
       <c r="B33" s="8">
@@ -10886,7 +10937,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>143</v>
       </c>
       <c r="B34" s="8">
@@ -10901,7 +10952,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B35" s="8">
@@ -10912,11 +10963,11 @@
         <v>30</v>
       </c>
       <c r="H35" s="9">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>147</v>
       </c>
       <c r="B36" s="8">
@@ -10931,7 +10982,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="33" t="s">
         <v>151</v>
       </c>
       <c r="B37" s="8">
@@ -10942,11 +10993,11 @@
         <v>25</v>
       </c>
       <c r="H37" s="9">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>152</v>
       </c>
       <c r="B38" s="8">
@@ -10961,7 +11012,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>157</v>
       </c>
       <c r="F39" s="9">
@@ -10969,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -10977,7 +11028,7 @@
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="33" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="9">
@@ -10985,7 +11036,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="9">
-        <v>0</v>
+        <v>3305</v>
+      </c>
+      <c r="I40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -10999,10 +11053,10 @@
         <f>SUM(B33:B41)</f>
         <v>616</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E42" s="30"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="9">
         <f>SUM(F23:F38)</f>
         <v>423</v>
@@ -11038,30 +11092,30 @@
       </c>
       <c r="B47" s="8">
         <f>SUM(B18,B29,B42)</f>
-        <v>4190</v>
+        <v>4329</v>
       </c>
       <c r="F47" s="9">
         <f>SUM(F5:F40)</f>
-        <v>1682.5</v>
+        <v>1752</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9">
         <f>SUM(H5:H40)</f>
-        <v>2208</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="32">
+      <c r="B48" s="31">
         <f>E29-B42</f>
-        <v>-900</v>
-      </c>
-      <c r="C48" s="32"/>
+        <v>-1039</v>
+      </c>
+      <c r="C48" s="31"/>
       <c r="F48" s="9">
         <f>C45-F47</f>
-        <v>-37.5</v>
+        <v>-107</v>
       </c>
       <c r="H48" s="9"/>
     </row>
@@ -11075,114 +11129,87 @@
       <c r="A51" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="28" t="s">
         <v>62</v>
       </c>
       <c r="F51" s="12">
-        <v>3090</v>
-      </c>
-      <c r="H51" s="35">
+        <v>5587</v>
+      </c>
+      <c r="H51" s="34">
         <f>F51-H47</f>
-        <v>882</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="32">
         <f>B18/B45</f>
-        <v>1.0091185410334347</v>
-      </c>
-      <c r="C52" s="33"/>
+        <v>1.0513677811550153</v>
+      </c>
+      <c r="C52" s="32"/>
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="32">
         <f>B29/B45</f>
         <v>7.7203647416413376E-2</v>
       </c>
-      <c r="C53" s="33"/>
+      <c r="C53" s="32"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="32">
         <f>B42/B45</f>
         <v>0.18723404255319148</v>
       </c>
-      <c r="C54" s="33"/>
+      <c r="C54" s="32"/>
       <c r="F54" s="7"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="32">
         <f>B48/B45</f>
-        <v>-0.2735562310030395</v>
-      </c>
-      <c r="C55" s="33"/>
+        <v>-0.31580547112462004</v>
+      </c>
+      <c r="C55" s="32"/>
       <c r="F55" s="7"/>
-      <c r="G55" t="s">
-        <v>164</v>
-      </c>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E56" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
-      <c r="G56" s="7">
-        <f>H51-F56</f>
-        <v>882</v>
-      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E57" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
-      <c r="G57" s="7">
-        <f>G56-F57</f>
-        <v>882</v>
-      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E58" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="F58" s="7">
-        <v>0</v>
-      </c>
-      <c r="G58" s="7">
-        <f>G57-F58</f>
-        <v>882</v>
-      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E59" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F59" s="7">
-        <v>1000</v>
-      </c>
-      <c r="G59" s="7">
-        <f>G58-F59</f>
-        <v>-118</v>
-      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F61" s="7"/>
@@ -11192,13 +11219,7 @@
       <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E63" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="F63" s="7">
-        <f>G61</f>
-        <v>0</v>
-      </c>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F64" s="7"/>
@@ -11635,7 +11656,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="8">
@@ -11643,13 +11664,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B3" s="8">
         <v>60</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>2017.81</v>
       </c>
       <c r="E3" t="s">
@@ -11657,13 +11678,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="8">
         <v>28.28</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>513.99</v>
       </c>
       <c r="E4" t="s">
@@ -11671,13 +11692,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="8">
         <v>5.66</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>758.11</v>
       </c>
       <c r="E5" t="s">
@@ -11685,7 +11706,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="8">
@@ -11693,7 +11714,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="8">
@@ -11701,7 +11722,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="8">
@@ -11709,7 +11730,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="8">
@@ -11717,7 +11738,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="8">
@@ -11725,7 +11746,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>95</v>
       </c>
       <c r="B11" s="8">
@@ -11734,7 +11755,7 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="8">
@@ -11743,7 +11764,7 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="8">
@@ -11752,7 +11773,7 @@
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B14" s="8">
@@ -11761,7 +11782,7 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="8">
@@ -11770,7 +11791,7 @@
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="8">
@@ -11779,7 +11800,7 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="8">
@@ -11788,7 +11809,7 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B18" s="8">
@@ -11796,7 +11817,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="8">
@@ -11804,7 +11825,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>100</v>
       </c>
       <c r="B20" s="8">
@@ -11812,7 +11833,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>101</v>
       </c>
       <c r="B21" s="8">
@@ -11820,7 +11841,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>102</v>
       </c>
       <c r="B22" s="8">
@@ -11828,7 +11849,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B23" s="8">
@@ -11836,7 +11857,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>103</v>
       </c>
       <c r="B24" s="8">
@@ -11844,7 +11865,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B25" s="8">
@@ -11852,7 +11873,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="8">
@@ -11860,7 +11881,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B27" s="8">
@@ -11868,7 +11889,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="8">
@@ -11876,7 +11897,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="8">
@@ -11884,7 +11905,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>130</v>
       </c>
       <c r="B30" s="8">
@@ -11892,7 +11913,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>129</v>
       </c>
       <c r="B31" s="8">
@@ -11900,7 +11921,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>128</v>
       </c>
       <c r="B32" s="8">
@@ -11908,7 +11929,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>127</v>
       </c>
       <c r="B33" s="8">
@@ -11916,7 +11937,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B34" s="8">
@@ -11924,7 +11945,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B35" s="8">
@@ -11932,7 +11953,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="8">
@@ -11940,7 +11961,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>126</v>
       </c>
       <c r="B37" s="8">
@@ -11948,7 +11969,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B38" s="8">
@@ -11956,7 +11977,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>125</v>
       </c>
       <c r="B39" s="8">
@@ -11964,7 +11985,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>124</v>
       </c>
       <c r="B40" s="8">
@@ -11972,7 +11993,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="8">
@@ -11980,7 +12001,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="8">
@@ -11988,7 +12009,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B43" s="8">
@@ -11996,7 +12017,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="8">
@@ -12004,7 +12025,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>123</v>
       </c>
       <c r="B45" s="8">
@@ -12012,7 +12033,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B46" s="8">
@@ -12020,7 +12041,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="8">
@@ -12028,7 +12049,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="23" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="8">
@@ -12036,7 +12057,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B49" s="8">
@@ -12044,7 +12065,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>106</v>
       </c>
       <c r="B50" s="8">
@@ -12052,7 +12073,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="22" t="s">
         <v>120</v>
       </c>
       <c r="B51" s="8">
@@ -12060,7 +12081,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="8">
@@ -12068,7 +12089,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="8">
@@ -12076,7 +12097,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B54" s="8">
@@ -12084,7 +12105,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="22" t="s">
         <v>119</v>
       </c>
       <c r="B55" s="8">
@@ -12092,7 +12113,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="22" t="s">
         <v>92</v>
       </c>
       <c r="B56" s="8">
@@ -12100,7 +12121,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B57" s="8">
@@ -12108,7 +12129,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="8">
@@ -12116,7 +12137,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B59" s="8">
@@ -12124,7 +12145,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B60" s="8">
@@ -12132,7 +12153,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B61" s="8">
@@ -12140,7 +12161,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B62" s="8">
@@ -12148,7 +12169,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B63" s="8">
@@ -12156,7 +12177,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="22" t="s">
         <v>92</v>
       </c>
       <c r="B64" s="8">
@@ -12164,7 +12185,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="8">
@@ -12172,7 +12193,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B66" s="8">
@@ -12180,7 +12201,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B67" s="8">
@@ -12188,7 +12209,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="22" t="s">
         <v>113</v>
       </c>
       <c r="B68" s="8">
@@ -12196,7 +12217,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="23" t="s">
         <v>112</v>
       </c>
       <c r="B69" s="8">
@@ -12204,7 +12225,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B70" s="8">
@@ -12212,7 +12233,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="23" t="s">
         <v>102</v>
       </c>
       <c r="B71" s="8">
@@ -12220,7 +12241,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B72" s="8">
@@ -12228,7 +12249,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B73" s="8">
@@ -12236,7 +12257,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="22" t="s">
         <v>111</v>
       </c>
       <c r="B74" s="8">
@@ -12244,7 +12265,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B75" s="8">
@@ -12252,7 +12273,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B76" s="8">
@@ -12260,7 +12281,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="22" t="s">
         <v>110</v>
       </c>
       <c r="B77" s="8">
@@ -12268,7 +12289,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="22" t="s">
         <v>109</v>
       </c>
       <c r="B78" s="8">
@@ -12276,7 +12297,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B79" s="8">
@@ -12945,7 +12966,7 @@
       <c r="I11" s="8">
         <v>63</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -13652,7 +13673,7 @@
       <c r="E1" s="4">
         <v>42993</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="13"/>
       <c r="K1" t="s">
         <v>60</v>
       </c>
@@ -13671,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>160</v>
       </c>
     </row>
@@ -13746,7 +13767,7 @@
       <c r="F6" s="8">
         <v>212.57</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="8">
         <v>212.57</v>
       </c>
@@ -13766,7 +13787,7 @@
       <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -13784,7 +13805,7 @@
       <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -13802,7 +13823,7 @@
       <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -13820,7 +13841,7 @@
       <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -13838,7 +13859,7 @@
       <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -13856,7 +13877,7 @@
       <c r="F12" s="8">
         <v>400</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="8">
         <v>400</v>
       </c>

--- a/bill-pay-checklist_Reichhard.excel.xlsx
+++ b/bill-pay-checklist_Reichhard.excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rreichhard\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E173FA-DD7E-4769-BA4C-C038C3EE0370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F92A3D6-4A38-45E3-9322-1C1CA24769B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="March 2017" sheetId="1" state="hidden" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="166">
   <si>
     <t>Rent</t>
   </si>
@@ -609,28 +609,19 @@
     <t>Open Sky CC</t>
   </si>
   <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>tax return</t>
-  </si>
-  <si>
-    <t>Current Bal</t>
-  </si>
-  <si>
-    <t>Desired Bal</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>PP Bal</t>
-  </si>
-  <si>
-    <t>Needed</t>
-  </si>
-  <si>
-    <t>Disco</t>
+    <t>SNAP finance</t>
+  </si>
+  <si>
+    <t>tires</t>
+  </si>
+  <si>
+    <t>snap</t>
+  </si>
+  <si>
+    <t>PPMC</t>
+  </si>
+  <si>
+    <t>Discover</t>
   </si>
 </sst>
 </file>
@@ -1173,16 +1164,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>42811</v>
       </c>
@@ -1190,7 +1181,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1198,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1264,7 +1255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1304,7 +1295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +1312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1338,7 +1329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1337,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1353,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1376,7 +1367,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1383,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1418,7 +1409,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1445,7 +1436,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1466,7 +1457,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -1493,7 +1484,7 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1514,7 +1505,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1535,7 +1526,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1556,7 +1547,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1577,7 +1568,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1598,7 +1589,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1619,7 +1610,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1640,7 +1631,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1661,7 +1652,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1682,7 +1673,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1703,7 +1694,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1724,7 +1715,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1745,7 +1736,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1766,7 +1757,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1787,7 +1778,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1808,7 +1799,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1843,18 +1834,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43063</v>
       </c>
@@ -1866,7 +1857,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1883,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1917,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1934,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1956,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1976,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1996,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2016,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2036,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2054,7 +2045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2074,7 +2065,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2089,15 +2080,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2120,11 +2111,11 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2144,11 +2135,11 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2171,7 +2162,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -2188,18 +2179,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43105</v>
       </c>
@@ -2211,7 +2202,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2228,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2245,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2262,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2279,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2301,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2321,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2341,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2361,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2381,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2399,7 +2390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2419,7 +2410,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2434,15 +2425,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2465,11 +2456,11 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2489,11 +2480,11 @@
         <v>1280.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2516,7 +2507,7 @@
         <v>255.20000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2524,7 +2515,7 @@
         <v>1834.34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2532,7 +2523,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2541,7 +2532,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2550,7 +2541,7 @@
         <v>1389.3400000000001</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="6"/>
     </row>
   </sheetData>
@@ -2567,18 +2558,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43133</v>
       </c>
@@ -2590,7 +2581,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2607,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2624,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2658,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2680,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2700,7 +2691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2720,7 +2711,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2740,7 +2731,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2758,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2778,7 +2769,7 @@
         <v>1003.84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2793,15 +2784,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2824,11 +2815,11 @@
         <v>1525.8400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2848,11 +2839,11 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2875,7 +2866,7 @@
         <v>-206.84000000000015</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -2893,18 +2884,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43175</v>
       </c>
@@ -2916,7 +2907,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2936,7 +2927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2953,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2973,7 +2964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2990,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3012,7 +3003,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3032,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3052,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3075,7 +3066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3096,7 +3087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +3110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3137,7 +3128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -3157,15 +3148,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3188,11 +3179,11 @@
         <v>1415.57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3212,11 +3203,11 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3239,12 +3230,12 @@
         <v>-73.569999999999936</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3262,20 +3253,20 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43203</v>
       </c>
@@ -3288,7 +3279,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3306,7 +3297,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3329,7 +3320,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3347,7 +3338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3370,7 +3361,7 @@
         <v>1129.57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3390,7 +3381,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3413,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3431,7 +3422,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3452,7 +3443,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3473,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +3483,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3505,7 +3496,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3520,15 +3511,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3554,11 +3545,11 @@
         <v>2109.21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3581,11 +3572,11 @@
         <v>1619.57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3612,7 +3603,7 @@
         <v>489.6400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3629,17 +3620,17 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43231</v>
       </c>
@@ -3650,7 +3641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3662,7 +3653,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3674,7 +3665,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3686,7 +3677,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3698,7 +3689,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3709,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3720,7 +3711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3731,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3740,7 +3731,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3751,7 +3742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3762,7 +3753,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3773,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3784,15 +3775,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3811,11 +3802,11 @@
         <v>338.29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3829,11 +3820,11 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3852,7 +3843,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
       <c r="G21" t="s">
         <v>70</v>
@@ -3862,13 +3853,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" s="8"/>
       <c r="G24" t="s">
         <v>28</v>
@@ -3878,262 +3869,262 @@
         <v>309.28999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="8"/>
     </row>
   </sheetData>
@@ -4150,16 +4141,16 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43259</v>
       </c>
@@ -4176,7 +4167,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4198,7 +4189,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4220,7 +4211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4242,7 +4233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4264,7 +4255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4286,7 +4277,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4308,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4330,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4352,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4375,7 +4366,7 @@
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4397,7 +4388,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4419,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -4441,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4450,7 +4441,7 @@
       <c r="I14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4459,7 +4450,7 @@
       <c r="I15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4486,7 +4477,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4495,7 +4486,7 @@
       <c r="I17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4517,7 +4508,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4526,7 +4517,7 @@
       <c r="I19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4553,7 +4544,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4562,7 +4553,7 @@
       <c r="I21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4573,7 +4564,7 @@
       <c r="I22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4589,7 +4580,7 @@
       <c r="I23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4598,7 +4589,7 @@
       <c r="I24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
@@ -4611,7 +4602,7 @@
       <c r="I25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4620,7 +4611,7 @@
       <c r="I26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
@@ -4634,7 +4625,7 @@
       <c r="I27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4643,7 +4634,7 @@
       <c r="I28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4652,7 +4643,7 @@
       <c r="I29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
@@ -4666,7 +4657,7 @@
       <c r="I30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -4675,7 +4666,7 @@
       <c r="I31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
@@ -4688,7 +4679,7 @@
       <c r="I32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -4697,7 +4688,7 @@
       <c r="I33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -4706,7 +4697,7 @@
       <c r="I34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -4715,451 +4706,451 @@
       <c r="I35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="G36" s="8"/>
       <c r="I36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="G37" s="8"/>
       <c r="I37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
       <c r="I38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
       <c r="I39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
       <c r="I40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
       <c r="I41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
       <c r="I42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
       <c r="I43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
       <c r="I44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
       <c r="I45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
       <c r="I46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
       <c r="I47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
       <c r="I48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
       <c r="I49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
       <c r="I50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
       <c r="I51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
       <c r="I52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
       <c r="I53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
       <c r="I54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
       <c r="I55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
       <c r="I56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
       <c r="I57" s="8"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
       <c r="I58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
       <c r="I59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
       <c r="I60" s="8"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
       <c r="I61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
       <c r="I62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
       <c r="I63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
       <c r="I64" s="8"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
       <c r="I65" s="8"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
       <c r="I66" s="8"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
       <c r="I67" s="8"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
       <c r="I68" s="8"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
       <c r="I69" s="8"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
       <c r="I70" s="8"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
       <c r="I71" s="8"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
       <c r="I72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
       <c r="I73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
       <c r="I74" s="8"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
       <c r="I75" s="8"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
       <c r="I76" s="8"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
       <c r="I77" s="8"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
       <c r="I78" s="8"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
       <c r="I79" s="8"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
       <c r="I80" s="8"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
       <c r="I81" s="8"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
       <c r="I82" s="8"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
       <c r="I83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
       <c r="I84" s="8"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
       <c r="I85" s="8"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
       <c r="I86" s="8"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
       <c r="I87" s="8"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
       <c r="I88" s="8"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
       <c r="I89" s="8"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
       <c r="I90" s="8"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
       <c r="I91" s="8"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
       <c r="I92" s="8"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
       <c r="I93" s="8"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
       <c r="I94" s="8"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
       <c r="I95" s="8"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
       <c r="I96" s="8"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
       <c r="I97" s="8"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
       <c r="I98" s="8"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
       <c r="I99" s="8"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
       <c r="I100" s="8"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
       <c r="I101" s="8"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
       <c r="I102" s="8"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
       <c r="I103" s="8"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
       <c r="I104" s="8"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
       <c r="I105" s="8"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
       <c r="I106" s="8"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
       <c r="I107" s="8"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
       <c r="I108" s="8"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
       <c r="I109" s="8"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
       <c r="I110" s="8"/>
@@ -5179,21 +5170,21 @@
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="17" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43343</v>
@@ -5229,7 +5220,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5267,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5305,7 +5296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5343,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -5381,7 +5372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -5419,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5457,7 +5448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5495,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5533,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -5573,7 +5564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5611,7 +5602,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5649,7 +5640,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -5677,7 +5668,7 @@
       <c r="W13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="E14" s="12"/>
       <c r="G14" s="12"/>
@@ -5694,7 +5685,7 @@
       <c r="W14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5741,7 +5732,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="E16" s="12"/>
       <c r="G16" s="12"/>
@@ -5758,7 +5749,7 @@
       <c r="W16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5797,7 +5788,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="E18" s="12"/>
       <c r="G18" s="12"/>
@@ -5814,7 +5805,7 @@
       <c r="W18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -5842,7 +5833,7 @@
       <c r="W19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="E20" s="12"/>
       <c r="G20" s="12"/>
@@ -5859,7 +5850,7 @@
       <c r="W20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5911,7 +5902,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
@@ -5928,7 +5919,7 @@
       <c r="W22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="E23" s="12"/>
       <c r="G23" s="12"/>
@@ -5945,7 +5936,7 @@
       <c r="W23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5977,7 +5968,7 @@
       <c r="W24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
@@ -5994,7 +5985,7 @@
       <c r="W25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -6040,7 +6031,7 @@
         <v>-775</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="E27" s="12"/>
       <c r="G27" s="12"/>
@@ -6057,7 +6048,7 @@
       <c r="W27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="E28" s="12"/>
       <c r="G28" s="12"/>
@@ -6074,7 +6065,7 @@
       <c r="W28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -6094,31 +6085,31 @@
       <c r="W29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="E36" s="12"/>
       <c r="G36" s="12"/>
@@ -6135,7 +6126,7 @@
       <c r="W36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="E37" s="12"/>
       <c r="G37" s="12"/>
@@ -6152,7 +6143,7 @@
       <c r="W37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="E38" s="12"/>
       <c r="G38" s="12"/>
@@ -6169,7 +6160,7 @@
       <c r="W38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
@@ -6186,7 +6177,7 @@
       <c r="W39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
@@ -6203,7 +6194,7 @@
       <c r="W40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
@@ -6220,7 +6211,7 @@
       <c r="W41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
@@ -6237,7 +6228,7 @@
       <c r="W42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
@@ -6254,7 +6245,7 @@
       <c r="W43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
@@ -6271,7 +6262,7 @@
       <c r="W44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
@@ -6288,7 +6279,7 @@
       <c r="W45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
@@ -6305,7 +6296,7 @@
       <c r="W46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
@@ -6322,7 +6313,7 @@
       <c r="W47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
@@ -6339,7 +6330,7 @@
       <c r="W48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
@@ -6356,7 +6347,7 @@
       <c r="W49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
@@ -6373,7 +6364,7 @@
       <c r="W50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
@@ -6390,7 +6381,7 @@
       <c r="W51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
@@ -6407,7 +6398,7 @@
       <c r="W52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
@@ -6424,7 +6415,7 @@
       <c r="W53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
@@ -6441,7 +6432,7 @@
       <c r="W54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
@@ -6458,7 +6449,7 @@
       <c r="W55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
@@ -6475,7 +6466,7 @@
       <c r="W56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
@@ -6492,7 +6483,7 @@
       <c r="W57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
@@ -6509,7 +6500,7 @@
       <c r="W58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
@@ -6526,7 +6517,7 @@
       <c r="W59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
@@ -6543,7 +6534,7 @@
       <c r="W60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
@@ -6560,7 +6551,7 @@
       <c r="W61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
@@ -6577,7 +6568,7 @@
       <c r="W62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
@@ -6594,7 +6585,7 @@
       <c r="W63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
@@ -6611,7 +6602,7 @@
       <c r="W64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
@@ -6628,7 +6619,7 @@
       <c r="W65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
@@ -6645,7 +6636,7 @@
       <c r="W66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
@@ -6662,7 +6653,7 @@
       <c r="W67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
@@ -6679,7 +6670,7 @@
       <c r="W68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
@@ -6696,7 +6687,7 @@
       <c r="W69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
@@ -6713,7 +6704,7 @@
       <c r="W70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
@@ -6730,7 +6721,7 @@
       <c r="W71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
@@ -6747,7 +6738,7 @@
       <c r="W72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
@@ -6764,7 +6755,7 @@
       <c r="W73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
@@ -6781,7 +6772,7 @@
       <c r="W74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
@@ -6798,7 +6789,7 @@
       <c r="W75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
@@ -6815,7 +6806,7 @@
       <c r="W76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
@@ -6832,7 +6823,7 @@
       <c r="W77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
@@ -6849,7 +6840,7 @@
       <c r="W78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
@@ -6866,7 +6857,7 @@
       <c r="W79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
@@ -6883,7 +6874,7 @@
       <c r="W80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
@@ -6900,7 +6891,7 @@
       <c r="W81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
@@ -6917,7 +6908,7 @@
       <c r="W82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
@@ -6934,7 +6925,7 @@
       <c r="W83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
@@ -6951,7 +6942,7 @@
       <c r="W84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
@@ -6968,7 +6959,7 @@
       <c r="W85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
@@ -6985,7 +6976,7 @@
       <c r="W86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
@@ -7002,7 +6993,7 @@
       <c r="W87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
@@ -7019,7 +7010,7 @@
       <c r="W88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
@@ -7036,7 +7027,7 @@
       <c r="W89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
@@ -7053,7 +7044,7 @@
       <c r="W90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
@@ -7070,7 +7061,7 @@
       <c r="W91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
@@ -7087,7 +7078,7 @@
       <c r="W92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
@@ -7104,7 +7095,7 @@
       <c r="W93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
@@ -7121,7 +7112,7 @@
       <c r="W94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
@@ -7138,7 +7129,7 @@
       <c r="W95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
@@ -7155,7 +7146,7 @@
       <c r="W96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
@@ -7172,7 +7163,7 @@
       <c r="W97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
@@ -7189,7 +7180,7 @@
       <c r="W98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
@@ -7206,7 +7197,7 @@
       <c r="W99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
@@ -7223,7 +7214,7 @@
       <c r="W100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
@@ -7240,7 +7231,7 @@
       <c r="W101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
@@ -7257,7 +7248,7 @@
       <c r="W102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
@@ -7274,7 +7265,7 @@
       <c r="W103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
@@ -7291,7 +7282,7 @@
       <c r="W104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
@@ -7308,7 +7299,7 @@
       <c r="W105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
@@ -7325,7 +7316,7 @@
       <c r="W106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
@@ -7342,7 +7333,7 @@
       <c r="W107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
@@ -7359,7 +7350,7 @@
       <c r="W108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
@@ -7376,7 +7367,7 @@
       <c r="W109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
@@ -7393,7 +7384,7 @@
       <c r="W110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="E111" s="8"/>
       <c r="G111" s="8"/>
@@ -7410,7 +7401,7 @@
       <c r="W111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="E112" s="8"/>
       <c r="G112" s="8"/>
@@ -7427,7 +7418,7 @@
       <c r="W112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="E113" s="8"/>
       <c r="G113" s="8"/>
@@ -7458,43 +7449,43 @@
       <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43455</v>
@@ -7554,7 +7545,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -7616,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7678,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -7740,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -7802,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -7864,7 +7855,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -7926,7 +7917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -7988,7 +7979,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8050,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -8112,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8174,7 +8165,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -8236,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -8298,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -8360,7 +8351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="D15" s="12"/>
       <c r="F15" s="12"/>
@@ -8381,7 +8372,7 @@
       <c r="AJ15" s="12"/>
       <c r="AL15" s="12"/>
     </row>
-    <row r="16" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="D16" s="19"/>
       <c r="F16" s="19"/>
@@ -8402,7 +8393,7 @@
       <c r="AJ16" s="19"/>
       <c r="AL16" s="19"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="D17" s="12"/>
       <c r="F17" s="12"/>
@@ -8423,7 +8414,7 @@
       <c r="AJ17" s="12"/>
       <c r="AL17" s="12"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8504,7 +8495,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="F19" s="12"/>
@@ -8525,7 +8516,7 @@
       <c r="AJ19" s="12"/>
       <c r="AL19" s="12"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8587,7 +8578,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
       <c r="F21" s="12"/>
@@ -8608,7 +8599,7 @@
       <c r="AJ21" s="12"/>
       <c r="AL21" s="12"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -8636,7 +8627,7 @@
       <c r="AJ22" s="12"/>
       <c r="AL22" s="12"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
       <c r="F23" s="12"/>
@@ -8657,7 +8648,7 @@
       <c r="AJ23" s="12"/>
       <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8738,7 +8729,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="D25" s="12"/>
       <c r="F25" s="12"/>
@@ -8759,7 +8750,7 @@
       <c r="AJ25" s="12"/>
       <c r="AL25" s="12"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="D26" s="12"/>
       <c r="F26" s="12"/>
@@ -8780,7 +8771,7 @@
       <c r="AJ26" s="12"/>
       <c r="AL26" s="12"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -8834,7 +8825,7 @@
       <c r="AJ27" s="12"/>
       <c r="AL27" s="12"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
       <c r="F28" s="12"/>
@@ -8855,7 +8846,7 @@
       <c r="AJ28" s="12"/>
       <c r="AL28" s="12"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8936,7 +8927,7 @@
         <v>-1447</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
       <c r="F30" s="12"/>
@@ -8955,7 +8946,7 @@
       <c r="AF30" s="12"/>
       <c r="AH30" s="12"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
       <c r="F31" s="12"/>
@@ -8974,7 +8965,7 @@
       <c r="AF31" s="12"/>
       <c r="AH31" s="12"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -8996,29 +8987,29 @@
       <c r="AF32" s="12"/>
       <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="V33" s="8">
         <v>2250.19</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
       <c r="F39" s="12"/>
@@ -9037,7 +9028,7 @@
       <c r="AF39" s="12"/>
       <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="D40" s="12"/>
       <c r="F40" s="12"/>
@@ -9056,7 +9047,7 @@
       <c r="AF40" s="12"/>
       <c r="AH40" s="12"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="D41" s="12"/>
       <c r="F41" s="12"/>
@@ -9075,7 +9066,7 @@
       <c r="AF41" s="12"/>
       <c r="AH41" s="12"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="D42" s="8"/>
       <c r="F42" s="8"/>
@@ -9094,7 +9085,7 @@
       <c r="AF42" s="8"/>
       <c r="AH42" s="8"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="D43" s="8"/>
       <c r="F43" s="8"/>
@@ -9113,7 +9104,7 @@
       <c r="AF43" s="8"/>
       <c r="AH43" s="8"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="D44" s="8"/>
       <c r="F44" s="8"/>
@@ -9132,7 +9123,7 @@
       <c r="AF44" s="8"/>
       <c r="AH44" s="8"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="D45" s="8"/>
       <c r="F45" s="8"/>
@@ -9151,7 +9142,7 @@
       <c r="AF45" s="8"/>
       <c r="AH45" s="8"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="D46" s="8"/>
       <c r="F46" s="8"/>
@@ -9170,7 +9161,7 @@
       <c r="AF46" s="8"/>
       <c r="AH46" s="8"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="D47" s="8"/>
       <c r="F47" s="8"/>
@@ -9189,7 +9180,7 @@
       <c r="AF47" s="8"/>
       <c r="AH47" s="8"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="D48" s="8"/>
       <c r="F48" s="8"/>
@@ -9208,7 +9199,7 @@
       <c r="AF48" s="8"/>
       <c r="AH48" s="8"/>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="D49" s="8"/>
       <c r="F49" s="8"/>
@@ -9227,7 +9218,7 @@
       <c r="AF49" s="8"/>
       <c r="AH49" s="8"/>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="D50" s="8"/>
       <c r="F50" s="8"/>
@@ -9246,7 +9237,7 @@
       <c r="AF50" s="8"/>
       <c r="AH50" s="8"/>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="D51" s="8"/>
       <c r="F51" s="8"/>
@@ -9265,7 +9256,7 @@
       <c r="AF51" s="8"/>
       <c r="AH51" s="8"/>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="D52" s="8"/>
       <c r="F52" s="8"/>
@@ -9284,7 +9275,7 @@
       <c r="AF52" s="8"/>
       <c r="AH52" s="8"/>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="8"/>
@@ -9303,7 +9294,7 @@
       <c r="AF53" s="8"/>
       <c r="AH53" s="8"/>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="D54" s="8"/>
       <c r="F54" s="8"/>
@@ -9322,7 +9313,7 @@
       <c r="AF54" s="8"/>
       <c r="AH54" s="8"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="D55" s="8"/>
       <c r="F55" s="8"/>
@@ -9341,7 +9332,7 @@
       <c r="AF55" s="8"/>
       <c r="AH55" s="8"/>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="D56" s="8"/>
       <c r="F56" s="8"/>
@@ -9360,7 +9351,7 @@
       <c r="AF56" s="8"/>
       <c r="AH56" s="8"/>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="D57" s="8"/>
       <c r="F57" s="8"/>
@@ -9379,7 +9370,7 @@
       <c r="AF57" s="8"/>
       <c r="AH57" s="8"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="D58" s="8"/>
       <c r="F58" s="8"/>
@@ -9398,7 +9389,7 @@
       <c r="AF58" s="8"/>
       <c r="AH58" s="8"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="D59" s="8"/>
       <c r="F59" s="8"/>
@@ -9417,7 +9408,7 @@
       <c r="AF59" s="8"/>
       <c r="AH59" s="8"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="D60" s="8"/>
       <c r="F60" s="8"/>
@@ -9436,7 +9427,7 @@
       <c r="AF60" s="8"/>
       <c r="AH60" s="8"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="D61" s="8"/>
       <c r="F61" s="8"/>
@@ -9455,7 +9446,7 @@
       <c r="AF61" s="8"/>
       <c r="AH61" s="8"/>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="D62" s="8"/>
       <c r="F62" s="8"/>
@@ -9474,7 +9465,7 @@
       <c r="AF62" s="8"/>
       <c r="AH62" s="8"/>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="D63" s="8"/>
       <c r="F63" s="8"/>
@@ -9493,7 +9484,7 @@
       <c r="AF63" s="8"/>
       <c r="AH63" s="8"/>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="D64" s="8"/>
       <c r="F64" s="8"/>
@@ -9512,7 +9503,7 @@
       <c r="AF64" s="8"/>
       <c r="AH64" s="8"/>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="D65" s="8"/>
       <c r="F65" s="8"/>
@@ -9531,7 +9522,7 @@
       <c r="AF65" s="8"/>
       <c r="AH65" s="8"/>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="D66" s="8"/>
       <c r="F66" s="8"/>
@@ -9550,7 +9541,7 @@
       <c r="AF66" s="8"/>
       <c r="AH66" s="8"/>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="D67" s="8"/>
       <c r="F67" s="8"/>
@@ -9569,7 +9560,7 @@
       <c r="AF67" s="8"/>
       <c r="AH67" s="8"/>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="D68" s="8"/>
       <c r="F68" s="8"/>
@@ -9588,7 +9579,7 @@
       <c r="AF68" s="8"/>
       <c r="AH68" s="8"/>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="D69" s="8"/>
       <c r="F69" s="8"/>
@@ -9607,7 +9598,7 @@
       <c r="AF69" s="8"/>
       <c r="AH69" s="8"/>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="D70" s="8"/>
       <c r="F70" s="8"/>
@@ -9626,7 +9617,7 @@
       <c r="AF70" s="8"/>
       <c r="AH70" s="8"/>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="D71" s="8"/>
       <c r="F71" s="8"/>
@@ -9645,7 +9636,7 @@
       <c r="AF71" s="8"/>
       <c r="AH71" s="8"/>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="D72" s="8"/>
       <c r="F72" s="8"/>
@@ -9664,7 +9655,7 @@
       <c r="AF72" s="8"/>
       <c r="AH72" s="8"/>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="D73" s="8"/>
       <c r="F73" s="8"/>
@@ -9683,7 +9674,7 @@
       <c r="AF73" s="8"/>
       <c r="AH73" s="8"/>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="D74" s="8"/>
       <c r="F74" s="8"/>
@@ -9702,7 +9693,7 @@
       <c r="AF74" s="8"/>
       <c r="AH74" s="8"/>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="D75" s="8"/>
       <c r="F75" s="8"/>
@@ -9721,7 +9712,7 @@
       <c r="AF75" s="8"/>
       <c r="AH75" s="8"/>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="D76" s="8"/>
       <c r="F76" s="8"/>
@@ -9740,7 +9731,7 @@
       <c r="AF76" s="8"/>
       <c r="AH76" s="8"/>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
       <c r="F77" s="8"/>
@@ -9759,7 +9750,7 @@
       <c r="AF77" s="8"/>
       <c r="AH77" s="8"/>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
       <c r="F78" s="8"/>
@@ -9778,7 +9769,7 @@
       <c r="AF78" s="8"/>
       <c r="AH78" s="8"/>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="D79" s="8"/>
       <c r="F79" s="8"/>
@@ -9797,7 +9788,7 @@
       <c r="AF79" s="8"/>
       <c r="AH79" s="8"/>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="D80" s="8"/>
       <c r="F80" s="8"/>
@@ -9816,7 +9807,7 @@
       <c r="AF80" s="8"/>
       <c r="AH80" s="8"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="D81" s="8"/>
       <c r="F81" s="8"/>
@@ -9835,7 +9826,7 @@
       <c r="AF81" s="8"/>
       <c r="AH81" s="8"/>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="D82" s="8"/>
       <c r="F82" s="8"/>
@@ -9854,7 +9845,7 @@
       <c r="AF82" s="8"/>
       <c r="AH82" s="8"/>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="D83" s="8"/>
       <c r="F83" s="8"/>
@@ -9873,7 +9864,7 @@
       <c r="AF83" s="8"/>
       <c r="AH83" s="8"/>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="D84" s="8"/>
       <c r="F84" s="8"/>
@@ -9892,7 +9883,7 @@
       <c r="AF84" s="8"/>
       <c r="AH84" s="8"/>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="D85" s="8"/>
       <c r="F85" s="8"/>
@@ -9911,7 +9902,7 @@
       <c r="AF85" s="8"/>
       <c r="AH85" s="8"/>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="D86" s="8"/>
       <c r="F86" s="8"/>
@@ -9930,7 +9921,7 @@
       <c r="AF86" s="8"/>
       <c r="AH86" s="8"/>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="D87" s="8"/>
       <c r="F87" s="8"/>
@@ -9949,7 +9940,7 @@
       <c r="AF87" s="8"/>
       <c r="AH87" s="8"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="D88" s="8"/>
       <c r="F88" s="8"/>
@@ -9968,7 +9959,7 @@
       <c r="AF88" s="8"/>
       <c r="AH88" s="8"/>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="D89" s="8"/>
       <c r="F89" s="8"/>
@@ -9987,7 +9978,7 @@
       <c r="AF89" s="8"/>
       <c r="AH89" s="8"/>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="D90" s="8"/>
       <c r="F90" s="8"/>
@@ -10006,7 +9997,7 @@
       <c r="AF90" s="8"/>
       <c r="AH90" s="8"/>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="D91" s="8"/>
       <c r="F91" s="8"/>
@@ -10025,7 +10016,7 @@
       <c r="AF91" s="8"/>
       <c r="AH91" s="8"/>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="D92" s="8"/>
       <c r="F92" s="8"/>
@@ -10044,7 +10035,7 @@
       <c r="AF92" s="8"/>
       <c r="AH92" s="8"/>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="D93" s="8"/>
       <c r="F93" s="8"/>
@@ -10063,7 +10054,7 @@
       <c r="AF93" s="8"/>
       <c r="AH93" s="8"/>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="D94" s="8"/>
       <c r="F94" s="8"/>
@@ -10082,7 +10073,7 @@
       <c r="AF94" s="8"/>
       <c r="AH94" s="8"/>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="D95" s="8"/>
       <c r="F95" s="8"/>
@@ -10101,7 +10092,7 @@
       <c r="AF95" s="8"/>
       <c r="AH95" s="8"/>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="D96" s="8"/>
       <c r="F96" s="8"/>
@@ -10120,7 +10111,7 @@
       <c r="AF96" s="8"/>
       <c r="AH96" s="8"/>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="D97" s="8"/>
       <c r="F97" s="8"/>
@@ -10139,7 +10130,7 @@
       <c r="AF97" s="8"/>
       <c r="AH97" s="8"/>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="D98" s="8"/>
       <c r="F98" s="8"/>
@@ -10158,7 +10149,7 @@
       <c r="AF98" s="8"/>
       <c r="AH98" s="8"/>
     </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="F99" s="8"/>
@@ -10177,7 +10168,7 @@
       <c r="AF99" s="8"/>
       <c r="AH99" s="8"/>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="D100" s="8"/>
       <c r="F100" s="8"/>
@@ -10196,7 +10187,7 @@
       <c r="AF100" s="8"/>
       <c r="AH100" s="8"/>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="D101" s="8"/>
       <c r="F101" s="8"/>
@@ -10215,7 +10206,7 @@
       <c r="AF101" s="8"/>
       <c r="AH101" s="8"/>
     </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="D102" s="8"/>
       <c r="F102" s="8"/>
@@ -10234,7 +10225,7 @@
       <c r="AF102" s="8"/>
       <c r="AH102" s="8"/>
     </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="D103" s="8"/>
       <c r="F103" s="8"/>
@@ -10253,7 +10244,7 @@
       <c r="AF103" s="8"/>
       <c r="AH103" s="8"/>
     </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="D104" s="8"/>
       <c r="F104" s="8"/>
@@ -10272,7 +10263,7 @@
       <c r="AF104" s="8"/>
       <c r="AH104" s="8"/>
     </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="D105" s="8"/>
       <c r="F105" s="8"/>
@@ -10291,7 +10282,7 @@
       <c r="AF105" s="8"/>
       <c r="AH105" s="8"/>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="D106" s="8"/>
       <c r="F106" s="8"/>
@@ -10310,7 +10301,7 @@
       <c r="AF106" s="8"/>
       <c r="AH106" s="8"/>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="D107" s="8"/>
       <c r="F107" s="8"/>
@@ -10329,7 +10320,7 @@
       <c r="AF107" s="8"/>
       <c r="AH107" s="8"/>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="D108" s="8"/>
       <c r="F108" s="8"/>
@@ -10348,7 +10339,7 @@
       <c r="AF108" s="8"/>
       <c r="AH108" s="8"/>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="D109" s="8"/>
       <c r="F109" s="8"/>
@@ -10367,7 +10358,7 @@
       <c r="AF109" s="8"/>
       <c r="AH109" s="8"/>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="D110" s="8"/>
       <c r="F110" s="8"/>
@@ -10386,7 +10377,7 @@
       <c r="AF110" s="8"/>
       <c r="AH110" s="8"/>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="D111" s="8"/>
       <c r="F111" s="8"/>
@@ -10405,7 +10396,7 @@
       <c r="AF111" s="8"/>
       <c r="AH111" s="8"/>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="D112" s="8"/>
       <c r="F112" s="8"/>
@@ -10424,7 +10415,7 @@
       <c r="AF112" s="8"/>
       <c r="AH112" s="8"/>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="D113" s="8"/>
       <c r="F113" s="8"/>
@@ -10443,7 +10434,7 @@
       <c r="AF113" s="8"/>
       <c r="AH113" s="8"/>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="D114" s="8"/>
       <c r="F114" s="8"/>
@@ -10462,7 +10453,7 @@
       <c r="AF114" s="8"/>
       <c r="AH114" s="8"/>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="D115" s="8"/>
       <c r="F115" s="8"/>
@@ -10481,7 +10472,7 @@
       <c r="AF115" s="8"/>
       <c r="AH115" s="8"/>
     </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="D116" s="8"/>
       <c r="F116" s="8"/>
@@ -10508,35 +10499,35 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A2:P65"/>
+  <dimension ref="A2:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>134</v>
       </c>
@@ -10544,27 +10535,27 @@
         <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>1900</v>
+        <v>1776</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="9">
         <f>B5/2</f>
-        <v>950</v>
+        <v>888</v>
       </c>
       <c r="H5" s="9">
-        <v>1950</v>
-      </c>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1776</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -10579,26 +10570,26 @@
       <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="8">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>62</v>
       </c>
       <c r="H7" s="9">
-        <v>43</v>
-      </c>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -10613,9 +10604,9 @@
       <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -10630,9 +10621,10 @@
       <c r="H9" s="9">
         <v>0</v>
       </c>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -10647,9 +10639,14 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I10" s="7">
+        <v>3400</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -10664,9 +10661,14 @@
       <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I11" s="7">
+        <v>470</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -10678,25 +10680,17 @@
         <v>29</v>
       </c>
       <c r="H12" s="9">
-        <v>29</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="M12" t="s">
-        <v>164</v>
-      </c>
-      <c r="N12" t="s">
-        <v>165</v>
-      </c>
-      <c r="O12" t="s">
-        <v>166</v>
-      </c>
-      <c r="P12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1475.88</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -10708,27 +10702,21 @@
         <v>30</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>2976</v>
-      </c>
-      <c r="M13" s="8">
-        <v>500</v>
-      </c>
-      <c r="N13" s="8">
-        <f>L13-M13</f>
-        <v>2476</v>
-      </c>
-      <c r="O13" s="8">
-        <v>38.619999999999997</v>
-      </c>
-      <c r="P13" s="8">
-        <f>N13-O13</f>
-        <v>2437.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1526.35</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -10740,18 +10728,15 @@
         <v>25</v>
       </c>
       <c r="H14" s="9">
-        <v>25</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="L14" t="s">
-        <v>168</v>
-      </c>
-      <c r="P14" s="9">
-        <f>H40-P13</f>
-        <v>867.61999999999989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -10767,48 +10752,53 @@
         <v>0</v>
       </c>
       <c r="I15" s="35"/>
-      <c r="L15" s="8">
-        <v>1500</v>
-      </c>
-      <c r="P15" s="8">
-        <f>P14-L15</f>
-        <v>-632.38000000000011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E16" s="36"/>
       <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="7">
+        <f>SUM(I10:I14)</f>
+        <v>6872.23</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="8">
         <f>SUM(B5:B17)</f>
-        <v>3459</v>
+        <v>3374</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
       </c>
       <c r="E18" s="29">
         <f>B45-B18</f>
-        <v>-169</v>
+        <v>-84</v>
       </c>
       <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>140</v>
       </c>
       <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -10823,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -10838,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>148</v>
       </c>
@@ -10853,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>149</v>
       </c>
@@ -10868,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>150</v>
       </c>
@@ -10883,16 +10873,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -10905,23 +10895,23 @@
       </c>
       <c r="E29" s="8">
         <f>(E18-B29)</f>
-        <v>-423</v>
+        <v>-338</v>
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>141</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>142</v>
       </c>
@@ -10936,7 +10926,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>143</v>
       </c>
@@ -10951,7 +10941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>98</v>
       </c>
@@ -10963,10 +10953,10 @@
         <v>30</v>
       </c>
       <c r="H35" s="9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>147</v>
       </c>
@@ -10981,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>151</v>
       </c>
@@ -10993,10 +10983,10 @@
         <v>25</v>
       </c>
       <c r="H37" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>152</v>
       </c>
@@ -11011,7 +11001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>157</v>
       </c>
@@ -11020,14 +11010,14 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>47</v>
       </c>
@@ -11036,16 +11026,16 @@
         <v>0</v>
       </c>
       <c r="H40" s="9">
-        <v>3305</v>
+        <v>280</v>
       </c>
       <c r="I40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -11064,13 +11054,13 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -11083,49 +11073,49 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>146</v>
       </c>
       <c r="B47" s="8">
         <f>SUM(B18,B29,B42)</f>
-        <v>4329</v>
+        <v>4244</v>
       </c>
       <c r="F47" s="9">
         <f>SUM(F5:F40)</f>
-        <v>1752</v>
+        <v>1709.5</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9">
         <f>SUM(H5:H40)</f>
-        <v>5737</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
         <v>145</v>
       </c>
       <c r="B48" s="31">
         <f>E29-B42</f>
-        <v>-1039</v>
+        <v>-954</v>
       </c>
       <c r="C48" s="31"/>
       <c r="F48" s="9">
         <f>C45-F47</f>
-        <v>-107</v>
+        <v>-64.5</v>
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -11133,25 +11123,25 @@
         <v>62</v>
       </c>
       <c r="F51" s="12">
-        <v>5587</v>
+        <v>3413</v>
       </c>
       <c r="H51" s="34">
         <f>F51-H47</f>
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B52" s="32">
         <f>B18/B45</f>
-        <v>1.0513677811550153</v>
+        <v>1.0255319148936171</v>
       </c>
       <c r="C52" s="32"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>140</v>
       </c>
@@ -11160,9 +11150,10 @@
         <v>7.7203647416413376E-2</v>
       </c>
       <c r="C53" s="32"/>
+      <c r="F53" s="12"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>141</v>
       </c>
@@ -11171,61 +11162,82 @@
         <v>0.18723404255319148</v>
       </c>
       <c r="C54" s="32"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="12"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="32">
         <f>B48/B45</f>
-        <v>-0.31580547112462004</v>
+        <v>-0.28996960486322187</v>
       </c>
       <c r="C55" s="32"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="12"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F56" s="7"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="12"/>
       <c r="G56" s="7"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F57" s="7"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="12"/>
       <c r="G57" s="7"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F58" s="7"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="12"/>
       <c r="G58" s="7"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F59" s="7"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="12"/>
       <c r="G59" s="7"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F60" s="7"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="12"/>
       <c r="G60" s="7"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F61" s="7"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="12"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F65" s="7"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11241,15 +11253,15 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42839</v>
       </c>
@@ -11257,7 +11269,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11268,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11279,7 +11291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11290,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -11301,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -11319,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11334,7 +11346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -11349,7 +11361,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -11362,7 +11374,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -11375,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -11388,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11403,7 +11415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -11416,7 +11428,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -11425,13 +11437,13 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -11447,10 +11459,10 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -11464,10 +11476,10 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -11483,13 +11495,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>34</v>
       </c>
@@ -11497,13 +11509,13 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="9">
         <f>SUM(E7:E14)</f>
         <v>1096</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>35</v>
       </c>
@@ -11512,10 +11524,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>36</v>
       </c>
@@ -11523,7 +11535,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>37</v>
       </c>
@@ -11531,10 +11543,10 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>38</v>
       </c>
@@ -11542,7 +11554,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>39</v>
       </c>
@@ -11550,13 +11562,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E34" s="8">
         <f>SUM(E32:E33)</f>
         <v>1112</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>40</v>
       </c>
@@ -11565,10 +11577,10 @@
         <v>873</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>41</v>
       </c>
@@ -11576,10 +11588,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -11588,43 +11600,43 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
     </row>
   </sheetData>
@@ -11639,15 +11651,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -11655,7 +11667,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -11663,7 +11675,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>90</v>
       </c>
@@ -11677,7 +11689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>91</v>
       </c>
@@ -11691,7 +11703,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>92</v>
       </c>
@@ -11705,7 +11717,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>93</v>
       </c>
@@ -11713,7 +11725,7 @@
         <v>146.79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>26</v>
       </c>
@@ -11721,7 +11733,7 @@
         <v>72.709999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>47</v>
       </c>
@@ -11729,7 +11741,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>0</v>
       </c>
@@ -11737,7 +11749,7 @@
         <v>1035.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>94</v>
       </c>
@@ -11745,7 +11757,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>95</v>
       </c>
@@ -11754,7 +11766,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>96</v>
       </c>
@@ -11763,7 +11775,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>55</v>
       </c>
@@ -11772,7 +11784,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>94</v>
       </c>
@@ -11781,7 +11793,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>26</v>
       </c>
@@ -11790,7 +11802,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>97</v>
       </c>
@@ -11799,7 +11811,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>94</v>
       </c>
@@ -11808,7 +11820,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>99</v>
       </c>
@@ -11816,7 +11828,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>94</v>
       </c>
@@ -11824,7 +11836,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>100</v>
       </c>
@@ -11832,7 +11844,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>101</v>
       </c>
@@ -11840,7 +11852,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>102</v>
       </c>
@@ -11848,7 +11860,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>98</v>
       </c>
@@ -11856,7 +11868,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>103</v>
       </c>
@@ -11864,7 +11876,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>98</v>
       </c>
@@ -11872,7 +11884,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>104</v>
       </c>
@@ -11880,7 +11892,7 @@
         <v>70.16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -11888,7 +11900,7 @@
         <v>97.17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
@@ -11896,7 +11908,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>94</v>
       </c>
@@ -11904,7 +11916,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>130</v>
       </c>
@@ -11912,7 +11924,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>129</v>
       </c>
@@ -11920,7 +11932,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>128</v>
       </c>
@@ -11928,7 +11940,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>127</v>
       </c>
@@ -11936,7 +11948,7 @@
         <v>26.71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>114</v>
       </c>
@@ -11944,7 +11956,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>94</v>
       </c>
@@ -11952,7 +11964,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>94</v>
       </c>
@@ -11960,7 +11972,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>126</v>
       </c>
@@ -11968,7 +11980,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>94</v>
       </c>
@@ -11976,7 +11988,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>125</v>
       </c>
@@ -11984,7 +11996,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>124</v>
       </c>
@@ -11992,7 +12004,7 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>47</v>
       </c>
@@ -12000,7 +12012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>94</v>
       </c>
@@ -12008,7 +12020,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>105</v>
       </c>
@@ -12016,7 +12028,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>94</v>
       </c>
@@ -12024,7 +12036,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
         <v>123</v>
       </c>
@@ -12032,7 +12044,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>98</v>
       </c>
@@ -12040,7 +12052,7 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>122</v>
       </c>
@@ -12048,7 +12060,7 @@
         <v>26.27</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>121</v>
       </c>
@@ -12056,7 +12068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>104</v>
       </c>
@@ -12064,7 +12076,7 @@
         <v>80.33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>106</v>
       </c>
@@ -12072,7 +12084,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>120</v>
       </c>
@@ -12080,7 +12092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>105</v>
       </c>
@@ -12088,7 +12100,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>16</v>
       </c>
@@ -12096,7 +12108,7 @@
         <v>63.59</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>30</v>
       </c>
@@ -12104,7 +12116,7 @@
         <v>244.42</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>119</v>
       </c>
@@ -12112,7 +12124,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>92</v>
       </c>
@@ -12120,7 +12132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>118</v>
       </c>
@@ -12128,7 +12140,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
         <v>117</v>
       </c>
@@ -12136,7 +12148,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>116</v>
       </c>
@@ -12144,7 +12156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>107</v>
       </c>
@@ -12152,7 +12164,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>108</v>
       </c>
@@ -12160,7 +12172,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>115</v>
       </c>
@@ -12168,7 +12180,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
         <v>114</v>
       </c>
@@ -12176,7 +12188,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
         <v>92</v>
       </c>
@@ -12184,7 +12196,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>2</v>
       </c>
@@ -12192,7 +12204,7 @@
         <v>164.84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>94</v>
       </c>
@@ -12200,7 +12212,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
         <v>94</v>
       </c>
@@ -12208,7 +12220,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>113</v>
       </c>
@@ -12216,7 +12228,7 @@
         <v>35.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>112</v>
       </c>
@@ -12224,7 +12236,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>94</v>
       </c>
@@ -12232,7 +12244,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>102</v>
       </c>
@@ -12240,7 +12252,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>105</v>
       </c>
@@ -12248,7 +12260,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="23" t="s">
         <v>94</v>
       </c>
@@ -12256,7 +12268,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22" t="s">
         <v>111</v>
       </c>
@@ -12264,7 +12276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>104</v>
       </c>
@@ -12272,7 +12284,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>94</v>
       </c>
@@ -12280,7 +12292,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="22" t="s">
         <v>110</v>
       </c>
@@ -12288,7 +12300,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
         <v>109</v>
       </c>
@@ -12296,7 +12308,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>47</v>
       </c>
@@ -12315,17 +12327,17 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -12336,7 +12348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43156</v>
       </c>
@@ -12347,7 +12359,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43542</v>
       </c>
@@ -12358,7 +12370,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43599</v>
       </c>
@@ -12369,7 +12381,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43606</v>
       </c>
@@ -12380,7 +12392,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43609</v>
       </c>
@@ -12391,7 +12403,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43630</v>
       </c>
@@ -12402,16 +12414,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -12420,7 +12432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -12428,7 +12440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12456,22 +12468,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42867</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12482,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12493,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12504,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12515,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12534,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12550,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12562,7 +12574,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12576,7 +12588,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12588,7 +12600,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12604,7 +12616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12618,7 +12630,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12627,13 +12639,13 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -12649,10 +12661,10 @@
         <v>883</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12667,10 +12679,10 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -12683,12 +12695,12 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -12696,7 +12708,7 @@
         <v>1136.5899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -12705,7 +12717,7 @@
         <v>544.56999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -12714,7 +12726,7 @@
         <v>592.02</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -12722,7 +12734,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -12734,7 +12746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>345</v>
       </c>
@@ -12753,20 +12765,20 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42881</v>
       </c>
@@ -12777,7 +12789,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12794,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12811,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12828,7 +12840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12845,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12867,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12887,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12907,7 +12919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12927,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12947,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12970,7 +12982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12988,7 +13000,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13003,15 +13015,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13034,11 +13046,11 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13061,11 +13073,11 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13088,7 +13100,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13105,17 +13117,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42923</v>
       </c>
@@ -13123,7 +13135,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13137,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13151,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13165,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13179,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13195,7 +13207,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13211,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13227,7 +13239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13243,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13259,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13275,7 +13287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13291,7 +13303,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13303,13 +13315,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13325,10 +13337,10 @@
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13342,10 +13354,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13361,7 +13373,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13378,17 +13390,17 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42951</v>
       </c>
@@ -13396,7 +13408,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13410,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13424,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13438,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13452,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13470,7 +13482,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13486,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13502,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13518,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13534,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13550,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13566,7 +13578,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13578,13 +13590,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13600,10 +13612,10 @@
         <v>1132.57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13617,10 +13629,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13636,7 +13648,7 @@
         <v>206.43000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13653,20 +13665,20 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="10"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="10"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42979</v>
       </c>
@@ -13678,7 +13690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13696,7 +13708,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13714,7 +13726,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13732,7 +13744,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13750,7 +13762,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13772,7 +13784,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13790,7 +13802,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13808,7 +13820,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13826,7 +13838,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13844,7 +13856,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13862,7 +13874,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13882,7 +13894,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13898,15 +13910,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13923,11 +13935,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13942,11 +13954,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13963,7 +13975,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -13971,7 +13983,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -13980,7 +13992,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -13989,7 +14001,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -14006,18 +14018,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43007</v>
       </c>
@@ -14026,7 +14038,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14044,7 +14056,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14059,7 +14071,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14077,7 +14089,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -14095,7 +14107,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14118,7 +14130,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14136,7 +14148,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14154,7 +14166,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14175,7 +14187,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14193,7 +14205,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -14211,7 +14223,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -14227,15 +14239,15 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -14252,11 +14264,11 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -14271,11 +14283,11 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14292,7 +14304,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="6"/>
     </row>
   </sheetData>
@@ -14309,18 +14321,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43035</v>
       </c>
@@ -14329,7 +14341,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14344,7 +14356,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14359,7 +14371,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14374,7 +14386,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -14389,7 +14401,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14409,7 +14421,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14427,7 +14439,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14445,7 +14457,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14463,7 +14475,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14481,7 +14493,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -14499,7 +14511,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -14517,7 +14529,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -14530,15 +14542,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -14555,11 +14567,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -14574,11 +14586,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14595,7 +14607,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>

--- a/bill-pay-checklist_Reichhard.excel.xlsx
+++ b/bill-pay-checklist_Reichhard.excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rreichhard\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F92A3D6-4A38-45E3-9322-1C1CA24769B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449F6CB2-C675-43AA-8E1B-DD2F09F180A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="March 2017" sheetId="1" state="hidden" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="161">
   <si>
     <t>Rent</t>
   </si>
@@ -607,21 +607,6 @@
   </si>
   <si>
     <t>Open Sky CC</t>
-  </si>
-  <si>
-    <t>SNAP finance</t>
-  </si>
-  <si>
-    <t>tires</t>
-  </si>
-  <si>
-    <t>snap</t>
-  </si>
-  <si>
-    <t>PPMC</t>
-  </si>
-  <si>
-    <t>Discover</t>
   </si>
 </sst>
 </file>
@@ -1164,16 +1149,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>42811</v>
       </c>
@@ -1181,7 +1166,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1183,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1218,7 +1203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1235,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1255,7 +1240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1275,7 +1260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1329,7 +1314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1322,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1338,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1352,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1383,7 +1368,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1409,7 +1394,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1436,7 +1421,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1457,7 +1442,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -1484,7 +1469,7 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1505,7 +1490,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1526,7 +1511,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1547,7 +1532,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1568,7 +1553,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1589,7 +1574,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1610,7 +1595,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1631,7 +1616,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1652,7 +1637,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1673,7 +1658,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1694,7 +1679,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1715,7 +1700,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1736,7 +1721,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1757,7 +1742,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1778,7 +1763,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1799,7 +1784,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1834,18 +1819,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43063</v>
       </c>
@@ -1857,7 +1842,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1874,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1891,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1908,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1925,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1947,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1967,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1987,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2007,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2027,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2045,7 +2030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2050,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2080,15 +2065,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2111,11 +2096,11 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2135,11 +2120,11 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2162,7 +2147,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -2179,18 +2164,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43105</v>
       </c>
@@ -2202,7 +2187,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2219,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2253,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2270,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2292,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2312,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2332,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2352,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2372,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2390,7 +2375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2395,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2425,15 +2410,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2456,11 +2441,11 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2480,11 +2465,11 @@
         <v>1280.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2507,7 +2492,7 @@
         <v>255.20000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2515,7 +2500,7 @@
         <v>1834.34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2523,7 +2508,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2532,7 +2517,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2541,7 +2526,7 @@
         <v>1389.3400000000001</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" s="6"/>
     </row>
   </sheetData>
@@ -2558,18 +2543,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43133</v>
       </c>
@@ -2581,7 +2566,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2598,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2615,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2632,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2649,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2671,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2691,7 +2676,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2711,7 +2696,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2731,7 +2716,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2749,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +2754,7 @@
         <v>1003.84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2784,15 +2769,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2815,11 +2800,11 @@
         <v>1525.8400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2839,11 +2824,11 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2866,7 +2851,7 @@
         <v>-206.84000000000015</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -2884,18 +2869,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43175</v>
       </c>
@@ -2907,7 +2892,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2927,7 +2912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2944,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2964,7 +2949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2981,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3003,7 +2988,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3023,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3043,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3066,7 +3051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3087,7 +3072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3110,7 +3095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3128,7 +3113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -3148,15 +3133,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3179,11 +3164,11 @@
         <v>1415.57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3203,11 +3188,11 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3230,12 +3215,12 @@
         <v>-73.569999999999936</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I23">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3253,20 +3238,20 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43203</v>
       </c>
@@ -3279,7 +3264,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3297,7 +3282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3320,7 +3305,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3338,7 +3323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3361,7 +3346,7 @@
         <v>1129.57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3381,7 +3366,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3404,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3422,7 +3407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3443,7 +3428,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3464,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3483,7 +3468,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3496,7 +3481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3511,15 +3496,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3545,11 +3530,11 @@
         <v>2109.21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3572,11 +3557,11 @@
         <v>1619.57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3603,7 +3588,7 @@
         <v>489.6400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3620,17 +3605,17 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43231</v>
       </c>
@@ -3641,7 +3626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3653,7 +3638,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3665,7 +3650,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3677,7 +3662,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3689,7 +3674,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3700,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3711,7 +3696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3722,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3731,7 +3716,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3742,7 +3727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +3738,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3764,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3775,15 +3760,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3802,11 +3787,11 @@
         <v>338.29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3820,11 +3805,11 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3843,7 +3828,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E21" s="8"/>
       <c r="G21" t="s">
         <v>70</v>
@@ -3853,13 +3838,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E24" s="8"/>
       <c r="G24" t="s">
         <v>28</v>
@@ -3869,262 +3854,262 @@
         <v>309.28999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E110" s="8"/>
     </row>
   </sheetData>
@@ -4141,16 +4126,16 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43259</v>
       </c>
@@ -4167,7 +4152,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4189,7 +4174,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4211,7 +4196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4233,7 +4218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4255,7 +4240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4277,7 +4262,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4299,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4321,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4343,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4366,7 +4351,7 @@
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4388,7 +4373,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4410,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -4432,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4441,7 +4426,7 @@
       <c r="I14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4450,7 +4435,7 @@
       <c r="I15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4477,7 +4462,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4486,7 +4471,7 @@
       <c r="I17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4508,7 +4493,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4517,7 +4502,7 @@
       <c r="I19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4544,7 +4529,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4553,7 +4538,7 @@
       <c r="I21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4564,7 +4549,7 @@
       <c r="I22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4580,7 +4565,7 @@
       <c r="I23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4589,7 +4574,7 @@
       <c r="I24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
@@ -4602,7 +4587,7 @@
       <c r="I25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4611,7 +4596,7 @@
       <c r="I26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
@@ -4625,7 +4610,7 @@
       <c r="I27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4634,7 +4619,7 @@
       <c r="I28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4643,7 +4628,7 @@
       <c r="I29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
@@ -4657,7 +4642,7 @@
       <c r="I30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -4666,7 +4651,7 @@
       <c r="I31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
@@ -4679,7 +4664,7 @@
       <c r="I32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -4688,7 +4673,7 @@
       <c r="I33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -4697,7 +4682,7 @@
       <c r="I34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -4706,451 +4691,451 @@
       <c r="I35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="G36" s="8"/>
       <c r="I36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E37" s="8"/>
       <c r="G37" s="8"/>
       <c r="I37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
       <c r="I38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
       <c r="I39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
       <c r="I40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
       <c r="I41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
       <c r="I42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
       <c r="I43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
       <c r="I44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
       <c r="I45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
       <c r="I46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
       <c r="I47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
       <c r="I48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
       <c r="I49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
       <c r="I50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
       <c r="I51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
       <c r="I52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
       <c r="I53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
       <c r="I54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
       <c r="I55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
       <c r="I56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
       <c r="I57" s="8"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
       <c r="I58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
       <c r="I59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
       <c r="I60" s="8"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
       <c r="I61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
       <c r="I62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
       <c r="I63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
       <c r="I64" s="8"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
       <c r="I65" s="8"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
       <c r="I66" s="8"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
       <c r="I67" s="8"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
       <c r="I68" s="8"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
       <c r="I69" s="8"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
       <c r="I70" s="8"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
       <c r="I71" s="8"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
       <c r="I72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
       <c r="I73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
       <c r="I74" s="8"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
       <c r="I75" s="8"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
       <c r="I76" s="8"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
       <c r="I77" s="8"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
       <c r="I78" s="8"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
       <c r="I79" s="8"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
       <c r="I80" s="8"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
       <c r="I81" s="8"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
       <c r="I82" s="8"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
       <c r="I83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
       <c r="I84" s="8"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
       <c r="I85" s="8"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
       <c r="I86" s="8"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
       <c r="I87" s="8"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
       <c r="I88" s="8"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
       <c r="I89" s="8"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
       <c r="I90" s="8"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
       <c r="I91" s="8"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
       <c r="I92" s="8"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
       <c r="I93" s="8"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
       <c r="I94" s="8"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
       <c r="I95" s="8"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
       <c r="I96" s="8"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
       <c r="I97" s="8"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
       <c r="I98" s="8"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
       <c r="I99" s="8"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
       <c r="I100" s="8"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
       <c r="I101" s="8"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
       <c r="I102" s="8"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
       <c r="I103" s="8"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
       <c r="I104" s="8"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
       <c r="I105" s="8"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
       <c r="I106" s="8"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
       <c r="I107" s="8"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
       <c r="I108" s="8"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
       <c r="I109" s="8"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
       <c r="I110" s="8"/>
@@ -5170,21 +5155,21 @@
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="17" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43343</v>
@@ -5220,7 +5205,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5258,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5296,7 +5281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5334,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -5372,7 +5357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -5410,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5448,7 +5433,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5486,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5524,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -5564,7 +5549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5602,7 +5587,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5640,7 +5625,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -5668,7 +5653,7 @@
       <c r="W13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="E14" s="12"/>
       <c r="G14" s="12"/>
@@ -5685,7 +5670,7 @@
       <c r="W14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5732,7 +5717,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="E16" s="12"/>
       <c r="G16" s="12"/>
@@ -5749,7 +5734,7 @@
       <c r="W16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5788,7 +5773,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="E18" s="12"/>
       <c r="G18" s="12"/>
@@ -5805,7 +5790,7 @@
       <c r="W18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -5833,7 +5818,7 @@
       <c r="W19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="E20" s="12"/>
       <c r="G20" s="12"/>
@@ -5850,7 +5835,7 @@
       <c r="W20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5902,7 +5887,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
@@ -5919,7 +5904,7 @@
       <c r="W22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="E23" s="12"/>
       <c r="G23" s="12"/>
@@ -5936,7 +5921,7 @@
       <c r="W23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5968,7 +5953,7 @@
       <c r="W24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
@@ -5985,7 +5970,7 @@
       <c r="W25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -6031,7 +6016,7 @@
         <v>-775</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B27" s="12"/>
       <c r="E27" s="12"/>
       <c r="G27" s="12"/>
@@ -6048,7 +6033,7 @@
       <c r="W27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="E28" s="12"/>
       <c r="G28" s="12"/>
@@ -6065,7 +6050,7 @@
       <c r="W28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -6085,31 +6070,31 @@
       <c r="W29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="E36" s="12"/>
       <c r="G36" s="12"/>
@@ -6126,7 +6111,7 @@
       <c r="W36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
       <c r="E37" s="12"/>
       <c r="G37" s="12"/>
@@ -6143,7 +6128,7 @@
       <c r="W37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
       <c r="E38" s="12"/>
       <c r="G38" s="12"/>
@@ -6160,7 +6145,7 @@
       <c r="W38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
@@ -6177,7 +6162,7 @@
       <c r="W39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
@@ -6194,7 +6179,7 @@
       <c r="W40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
@@ -6211,7 +6196,7 @@
       <c r="W41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
@@ -6228,7 +6213,7 @@
       <c r="W42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
@@ -6245,7 +6230,7 @@
       <c r="W43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
@@ -6262,7 +6247,7 @@
       <c r="W44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
@@ -6279,7 +6264,7 @@
       <c r="W45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
@@ -6296,7 +6281,7 @@
       <c r="W46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
@@ -6313,7 +6298,7 @@
       <c r="W47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
@@ -6330,7 +6315,7 @@
       <c r="W48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
@@ -6347,7 +6332,7 @@
       <c r="W49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
@@ -6364,7 +6349,7 @@
       <c r="W50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
@@ -6381,7 +6366,7 @@
       <c r="W51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
@@ -6398,7 +6383,7 @@
       <c r="W52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
@@ -6415,7 +6400,7 @@
       <c r="W53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
@@ -6432,7 +6417,7 @@
       <c r="W54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
@@ -6449,7 +6434,7 @@
       <c r="W55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
@@ -6466,7 +6451,7 @@
       <c r="W56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
@@ -6483,7 +6468,7 @@
       <c r="W57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B58" s="8"/>
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
@@ -6500,7 +6485,7 @@
       <c r="W58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
@@ -6517,7 +6502,7 @@
       <c r="W59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B60" s="8"/>
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
@@ -6534,7 +6519,7 @@
       <c r="W60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
@@ -6551,7 +6536,7 @@
       <c r="W61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
@@ -6568,7 +6553,7 @@
       <c r="W62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
@@ -6585,7 +6570,7 @@
       <c r="W63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B64" s="8"/>
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
@@ -6602,7 +6587,7 @@
       <c r="W64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
@@ -6619,7 +6604,7 @@
       <c r="W65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
@@ -6636,7 +6621,7 @@
       <c r="W66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
@@ -6653,7 +6638,7 @@
       <c r="W67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
@@ -6670,7 +6655,7 @@
       <c r="W68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
@@ -6687,7 +6672,7 @@
       <c r="W69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
@@ -6704,7 +6689,7 @@
       <c r="W70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B71" s="8"/>
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
@@ -6721,7 +6706,7 @@
       <c r="W71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B72" s="8"/>
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
@@ -6738,7 +6723,7 @@
       <c r="W72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
@@ -6755,7 +6740,7 @@
       <c r="W73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
@@ -6772,7 +6757,7 @@
       <c r="W74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
@@ -6789,7 +6774,7 @@
       <c r="W75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B76" s="8"/>
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
@@ -6806,7 +6791,7 @@
       <c r="W76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
@@ -6823,7 +6808,7 @@
       <c r="W77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B78" s="8"/>
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
@@ -6840,7 +6825,7 @@
       <c r="W78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
@@ -6857,7 +6842,7 @@
       <c r="W79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B80" s="8"/>
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
@@ -6874,7 +6859,7 @@
       <c r="W80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
@@ -6891,7 +6876,7 @@
       <c r="W81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B82" s="8"/>
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
@@ -6908,7 +6893,7 @@
       <c r="W82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
@@ -6925,7 +6910,7 @@
       <c r="W83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
@@ -6942,7 +6927,7 @@
       <c r="W84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
@@ -6959,7 +6944,7 @@
       <c r="W85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B86" s="8"/>
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
@@ -6976,7 +6961,7 @@
       <c r="W86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B87" s="8"/>
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
@@ -6993,7 +6978,7 @@
       <c r="W87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
@@ -7010,7 +6995,7 @@
       <c r="W88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B89" s="8"/>
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
@@ -7027,7 +7012,7 @@
       <c r="W89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
@@ -7044,7 +7029,7 @@
       <c r="W90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B91" s="8"/>
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
@@ -7061,7 +7046,7 @@
       <c r="W91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B92" s="8"/>
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
@@ -7078,7 +7063,7 @@
       <c r="W92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
@@ -7095,7 +7080,7 @@
       <c r="W93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
@@ -7112,7 +7097,7 @@
       <c r="W94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
@@ -7129,7 +7114,7 @@
       <c r="W95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B96" s="8"/>
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
@@ -7146,7 +7131,7 @@
       <c r="W96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B97" s="8"/>
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
@@ -7163,7 +7148,7 @@
       <c r="W97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B98" s="8"/>
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
@@ -7180,7 +7165,7 @@
       <c r="W98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B99" s="8"/>
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
@@ -7197,7 +7182,7 @@
       <c r="W99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B100" s="8"/>
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
@@ -7214,7 +7199,7 @@
       <c r="W100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B101" s="8"/>
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
@@ -7231,7 +7216,7 @@
       <c r="W101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B102" s="8"/>
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
@@ -7248,7 +7233,7 @@
       <c r="W102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B103" s="8"/>
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
@@ -7265,7 +7250,7 @@
       <c r="W103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B104" s="8"/>
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
@@ -7282,7 +7267,7 @@
       <c r="W104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B105" s="8"/>
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
@@ -7299,7 +7284,7 @@
       <c r="W105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B106" s="8"/>
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
@@ -7316,7 +7301,7 @@
       <c r="W106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B107" s="8"/>
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
@@ -7333,7 +7318,7 @@
       <c r="W107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B108" s="8"/>
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
@@ -7350,7 +7335,7 @@
       <c r="W108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B109" s="8"/>
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
@@ -7367,7 +7352,7 @@
       <c r="W109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B110" s="8"/>
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
@@ -7384,7 +7369,7 @@
       <c r="W110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B111" s="8"/>
       <c r="E111" s="8"/>
       <c r="G111" s="8"/>
@@ -7401,7 +7386,7 @@
       <c r="W111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B112" s="8"/>
       <c r="E112" s="8"/>
       <c r="G112" s="8"/>
@@ -7418,7 +7403,7 @@
       <c r="W112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B113" s="8"/>
       <c r="E113" s="8"/>
       <c r="G113" s="8"/>
@@ -7449,43 +7434,43 @@
       <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.81640625" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43455</v>
@@ -7545,7 +7530,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -7607,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7669,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -7731,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -7793,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -7855,7 +7840,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -7917,7 +7902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -7979,7 +7964,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8041,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -8103,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8165,7 +8150,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -8227,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -8289,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -8351,7 +8336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="D15" s="12"/>
       <c r="F15" s="12"/>
@@ -8372,7 +8357,7 @@
       <c r="AJ15" s="12"/>
       <c r="AL15" s="12"/>
     </row>
-    <row r="16" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19"/>
       <c r="D16" s="19"/>
       <c r="F16" s="19"/>
@@ -8393,7 +8378,7 @@
       <c r="AJ16" s="19"/>
       <c r="AL16" s="19"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="D17" s="12"/>
       <c r="F17" s="12"/>
@@ -8414,7 +8399,7 @@
       <c r="AJ17" s="12"/>
       <c r="AL17" s="12"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8495,7 +8480,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="F19" s="12"/>
@@ -8516,7 +8501,7 @@
       <c r="AJ19" s="12"/>
       <c r="AL19" s="12"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8578,7 +8563,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
       <c r="F21" s="12"/>
@@ -8599,7 +8584,7 @@
       <c r="AJ21" s="12"/>
       <c r="AL21" s="12"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -8627,7 +8612,7 @@
       <c r="AJ22" s="12"/>
       <c r="AL22" s="12"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
       <c r="F23" s="12"/>
@@ -8648,7 +8633,7 @@
       <c r="AJ23" s="12"/>
       <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8729,7 +8714,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="D25" s="12"/>
       <c r="F25" s="12"/>
@@ -8750,7 +8735,7 @@
       <c r="AJ25" s="12"/>
       <c r="AL25" s="12"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="D26" s="12"/>
       <c r="F26" s="12"/>
@@ -8771,7 +8756,7 @@
       <c r="AJ26" s="12"/>
       <c r="AL26" s="12"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -8825,7 +8810,7 @@
       <c r="AJ27" s="12"/>
       <c r="AL27" s="12"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
       <c r="F28" s="12"/>
@@ -8846,7 +8831,7 @@
       <c r="AJ28" s="12"/>
       <c r="AL28" s="12"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8927,7 +8912,7 @@
         <v>-1447</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
       <c r="F30" s="12"/>
@@ -8946,7 +8931,7 @@
       <c r="AF30" s="12"/>
       <c r="AH30" s="12"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
       <c r="F31" s="12"/>
@@ -8965,7 +8950,7 @@
       <c r="AF31" s="12"/>
       <c r="AH31" s="12"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -8987,29 +8972,29 @@
       <c r="AF32" s="12"/>
       <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="V33" s="8">
         <v>2250.19</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
       <c r="F39" s="12"/>
@@ -9028,7 +9013,7 @@
       <c r="AF39" s="12"/>
       <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="D40" s="12"/>
       <c r="F40" s="12"/>
@@ -9047,7 +9032,7 @@
       <c r="AF40" s="12"/>
       <c r="AH40" s="12"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
       <c r="D41" s="12"/>
       <c r="F41" s="12"/>
@@ -9066,7 +9051,7 @@
       <c r="AF41" s="12"/>
       <c r="AH41" s="12"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="D42" s="8"/>
       <c r="F42" s="8"/>
@@ -9085,7 +9070,7 @@
       <c r="AF42" s="8"/>
       <c r="AH42" s="8"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
       <c r="D43" s="8"/>
       <c r="F43" s="8"/>
@@ -9104,7 +9089,7 @@
       <c r="AF43" s="8"/>
       <c r="AH43" s="8"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
       <c r="D44" s="8"/>
       <c r="F44" s="8"/>
@@ -9123,7 +9108,7 @@
       <c r="AF44" s="8"/>
       <c r="AH44" s="8"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="D45" s="8"/>
       <c r="F45" s="8"/>
@@ -9142,7 +9127,7 @@
       <c r="AF45" s="8"/>
       <c r="AH45" s="8"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="D46" s="8"/>
       <c r="F46" s="8"/>
@@ -9161,7 +9146,7 @@
       <c r="AF46" s="8"/>
       <c r="AH46" s="8"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
       <c r="D47" s="8"/>
       <c r="F47" s="8"/>
@@ -9180,7 +9165,7 @@
       <c r="AF47" s="8"/>
       <c r="AH47" s="8"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
       <c r="D48" s="8"/>
       <c r="F48" s="8"/>
@@ -9199,7 +9184,7 @@
       <c r="AF48" s="8"/>
       <c r="AH48" s="8"/>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
       <c r="D49" s="8"/>
       <c r="F49" s="8"/>
@@ -9218,7 +9203,7 @@
       <c r="AF49" s="8"/>
       <c r="AH49" s="8"/>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
       <c r="D50" s="8"/>
       <c r="F50" s="8"/>
@@ -9237,7 +9222,7 @@
       <c r="AF50" s="8"/>
       <c r="AH50" s="8"/>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
       <c r="D51" s="8"/>
       <c r="F51" s="8"/>
@@ -9256,7 +9241,7 @@
       <c r="AF51" s="8"/>
       <c r="AH51" s="8"/>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
       <c r="D52" s="8"/>
       <c r="F52" s="8"/>
@@ -9275,7 +9260,7 @@
       <c r="AF52" s="8"/>
       <c r="AH52" s="8"/>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="8"/>
@@ -9294,7 +9279,7 @@
       <c r="AF53" s="8"/>
       <c r="AH53" s="8"/>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
       <c r="D54" s="8"/>
       <c r="F54" s="8"/>
@@ -9313,7 +9298,7 @@
       <c r="AF54" s="8"/>
       <c r="AH54" s="8"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
       <c r="D55" s="8"/>
       <c r="F55" s="8"/>
@@ -9332,7 +9317,7 @@
       <c r="AF55" s="8"/>
       <c r="AH55" s="8"/>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
       <c r="D56" s="8"/>
       <c r="F56" s="8"/>
@@ -9351,7 +9336,7 @@
       <c r="AF56" s="8"/>
       <c r="AH56" s="8"/>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
       <c r="D57" s="8"/>
       <c r="F57" s="8"/>
@@ -9370,7 +9355,7 @@
       <c r="AF57" s="8"/>
       <c r="AH57" s="8"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B58" s="8"/>
       <c r="D58" s="8"/>
       <c r="F58" s="8"/>
@@ -9389,7 +9374,7 @@
       <c r="AF58" s="8"/>
       <c r="AH58" s="8"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
       <c r="D59" s="8"/>
       <c r="F59" s="8"/>
@@ -9408,7 +9393,7 @@
       <c r="AF59" s="8"/>
       <c r="AH59" s="8"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B60" s="8"/>
       <c r="D60" s="8"/>
       <c r="F60" s="8"/>
@@ -9427,7 +9412,7 @@
       <c r="AF60" s="8"/>
       <c r="AH60" s="8"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
       <c r="D61" s="8"/>
       <c r="F61" s="8"/>
@@ -9446,7 +9431,7 @@
       <c r="AF61" s="8"/>
       <c r="AH61" s="8"/>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
       <c r="D62" s="8"/>
       <c r="F62" s="8"/>
@@ -9465,7 +9450,7 @@
       <c r="AF62" s="8"/>
       <c r="AH62" s="8"/>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
       <c r="D63" s="8"/>
       <c r="F63" s="8"/>
@@ -9484,7 +9469,7 @@
       <c r="AF63" s="8"/>
       <c r="AH63" s="8"/>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B64" s="8"/>
       <c r="D64" s="8"/>
       <c r="F64" s="8"/>
@@ -9503,7 +9488,7 @@
       <c r="AF64" s="8"/>
       <c r="AH64" s="8"/>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
       <c r="D65" s="8"/>
       <c r="F65" s="8"/>
@@ -9522,7 +9507,7 @@
       <c r="AF65" s="8"/>
       <c r="AH65" s="8"/>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
       <c r="D66" s="8"/>
       <c r="F66" s="8"/>
@@ -9541,7 +9526,7 @@
       <c r="AF66" s="8"/>
       <c r="AH66" s="8"/>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
       <c r="D67" s="8"/>
       <c r="F67" s="8"/>
@@ -9560,7 +9545,7 @@
       <c r="AF67" s="8"/>
       <c r="AH67" s="8"/>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
       <c r="D68" s="8"/>
       <c r="F68" s="8"/>
@@ -9579,7 +9564,7 @@
       <c r="AF68" s="8"/>
       <c r="AH68" s="8"/>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
       <c r="D69" s="8"/>
       <c r="F69" s="8"/>
@@ -9598,7 +9583,7 @@
       <c r="AF69" s="8"/>
       <c r="AH69" s="8"/>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
       <c r="D70" s="8"/>
       <c r="F70" s="8"/>
@@ -9617,7 +9602,7 @@
       <c r="AF70" s="8"/>
       <c r="AH70" s="8"/>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B71" s="8"/>
       <c r="D71" s="8"/>
       <c r="F71" s="8"/>
@@ -9636,7 +9621,7 @@
       <c r="AF71" s="8"/>
       <c r="AH71" s="8"/>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B72" s="8"/>
       <c r="D72" s="8"/>
       <c r="F72" s="8"/>
@@ -9655,7 +9640,7 @@
       <c r="AF72" s="8"/>
       <c r="AH72" s="8"/>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
       <c r="D73" s="8"/>
       <c r="F73" s="8"/>
@@ -9674,7 +9659,7 @@
       <c r="AF73" s="8"/>
       <c r="AH73" s="8"/>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
       <c r="D74" s="8"/>
       <c r="F74" s="8"/>
@@ -9693,7 +9678,7 @@
       <c r="AF74" s="8"/>
       <c r="AH74" s="8"/>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
       <c r="D75" s="8"/>
       <c r="F75" s="8"/>
@@ -9712,7 +9697,7 @@
       <c r="AF75" s="8"/>
       <c r="AH75" s="8"/>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B76" s="8"/>
       <c r="D76" s="8"/>
       <c r="F76" s="8"/>
@@ -9731,7 +9716,7 @@
       <c r="AF76" s="8"/>
       <c r="AH76" s="8"/>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
       <c r="F77" s="8"/>
@@ -9750,7 +9735,7 @@
       <c r="AF77" s="8"/>
       <c r="AH77" s="8"/>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
       <c r="F78" s="8"/>
@@ -9769,7 +9754,7 @@
       <c r="AF78" s="8"/>
       <c r="AH78" s="8"/>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
       <c r="D79" s="8"/>
       <c r="F79" s="8"/>
@@ -9788,7 +9773,7 @@
       <c r="AF79" s="8"/>
       <c r="AH79" s="8"/>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B80" s="8"/>
       <c r="D80" s="8"/>
       <c r="F80" s="8"/>
@@ -9807,7 +9792,7 @@
       <c r="AF80" s="8"/>
       <c r="AH80" s="8"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
       <c r="D81" s="8"/>
       <c r="F81" s="8"/>
@@ -9826,7 +9811,7 @@
       <c r="AF81" s="8"/>
       <c r="AH81" s="8"/>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B82" s="8"/>
       <c r="D82" s="8"/>
       <c r="F82" s="8"/>
@@ -9845,7 +9830,7 @@
       <c r="AF82" s="8"/>
       <c r="AH82" s="8"/>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
       <c r="D83" s="8"/>
       <c r="F83" s="8"/>
@@ -9864,7 +9849,7 @@
       <c r="AF83" s="8"/>
       <c r="AH83" s="8"/>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
       <c r="D84" s="8"/>
       <c r="F84" s="8"/>
@@ -9883,7 +9868,7 @@
       <c r="AF84" s="8"/>
       <c r="AH84" s="8"/>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
       <c r="D85" s="8"/>
       <c r="F85" s="8"/>
@@ -9902,7 +9887,7 @@
       <c r="AF85" s="8"/>
       <c r="AH85" s="8"/>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B86" s="8"/>
       <c r="D86" s="8"/>
       <c r="F86" s="8"/>
@@ -9921,7 +9906,7 @@
       <c r="AF86" s="8"/>
       <c r="AH86" s="8"/>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B87" s="8"/>
       <c r="D87" s="8"/>
       <c r="F87" s="8"/>
@@ -9940,7 +9925,7 @@
       <c r="AF87" s="8"/>
       <c r="AH87" s="8"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
       <c r="D88" s="8"/>
       <c r="F88" s="8"/>
@@ -9959,7 +9944,7 @@
       <c r="AF88" s="8"/>
       <c r="AH88" s="8"/>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B89" s="8"/>
       <c r="D89" s="8"/>
       <c r="F89" s="8"/>
@@ -9978,7 +9963,7 @@
       <c r="AF89" s="8"/>
       <c r="AH89" s="8"/>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
       <c r="D90" s="8"/>
       <c r="F90" s="8"/>
@@ -9997,7 +9982,7 @@
       <c r="AF90" s="8"/>
       <c r="AH90" s="8"/>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B91" s="8"/>
       <c r="D91" s="8"/>
       <c r="F91" s="8"/>
@@ -10016,7 +10001,7 @@
       <c r="AF91" s="8"/>
       <c r="AH91" s="8"/>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B92" s="8"/>
       <c r="D92" s="8"/>
       <c r="F92" s="8"/>
@@ -10035,7 +10020,7 @@
       <c r="AF92" s="8"/>
       <c r="AH92" s="8"/>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
       <c r="D93" s="8"/>
       <c r="F93" s="8"/>
@@ -10054,7 +10039,7 @@
       <c r="AF93" s="8"/>
       <c r="AH93" s="8"/>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
       <c r="D94" s="8"/>
       <c r="F94" s="8"/>
@@ -10073,7 +10058,7 @@
       <c r="AF94" s="8"/>
       <c r="AH94" s="8"/>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
       <c r="D95" s="8"/>
       <c r="F95" s="8"/>
@@ -10092,7 +10077,7 @@
       <c r="AF95" s="8"/>
       <c r="AH95" s="8"/>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B96" s="8"/>
       <c r="D96" s="8"/>
       <c r="F96" s="8"/>
@@ -10111,7 +10096,7 @@
       <c r="AF96" s="8"/>
       <c r="AH96" s="8"/>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B97" s="8"/>
       <c r="D97" s="8"/>
       <c r="F97" s="8"/>
@@ -10130,7 +10115,7 @@
       <c r="AF97" s="8"/>
       <c r="AH97" s="8"/>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B98" s="8"/>
       <c r="D98" s="8"/>
       <c r="F98" s="8"/>
@@ -10149,7 +10134,7 @@
       <c r="AF98" s="8"/>
       <c r="AH98" s="8"/>
     </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="F99" s="8"/>
@@ -10168,7 +10153,7 @@
       <c r="AF99" s="8"/>
       <c r="AH99" s="8"/>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B100" s="8"/>
       <c r="D100" s="8"/>
       <c r="F100" s="8"/>
@@ -10187,7 +10172,7 @@
       <c r="AF100" s="8"/>
       <c r="AH100" s="8"/>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B101" s="8"/>
       <c r="D101" s="8"/>
       <c r="F101" s="8"/>
@@ -10206,7 +10191,7 @@
       <c r="AF101" s="8"/>
       <c r="AH101" s="8"/>
     </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B102" s="8"/>
       <c r="D102" s="8"/>
       <c r="F102" s="8"/>
@@ -10225,7 +10210,7 @@
       <c r="AF102" s="8"/>
       <c r="AH102" s="8"/>
     </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B103" s="8"/>
       <c r="D103" s="8"/>
       <c r="F103" s="8"/>
@@ -10244,7 +10229,7 @@
       <c r="AF103" s="8"/>
       <c r="AH103" s="8"/>
     </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B104" s="8"/>
       <c r="D104" s="8"/>
       <c r="F104" s="8"/>
@@ -10263,7 +10248,7 @@
       <c r="AF104" s="8"/>
       <c r="AH104" s="8"/>
     </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B105" s="8"/>
       <c r="D105" s="8"/>
       <c r="F105" s="8"/>
@@ -10282,7 +10267,7 @@
       <c r="AF105" s="8"/>
       <c r="AH105" s="8"/>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B106" s="8"/>
       <c r="D106" s="8"/>
       <c r="F106" s="8"/>
@@ -10301,7 +10286,7 @@
       <c r="AF106" s="8"/>
       <c r="AH106" s="8"/>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B107" s="8"/>
       <c r="D107" s="8"/>
       <c r="F107" s="8"/>
@@ -10320,7 +10305,7 @@
       <c r="AF107" s="8"/>
       <c r="AH107" s="8"/>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B108" s="8"/>
       <c r="D108" s="8"/>
       <c r="F108" s="8"/>
@@ -10339,7 +10324,7 @@
       <c r="AF108" s="8"/>
       <c r="AH108" s="8"/>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B109" s="8"/>
       <c r="D109" s="8"/>
       <c r="F109" s="8"/>
@@ -10358,7 +10343,7 @@
       <c r="AF109" s="8"/>
       <c r="AH109" s="8"/>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B110" s="8"/>
       <c r="D110" s="8"/>
       <c r="F110" s="8"/>
@@ -10377,7 +10362,7 @@
       <c r="AF110" s="8"/>
       <c r="AH110" s="8"/>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B111" s="8"/>
       <c r="D111" s="8"/>
       <c r="F111" s="8"/>
@@ -10396,7 +10381,7 @@
       <c r="AF111" s="8"/>
       <c r="AH111" s="8"/>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B112" s="8"/>
       <c r="D112" s="8"/>
       <c r="F112" s="8"/>
@@ -10415,7 +10400,7 @@
       <c r="AF112" s="8"/>
       <c r="AH112" s="8"/>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B113" s="8"/>
       <c r="D113" s="8"/>
       <c r="F113" s="8"/>
@@ -10434,7 +10419,7 @@
       <c r="AF113" s="8"/>
       <c r="AH113" s="8"/>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B114" s="8"/>
       <c r="D114" s="8"/>
       <c r="F114" s="8"/>
@@ -10453,7 +10438,7 @@
       <c r="AF114" s="8"/>
       <c r="AH114" s="8"/>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B115" s="8"/>
       <c r="D115" s="8"/>
       <c r="F115" s="8"/>
@@ -10472,7 +10457,7 @@
       <c r="AF115" s="8"/>
       <c r="AH115" s="8"/>
     </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B116" s="8"/>
       <c r="D116" s="8"/>
       <c r="F116" s="8"/>
@@ -10502,32 +10487,33 @@
   <dimension ref="A2:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>134</v>
       </c>
@@ -10538,7 +10524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -10551,11 +10537,11 @@
         <v>888</v>
       </c>
       <c r="H5" s="9">
-        <v>1776</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -10568,28 +10554,28 @@
         <v>13</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="8">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H7" s="9">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -10606,7 +10592,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -10624,7 +10610,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -10639,14 +10625,10 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>3400</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -10661,14 +10643,10 @@
       <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>470</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -10680,17 +10658,13 @@
         <v>29</v>
       </c>
       <c r="H12" s="9">
-        <v>200</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1475.88</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -10702,21 +10676,17 @@
         <v>30</v>
       </c>
       <c r="H13" s="9">
-        <v>400</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1526.35</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -10728,15 +10698,13 @@
         <v>25</v>
       </c>
       <c r="H14" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>165</v>
-      </c>
+      <c r="J14" s="7"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -10749,56 +10717,55 @@
         <v>104.5</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="7"/>
       <c r="L15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E16" s="36"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="7">
-        <f>SUM(I10:I14)</f>
-        <v>6872.23</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H17" s="9"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="8">
         <f>SUM(B5:B17)</f>
-        <v>3374</v>
+        <v>3388</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
       </c>
       <c r="E18" s="29">
         <f>B45-B18</f>
-        <v>-84</v>
+        <v>-98</v>
       </c>
       <c r="H18" s="9"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H19" s="9"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>140</v>
       </c>
       <c r="H20" s="9"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -10813,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -10828,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
         <v>148</v>
       </c>
@@ -10843,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
         <v>149</v>
       </c>
@@ -10858,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>150</v>
       </c>
@@ -10873,16 +10840,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -10895,23 +10862,23 @@
       </c>
       <c r="E29" s="8">
         <f>(E18-B29)</f>
-        <v>-338</v>
+        <v>-352</v>
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="27" t="s">
         <v>141</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
         <v>142</v>
       </c>
@@ -10923,10 +10890,10 @@
         <v>200</v>
       </c>
       <c r="H33" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
         <v>143</v>
       </c>
@@ -10938,10 +10905,10 @@
         <v>30</v>
       </c>
       <c r="H34" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
         <v>98</v>
       </c>
@@ -10953,10 +10920,10 @@
         <v>30</v>
       </c>
       <c r="H35" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="33" t="s">
         <v>147</v>
       </c>
@@ -10971,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>151</v>
       </c>
@@ -10983,10 +10950,11 @@
         <v>25</v>
       </c>
       <c r="H37" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
         <v>152</v>
       </c>
@@ -10998,10 +10966,11 @@
         <v>10</v>
       </c>
       <c r="H38" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>157</v>
       </c>
@@ -11010,14 +10979,14 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
         <v>47</v>
       </c>
@@ -11026,16 +10995,15 @@
         <v>0</v>
       </c>
       <c r="H40" s="9">
-        <v>280</v>
-      </c>
-      <c r="I40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -11053,14 +11021,17 @@
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -11072,50 +11043,51 @@
         <v>1645</v>
       </c>
       <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>146</v>
       </c>
       <c r="B47" s="8">
         <f>SUM(B18,B29,B42)</f>
-        <v>4244</v>
+        <v>4258</v>
       </c>
       <c r="F47" s="9">
         <f>SUM(F5:F40)</f>
-        <v>1709.5</v>
+        <v>1716.5</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9">
         <f>SUM(H5:H40)</f>
-        <v>3259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A48" s="30" t="s">
         <v>145</v>
       </c>
       <c r="B48" s="31">
         <f>E29-B42</f>
-        <v>-954</v>
+        <v>-968</v>
       </c>
       <c r="C48" s="31"/>
       <c r="F48" s="9">
         <f>C45-F47</f>
-        <v>-64.5</v>
+        <v>-71.5</v>
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -11123,25 +11095,25 @@
         <v>62</v>
       </c>
       <c r="F51" s="12">
-        <v>3413</v>
+        <v>328</v>
       </c>
       <c r="H51" s="34">
         <f>F51-H47</f>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B52" s="32">
         <f>B18/B45</f>
-        <v>1.0255319148936171</v>
+        <v>1.0297872340425531</v>
       </c>
       <c r="C52" s="32"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="27" t="s">
         <v>140</v>
       </c>
@@ -11153,7 +11125,7 @@
       <c r="F53" s="12"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="27" t="s">
         <v>141</v>
       </c>
@@ -11165,78 +11137,78 @@
       <c r="F54" s="12"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="32">
         <f>B48/B45</f>
-        <v>-0.28996960486322187</v>
+        <v>-0.29422492401215805</v>
       </c>
       <c r="C55" s="32"/>
       <c r="F55" s="12"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F56" s="12"/>
       <c r="G56" s="7"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F57" s="12"/>
       <c r="G57" s="7"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F58" s="12"/>
       <c r="G58" s="7"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F59" s="12"/>
       <c r="G59" s="7"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F60" s="12"/>
       <c r="G60" s="7"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F61" s="12"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F64" s="12"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F65" s="12"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F66" s="12"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F67" s="12"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F68" s="12"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F69" s="12"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F70" s="12"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F72" s="12"/>
     </row>
   </sheetData>
@@ -11253,15 +11225,15 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42839</v>
       </c>
@@ -11269,7 +11241,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11280,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11291,7 +11263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11302,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -11313,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -11331,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11346,7 +11318,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -11361,7 +11333,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -11374,7 +11346,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -11387,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -11400,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11415,7 +11387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -11428,7 +11400,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -11437,13 +11409,13 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -11459,10 +11431,10 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -11476,10 +11448,10 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -11495,13 +11467,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>34</v>
       </c>
@@ -11509,13 +11481,13 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E25" s="9">
         <f>SUM(E7:E14)</f>
         <v>1096</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>35</v>
       </c>
@@ -11524,10 +11496,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>36</v>
       </c>
@@ -11535,7 +11507,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>37</v>
       </c>
@@ -11543,10 +11515,10 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>38</v>
       </c>
@@ -11554,7 +11526,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>39</v>
       </c>
@@ -11562,13 +11534,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E34" s="8">
         <f>SUM(E32:E33)</f>
         <v>1112</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>40</v>
       </c>
@@ -11577,10 +11549,10 @@
         <v>873</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>41</v>
       </c>
@@ -11588,10 +11560,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -11600,43 +11572,43 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" s="8"/>
     </row>
   </sheetData>
@@ -11651,15 +11623,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -11667,7 +11639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -11675,7 +11647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>90</v>
       </c>
@@ -11689,7 +11661,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22" t="s">
         <v>91</v>
       </c>
@@ -11703,7 +11675,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
         <v>92</v>
       </c>
@@ -11717,7 +11689,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
         <v>93</v>
       </c>
@@ -11725,7 +11697,7 @@
         <v>146.79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
         <v>26</v>
       </c>
@@ -11733,7 +11705,7 @@
         <v>72.709999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>47</v>
       </c>
@@ -11741,7 +11713,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>0</v>
       </c>
@@ -11749,7 +11721,7 @@
         <v>1035.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>94</v>
       </c>
@@ -11757,7 +11729,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>95</v>
       </c>
@@ -11766,7 +11738,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>96</v>
       </c>
@@ -11775,7 +11747,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>55</v>
       </c>
@@ -11784,7 +11756,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
         <v>94</v>
       </c>
@@ -11793,7 +11765,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>26</v>
       </c>
@@ -11802,7 +11774,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>97</v>
       </c>
@@ -11811,7 +11783,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>94</v>
       </c>
@@ -11820,7 +11792,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>99</v>
       </c>
@@ -11828,7 +11800,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>94</v>
       </c>
@@ -11836,7 +11808,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
         <v>100</v>
       </c>
@@ -11844,7 +11816,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
         <v>101</v>
       </c>
@@ -11852,7 +11824,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23" t="s">
         <v>102</v>
       </c>
@@ -11860,7 +11832,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="22" t="s">
         <v>98</v>
       </c>
@@ -11868,7 +11840,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="22" t="s">
         <v>103</v>
       </c>
@@ -11876,7 +11848,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="22" t="s">
         <v>98</v>
       </c>
@@ -11884,7 +11856,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>104</v>
       </c>
@@ -11892,7 +11864,7 @@
         <v>70.16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -11900,7 +11872,7 @@
         <v>97.17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
@@ -11908,7 +11880,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
         <v>94</v>
       </c>
@@ -11916,7 +11888,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>130</v>
       </c>
@@ -11924,7 +11896,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
         <v>129</v>
       </c>
@@ -11932,7 +11904,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23" t="s">
         <v>128</v>
       </c>
@@ -11940,7 +11912,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="22" t="s">
         <v>127</v>
       </c>
@@ -11948,7 +11920,7 @@
         <v>26.71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
         <v>114</v>
       </c>
@@ -11956,7 +11928,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>94</v>
       </c>
@@ -11964,7 +11936,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
         <v>94</v>
       </c>
@@ -11972,7 +11944,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
         <v>126</v>
       </c>
@@ -11980,7 +11952,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
         <v>94</v>
       </c>
@@ -11988,7 +11960,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="21" t="s">
         <v>125</v>
       </c>
@@ -11996,7 +11968,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="22" t="s">
         <v>124</v>
       </c>
@@ -12004,7 +11976,7 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
         <v>47</v>
       </c>
@@ -12012,7 +11984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
         <v>94</v>
       </c>
@@ -12020,7 +11992,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
         <v>105</v>
       </c>
@@ -12028,7 +12000,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
         <v>94</v>
       </c>
@@ -12036,7 +12008,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="23" t="s">
         <v>123</v>
       </c>
@@ -12044,7 +12016,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="22" t="s">
         <v>98</v>
       </c>
@@ -12052,7 +12024,7 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
         <v>122</v>
       </c>
@@ -12060,7 +12032,7 @@
         <v>26.27</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>121</v>
       </c>
@@ -12068,7 +12040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
         <v>104</v>
       </c>
@@ -12076,7 +12048,7 @@
         <v>80.33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="21" t="s">
         <v>106</v>
       </c>
@@ -12084,7 +12056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="22" t="s">
         <v>120</v>
       </c>
@@ -12092,7 +12064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
         <v>105</v>
       </c>
@@ -12100,7 +12072,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
         <v>16</v>
       </c>
@@ -12108,7 +12080,7 @@
         <v>63.59</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="21" t="s">
         <v>30</v>
       </c>
@@ -12116,7 +12088,7 @@
         <v>244.42</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="22" t="s">
         <v>119</v>
       </c>
@@ -12124,7 +12096,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="22" t="s">
         <v>92</v>
       </c>
@@ -12132,7 +12104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
         <v>118</v>
       </c>
@@ -12140,7 +12112,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="23" t="s">
         <v>117</v>
       </c>
@@ -12148,7 +12120,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22" t="s">
         <v>116</v>
       </c>
@@ -12156,7 +12128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
         <v>107</v>
       </c>
@@ -12164,7 +12136,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
         <v>108</v>
       </c>
@@ -12172,7 +12144,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="21" t="s">
         <v>115</v>
       </c>
@@ -12180,7 +12152,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="23" t="s">
         <v>114</v>
       </c>
@@ -12188,7 +12160,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="22" t="s">
         <v>92</v>
       </c>
@@ -12196,7 +12168,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A65" s="21" t="s">
         <v>2</v>
       </c>
@@ -12204,7 +12176,7 @@
         <v>164.84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
         <v>94</v>
       </c>
@@ -12212,7 +12184,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="23" t="s">
         <v>94</v>
       </c>
@@ -12220,7 +12192,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="22" t="s">
         <v>113</v>
       </c>
@@ -12228,7 +12200,7 @@
         <v>35.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
         <v>112</v>
       </c>
@@ -12236,7 +12208,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
         <v>94</v>
       </c>
@@ -12244,7 +12216,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
         <v>102</v>
       </c>
@@ -12252,7 +12224,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
         <v>105</v>
       </c>
@@ -12260,7 +12232,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="23" t="s">
         <v>94</v>
       </c>
@@ -12268,7 +12240,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="22" t="s">
         <v>111</v>
       </c>
@@ -12276,7 +12248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
         <v>104</v>
       </c>
@@ -12284,7 +12256,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="23" t="s">
         <v>94</v>
       </c>
@@ -12292,7 +12264,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="22" t="s">
         <v>110</v>
       </c>
@@ -12300,7 +12272,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="22" t="s">
         <v>109</v>
       </c>
@@ -12308,7 +12280,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A79" s="20" t="s">
         <v>47</v>
       </c>
@@ -12330,14 +12302,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -12348,7 +12320,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43156</v>
       </c>
@@ -12359,7 +12331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43542</v>
       </c>
@@ -12370,7 +12342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43599</v>
       </c>
@@ -12381,7 +12353,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43606</v>
       </c>
@@ -12392,7 +12364,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43609</v>
       </c>
@@ -12403,7 +12375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43630</v>
       </c>
@@ -12414,16 +12386,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -12432,7 +12404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -12440,7 +12412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12468,22 +12440,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42867</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12494,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12505,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12516,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12527,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12546,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12562,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12574,7 +12546,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12588,7 +12560,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12600,7 +12572,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12616,7 +12588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12630,7 +12602,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12639,13 +12611,13 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -12661,10 +12633,10 @@
         <v>883</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12679,10 +12651,10 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -12695,12 +12667,12 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -12708,7 +12680,7 @@
         <v>1136.5899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -12717,7 +12689,7 @@
         <v>544.56999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -12726,7 +12698,7 @@
         <v>592.02</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -12734,7 +12706,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -12746,7 +12718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <v>345</v>
       </c>
@@ -12765,20 +12737,20 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42881</v>
       </c>
@@ -12789,7 +12761,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12806,7 +12778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12823,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12840,7 +12812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12857,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12879,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12899,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12919,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12939,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12959,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12982,7 +12954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13000,7 +12972,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13015,15 +12987,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13046,11 +13018,11 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13073,11 +13045,11 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13100,7 +13072,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13117,17 +13089,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42923</v>
       </c>
@@ -13135,7 +13107,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13149,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13163,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13177,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13191,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13207,7 +13179,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13223,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13239,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13255,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13271,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13287,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13303,7 +13275,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13315,13 +13287,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13337,10 +13309,10 @@
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13354,10 +13326,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13373,7 +13345,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13390,17 +13362,17 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42951</v>
       </c>
@@ -13408,7 +13380,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13422,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13436,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13450,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13464,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13482,7 +13454,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13498,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13514,7 +13486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13530,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13546,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13562,7 +13534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13578,7 +13550,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13590,13 +13562,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13612,10 +13584,10 @@
         <v>1132.57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13629,10 +13601,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13648,7 +13620,7 @@
         <v>206.43000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13665,20 +13637,20 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="10"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="10"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>42979</v>
       </c>
@@ -13690,7 +13662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13708,7 +13680,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13726,7 +13698,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13744,7 +13716,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13762,7 +13734,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13784,7 +13756,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13802,7 +13774,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13820,7 +13792,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13838,7 +13810,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13856,7 +13828,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13874,7 +13846,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13894,7 +13866,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13910,15 +13882,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13935,11 +13907,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13954,11 +13926,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13975,7 +13947,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -13983,7 +13955,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -13992,7 +13964,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -14001,7 +13973,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -14018,18 +13990,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43007</v>
       </c>
@@ -14038,7 +14010,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14056,7 +14028,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14071,7 +14043,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14089,7 +14061,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -14107,7 +14079,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14130,7 +14102,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14148,7 +14120,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14166,7 +14138,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14187,7 +14159,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14205,7 +14177,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -14223,7 +14195,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -14239,15 +14211,15 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -14264,11 +14236,11 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -14283,11 +14255,11 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14304,7 +14276,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C31" s="6"/>
     </row>
   </sheetData>
@@ -14321,18 +14293,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>43035</v>
       </c>
@@ -14341,7 +14313,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14356,7 +14328,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14371,7 +14343,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14386,7 +14358,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -14401,7 +14373,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14421,7 +14393,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14439,7 +14411,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14457,7 +14429,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14475,7 +14447,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14493,7 +14465,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -14511,7 +14483,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -14529,7 +14501,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -14542,15 +14514,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -14567,11 +14539,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -14586,11 +14558,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14607,7 +14579,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
     </row>
   </sheetData>

--- a/bill-pay-checklist_Reichhard.excel.xlsx
+++ b/bill-pay-checklist_Reichhard.excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rreichhard\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449F6CB2-C675-43AA-8E1B-DD2F09F180A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD87B81D-1C07-41FF-8BBA-C454FC69FAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="March 2017" sheetId="1" state="hidden" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="162">
   <si>
     <t>Rent</t>
   </si>
@@ -607,6 +607,9 @@
   </si>
   <si>
     <t>Open Sky CC</t>
+  </si>
+  <si>
+    <t>$2436 (+$400 from Chelsea)</t>
   </si>
 </sst>
 </file>
@@ -1149,16 +1152,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>42811</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1394,7 +1397,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1421,7 +1424,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1442,7 +1445,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -1469,7 +1472,7 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1490,7 +1493,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1511,7 +1514,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1532,7 +1535,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1553,7 +1556,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1574,7 +1577,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1595,7 +1598,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1616,7 +1619,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1637,7 +1640,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1658,7 +1661,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1679,7 +1682,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1700,7 +1703,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1721,7 +1724,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1742,7 +1745,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1763,7 +1766,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1784,7 +1787,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1819,18 +1822,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43063</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2053,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2065,15 +2068,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2096,11 +2099,11 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2120,11 +2123,11 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -2164,18 +2167,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43105</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2410,15 +2413,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2441,11 +2444,11 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2465,11 +2468,11 @@
         <v>1280.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>255.20000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>1834.34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>1389.3400000000001</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="6"/>
     </row>
   </sheetData>
@@ -2543,18 +2546,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43133</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2757,7 @@
         <v>1003.84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2769,15 +2772,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2800,11 +2803,11 @@
         <v>1525.8400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2824,11 +2827,11 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>-206.84000000000015</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -2869,18 +2872,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43175</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -3133,15 +3136,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3164,11 +3167,11 @@
         <v>1415.57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3188,11 +3191,11 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3215,12 +3218,12 @@
         <v>-73.569999999999936</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3238,20 +3241,20 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43203</v>
       </c>
@@ -3264,7 +3267,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3305,7 +3308,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>1129.57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3407,7 +3410,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3428,7 +3431,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3496,15 +3499,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3530,11 +3533,11 @@
         <v>2109.21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3557,11 +3560,11 @@
         <v>1619.57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>489.6400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
     </row>
   </sheetData>
@@ -3605,17 +3608,17 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43231</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3638,7 +3641,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3650,7 +3653,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3662,7 +3665,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3674,7 +3677,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3696,7 +3699,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3760,15 +3763,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3787,11 +3790,11 @@
         <v>338.29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3805,11 +3808,11 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
       <c r="G21" t="s">
         <v>70</v>
@@ -3838,13 +3841,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" s="8"/>
       <c r="G24" t="s">
         <v>28</v>
@@ -3854,262 +3857,262 @@
         <v>309.28999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="8"/>
     </row>
   </sheetData>
@@ -4126,16 +4129,16 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43259</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4351,7 +4354,7 @@
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4426,7 +4429,7 @@
       <c r="I14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4435,7 +4438,7 @@
       <c r="I15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4471,7 +4474,7 @@
       <c r="I17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4502,7 +4505,7 @@
       <c r="I19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4529,7 +4532,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4538,7 +4541,7 @@
       <c r="I21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4549,7 +4552,7 @@
       <c r="I22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4565,7 +4568,7 @@
       <c r="I23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4574,7 +4577,7 @@
       <c r="I24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
@@ -4587,7 +4590,7 @@
       <c r="I25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4596,7 +4599,7 @@
       <c r="I26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
@@ -4610,7 +4613,7 @@
       <c r="I27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4619,7 +4622,7 @@
       <c r="I28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4628,7 +4631,7 @@
       <c r="I29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
@@ -4642,7 +4645,7 @@
       <c r="I30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -4651,7 +4654,7 @@
       <c r="I31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
@@ -4664,7 +4667,7 @@
       <c r="I32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -4673,7 +4676,7 @@
       <c r="I33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -4682,7 +4685,7 @@
       <c r="I34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -4691,451 +4694,451 @@
       <c r="I35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="G36" s="8"/>
       <c r="I36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="G37" s="8"/>
       <c r="I37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
       <c r="I38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
       <c r="I39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
       <c r="I40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
       <c r="I41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
       <c r="I42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
       <c r="I43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
       <c r="I44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
       <c r="I45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
       <c r="I46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
       <c r="I47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
       <c r="I48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
       <c r="I49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
       <c r="I50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
       <c r="I51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
       <c r="I52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
       <c r="I53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
       <c r="I54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
       <c r="I55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
       <c r="I56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
       <c r="I57" s="8"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
       <c r="I58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
       <c r="I59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
       <c r="I60" s="8"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
       <c r="I61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
       <c r="I62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
       <c r="I63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
       <c r="I64" s="8"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
       <c r="I65" s="8"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
       <c r="I66" s="8"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
       <c r="I67" s="8"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
       <c r="I68" s="8"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
       <c r="I69" s="8"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
       <c r="I70" s="8"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
       <c r="I71" s="8"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
       <c r="I72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
       <c r="I73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
       <c r="I74" s="8"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
       <c r="I75" s="8"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
       <c r="I76" s="8"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
       <c r="I77" s="8"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
       <c r="I78" s="8"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
       <c r="I79" s="8"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
       <c r="I80" s="8"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
       <c r="I81" s="8"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
       <c r="I82" s="8"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
       <c r="I83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
       <c r="I84" s="8"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
       <c r="I85" s="8"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
       <c r="I86" s="8"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
       <c r="I87" s="8"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
       <c r="I88" s="8"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
       <c r="I89" s="8"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
       <c r="I90" s="8"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
       <c r="I91" s="8"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
       <c r="I92" s="8"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
       <c r="I93" s="8"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
       <c r="I94" s="8"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
       <c r="I95" s="8"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
       <c r="I96" s="8"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
       <c r="I97" s="8"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
       <c r="I98" s="8"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
       <c r="I99" s="8"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
       <c r="I100" s="8"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
       <c r="I101" s="8"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
       <c r="I102" s="8"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
       <c r="I103" s="8"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
       <c r="I104" s="8"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
       <c r="I105" s="8"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
       <c r="I106" s="8"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
       <c r="I107" s="8"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
       <c r="I108" s="8"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
       <c r="I109" s="8"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
       <c r="I110" s="8"/>
@@ -5155,21 +5158,21 @@
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="17" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43343</v>
@@ -5205,7 +5208,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5243,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5281,7 +5284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -5357,7 +5360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -5395,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5471,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5625,7 +5628,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -5653,7 +5656,7 @@
       <c r="W13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="E14" s="12"/>
       <c r="G14" s="12"/>
@@ -5670,7 +5673,7 @@
       <c r="W14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5717,7 +5720,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="E16" s="12"/>
       <c r="G16" s="12"/>
@@ -5734,7 +5737,7 @@
       <c r="W16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="E18" s="12"/>
       <c r="G18" s="12"/>
@@ -5790,7 +5793,7 @@
       <c r="W18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -5818,7 +5821,7 @@
       <c r="W19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="E20" s="12"/>
       <c r="G20" s="12"/>
@@ -5835,7 +5838,7 @@
       <c r="W20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
@@ -5904,7 +5907,7 @@
       <c r="W22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="E23" s="12"/>
       <c r="G23" s="12"/>
@@ -5921,7 +5924,7 @@
       <c r="W23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5953,7 +5956,7 @@
       <c r="W24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
@@ -5970,7 +5973,7 @@
       <c r="W25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>-775</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="E27" s="12"/>
       <c r="G27" s="12"/>
@@ -6033,7 +6036,7 @@
       <c r="W27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="E28" s="12"/>
       <c r="G28" s="12"/>
@@ -6050,7 +6053,7 @@
       <c r="W28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -6070,31 +6073,31 @@
       <c r="W29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="E36" s="12"/>
       <c r="G36" s="12"/>
@@ -6111,7 +6114,7 @@
       <c r="W36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="E37" s="12"/>
       <c r="G37" s="12"/>
@@ -6128,7 +6131,7 @@
       <c r="W37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="E38" s="12"/>
       <c r="G38" s="12"/>
@@ -6145,7 +6148,7 @@
       <c r="W38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
@@ -6162,7 +6165,7 @@
       <c r="W39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
@@ -6179,7 +6182,7 @@
       <c r="W40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
@@ -6196,7 +6199,7 @@
       <c r="W41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
@@ -6213,7 +6216,7 @@
       <c r="W42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
@@ -6230,7 +6233,7 @@
       <c r="W43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
@@ -6247,7 +6250,7 @@
       <c r="W44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
@@ -6264,7 +6267,7 @@
       <c r="W45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
@@ -6281,7 +6284,7 @@
       <c r="W46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
@@ -6298,7 +6301,7 @@
       <c r="W47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
@@ -6315,7 +6318,7 @@
       <c r="W48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
@@ -6332,7 +6335,7 @@
       <c r="W49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
@@ -6349,7 +6352,7 @@
       <c r="W50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
@@ -6366,7 +6369,7 @@
       <c r="W51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
@@ -6383,7 +6386,7 @@
       <c r="W52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
@@ -6400,7 +6403,7 @@
       <c r="W53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
@@ -6417,7 +6420,7 @@
       <c r="W54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
@@ -6434,7 +6437,7 @@
       <c r="W55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
@@ -6451,7 +6454,7 @@
       <c r="W56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
@@ -6468,7 +6471,7 @@
       <c r="W57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
@@ -6485,7 +6488,7 @@
       <c r="W58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
@@ -6502,7 +6505,7 @@
       <c r="W59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
@@ -6519,7 +6522,7 @@
       <c r="W60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
@@ -6536,7 +6539,7 @@
       <c r="W61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
@@ -6553,7 +6556,7 @@
       <c r="W62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
@@ -6570,7 +6573,7 @@
       <c r="W63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
@@ -6587,7 +6590,7 @@
       <c r="W64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
@@ -6604,7 +6607,7 @@
       <c r="W65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
@@ -6621,7 +6624,7 @@
       <c r="W66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
@@ -6638,7 +6641,7 @@
       <c r="W67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
@@ -6655,7 +6658,7 @@
       <c r="W68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
@@ -6672,7 +6675,7 @@
       <c r="W69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
@@ -6689,7 +6692,7 @@
       <c r="W70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
@@ -6706,7 +6709,7 @@
       <c r="W71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
@@ -6723,7 +6726,7 @@
       <c r="W72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
@@ -6740,7 +6743,7 @@
       <c r="W73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
@@ -6757,7 +6760,7 @@
       <c r="W74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
@@ -6774,7 +6777,7 @@
       <c r="W75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
@@ -6791,7 +6794,7 @@
       <c r="W76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
@@ -6808,7 +6811,7 @@
       <c r="W77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
@@ -6825,7 +6828,7 @@
       <c r="W78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
@@ -6842,7 +6845,7 @@
       <c r="W79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
@@ -6859,7 +6862,7 @@
       <c r="W80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
@@ -6876,7 +6879,7 @@
       <c r="W81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
@@ -6893,7 +6896,7 @@
       <c r="W82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
@@ -6910,7 +6913,7 @@
       <c r="W83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
@@ -6927,7 +6930,7 @@
       <c r="W84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
@@ -6944,7 +6947,7 @@
       <c r="W85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
@@ -6961,7 +6964,7 @@
       <c r="W86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
@@ -6978,7 +6981,7 @@
       <c r="W87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
@@ -6995,7 +6998,7 @@
       <c r="W88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
@@ -7012,7 +7015,7 @@
       <c r="W89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
@@ -7029,7 +7032,7 @@
       <c r="W90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
@@ -7046,7 +7049,7 @@
       <c r="W91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
@@ -7063,7 +7066,7 @@
       <c r="W92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
@@ -7080,7 +7083,7 @@
       <c r="W93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
@@ -7097,7 +7100,7 @@
       <c r="W94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
@@ -7114,7 +7117,7 @@
       <c r="W95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
@@ -7131,7 +7134,7 @@
       <c r="W96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
@@ -7148,7 +7151,7 @@
       <c r="W97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
@@ -7165,7 +7168,7 @@
       <c r="W98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
@@ -7182,7 +7185,7 @@
       <c r="W99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
@@ -7199,7 +7202,7 @@
       <c r="W100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
@@ -7216,7 +7219,7 @@
       <c r="W101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
@@ -7233,7 +7236,7 @@
       <c r="W102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
@@ -7250,7 +7253,7 @@
       <c r="W103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
@@ -7267,7 +7270,7 @@
       <c r="W104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
@@ -7284,7 +7287,7 @@
       <c r="W105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
@@ -7301,7 +7304,7 @@
       <c r="W106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
@@ -7318,7 +7321,7 @@
       <c r="W107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
@@ -7335,7 +7338,7 @@
       <c r="W108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
@@ -7352,7 +7355,7 @@
       <c r="W109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
@@ -7369,7 +7372,7 @@
       <c r="W110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="E111" s="8"/>
       <c r="G111" s="8"/>
@@ -7386,7 +7389,7 @@
       <c r="W111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="E112" s="8"/>
       <c r="G112" s="8"/>
@@ -7403,7 +7406,7 @@
       <c r="W112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="E113" s="8"/>
       <c r="G113" s="8"/>
@@ -7434,43 +7437,43 @@
       <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>43455</v>
@@ -7530,7 +7533,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7654,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -7902,7 +7905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -7964,7 +7967,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8026,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8150,7 +8153,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -8336,7 +8339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="D15" s="12"/>
       <c r="F15" s="12"/>
@@ -8357,7 +8360,7 @@
       <c r="AJ15" s="12"/>
       <c r="AL15" s="12"/>
     </row>
-    <row r="16" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="D16" s="19"/>
       <c r="F16" s="19"/>
@@ -8378,7 +8381,7 @@
       <c r="AJ16" s="19"/>
       <c r="AL16" s="19"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="D17" s="12"/>
       <c r="F17" s="12"/>
@@ -8399,7 +8402,7 @@
       <c r="AJ17" s="12"/>
       <c r="AL17" s="12"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8480,7 +8483,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="F19" s="12"/>
@@ -8501,7 +8504,7 @@
       <c r="AJ19" s="12"/>
       <c r="AL19" s="12"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8563,7 +8566,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
       <c r="F21" s="12"/>
@@ -8584,7 +8587,7 @@
       <c r="AJ21" s="12"/>
       <c r="AL21" s="12"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -8612,7 +8615,7 @@
       <c r="AJ22" s="12"/>
       <c r="AL22" s="12"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
       <c r="F23" s="12"/>
@@ -8633,7 +8636,7 @@
       <c r="AJ23" s="12"/>
       <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="D25" s="12"/>
       <c r="F25" s="12"/>
@@ -8735,7 +8738,7 @@
       <c r="AJ25" s="12"/>
       <c r="AL25" s="12"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="D26" s="12"/>
       <c r="F26" s="12"/>
@@ -8756,7 +8759,7 @@
       <c r="AJ26" s="12"/>
       <c r="AL26" s="12"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -8810,7 +8813,7 @@
       <c r="AJ27" s="12"/>
       <c r="AL27" s="12"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
       <c r="F28" s="12"/>
@@ -8831,7 +8834,7 @@
       <c r="AJ28" s="12"/>
       <c r="AL28" s="12"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>-1447</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
       <c r="F30" s="12"/>
@@ -8931,7 +8934,7 @@
       <c r="AF30" s="12"/>
       <c r="AH30" s="12"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
       <c r="F31" s="12"/>
@@ -8950,7 +8953,7 @@
       <c r="AF31" s="12"/>
       <c r="AH31" s="12"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -8972,29 +8975,29 @@
       <c r="AF32" s="12"/>
       <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="V33" s="8">
         <v>2250.19</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
       <c r="F39" s="12"/>
@@ -9013,7 +9016,7 @@
       <c r="AF39" s="12"/>
       <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="D40" s="12"/>
       <c r="F40" s="12"/>
@@ -9032,7 +9035,7 @@
       <c r="AF40" s="12"/>
       <c r="AH40" s="12"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="D41" s="12"/>
       <c r="F41" s="12"/>
@@ -9051,7 +9054,7 @@
       <c r="AF41" s="12"/>
       <c r="AH41" s="12"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="D42" s="8"/>
       <c r="F42" s="8"/>
@@ -9070,7 +9073,7 @@
       <c r="AF42" s="8"/>
       <c r="AH42" s="8"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="D43" s="8"/>
       <c r="F43" s="8"/>
@@ -9089,7 +9092,7 @@
       <c r="AF43" s="8"/>
       <c r="AH43" s="8"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="D44" s="8"/>
       <c r="F44" s="8"/>
@@ -9108,7 +9111,7 @@
       <c r="AF44" s="8"/>
       <c r="AH44" s="8"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="D45" s="8"/>
       <c r="F45" s="8"/>
@@ -9127,7 +9130,7 @@
       <c r="AF45" s="8"/>
       <c r="AH45" s="8"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="D46" s="8"/>
       <c r="F46" s="8"/>
@@ -9146,7 +9149,7 @@
       <c r="AF46" s="8"/>
       <c r="AH46" s="8"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="D47" s="8"/>
       <c r="F47" s="8"/>
@@ -9165,7 +9168,7 @@
       <c r="AF47" s="8"/>
       <c r="AH47" s="8"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="D48" s="8"/>
       <c r="F48" s="8"/>
@@ -9184,7 +9187,7 @@
       <c r="AF48" s="8"/>
       <c r="AH48" s="8"/>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="D49" s="8"/>
       <c r="F49" s="8"/>
@@ -9203,7 +9206,7 @@
       <c r="AF49" s="8"/>
       <c r="AH49" s="8"/>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="D50" s="8"/>
       <c r="F50" s="8"/>
@@ -9222,7 +9225,7 @@
       <c r="AF50" s="8"/>
       <c r="AH50" s="8"/>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="D51" s="8"/>
       <c r="F51" s="8"/>
@@ -9241,7 +9244,7 @@
       <c r="AF51" s="8"/>
       <c r="AH51" s="8"/>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="D52" s="8"/>
       <c r="F52" s="8"/>
@@ -9260,7 +9263,7 @@
       <c r="AF52" s="8"/>
       <c r="AH52" s="8"/>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="8"/>
@@ -9279,7 +9282,7 @@
       <c r="AF53" s="8"/>
       <c r="AH53" s="8"/>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="D54" s="8"/>
       <c r="F54" s="8"/>
@@ -9298,7 +9301,7 @@
       <c r="AF54" s="8"/>
       <c r="AH54" s="8"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="D55" s="8"/>
       <c r="F55" s="8"/>
@@ -9317,7 +9320,7 @@
       <c r="AF55" s="8"/>
       <c r="AH55" s="8"/>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="D56" s="8"/>
       <c r="F56" s="8"/>
@@ -9336,7 +9339,7 @@
       <c r="AF56" s="8"/>
       <c r="AH56" s="8"/>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="D57" s="8"/>
       <c r="F57" s="8"/>
@@ -9355,7 +9358,7 @@
       <c r="AF57" s="8"/>
       <c r="AH57" s="8"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="D58" s="8"/>
       <c r="F58" s="8"/>
@@ -9374,7 +9377,7 @@
       <c r="AF58" s="8"/>
       <c r="AH58" s="8"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="D59" s="8"/>
       <c r="F59" s="8"/>
@@ -9393,7 +9396,7 @@
       <c r="AF59" s="8"/>
       <c r="AH59" s="8"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="D60" s="8"/>
       <c r="F60" s="8"/>
@@ -9412,7 +9415,7 @@
       <c r="AF60" s="8"/>
       <c r="AH60" s="8"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="D61" s="8"/>
       <c r="F61" s="8"/>
@@ -9431,7 +9434,7 @@
       <c r="AF61" s="8"/>
       <c r="AH61" s="8"/>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="D62" s="8"/>
       <c r="F62" s="8"/>
@@ -9450,7 +9453,7 @@
       <c r="AF62" s="8"/>
       <c r="AH62" s="8"/>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="D63" s="8"/>
       <c r="F63" s="8"/>
@@ -9469,7 +9472,7 @@
       <c r="AF63" s="8"/>
       <c r="AH63" s="8"/>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="D64" s="8"/>
       <c r="F64" s="8"/>
@@ -9488,7 +9491,7 @@
       <c r="AF64" s="8"/>
       <c r="AH64" s="8"/>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="D65" s="8"/>
       <c r="F65" s="8"/>
@@ -9507,7 +9510,7 @@
       <c r="AF65" s="8"/>
       <c r="AH65" s="8"/>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="D66" s="8"/>
       <c r="F66" s="8"/>
@@ -9526,7 +9529,7 @@
       <c r="AF66" s="8"/>
       <c r="AH66" s="8"/>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="D67" s="8"/>
       <c r="F67" s="8"/>
@@ -9545,7 +9548,7 @@
       <c r="AF67" s="8"/>
       <c r="AH67" s="8"/>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="D68" s="8"/>
       <c r="F68" s="8"/>
@@ -9564,7 +9567,7 @@
       <c r="AF68" s="8"/>
       <c r="AH68" s="8"/>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="D69" s="8"/>
       <c r="F69" s="8"/>
@@ -9583,7 +9586,7 @@
       <c r="AF69" s="8"/>
       <c r="AH69" s="8"/>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="D70" s="8"/>
       <c r="F70" s="8"/>
@@ -9602,7 +9605,7 @@
       <c r="AF70" s="8"/>
       <c r="AH70" s="8"/>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="D71" s="8"/>
       <c r="F71" s="8"/>
@@ -9621,7 +9624,7 @@
       <c r="AF71" s="8"/>
       <c r="AH71" s="8"/>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="D72" s="8"/>
       <c r="F72" s="8"/>
@@ -9640,7 +9643,7 @@
       <c r="AF72" s="8"/>
       <c r="AH72" s="8"/>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="D73" s="8"/>
       <c r="F73" s="8"/>
@@ -9659,7 +9662,7 @@
       <c r="AF73" s="8"/>
       <c r="AH73" s="8"/>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="D74" s="8"/>
       <c r="F74" s="8"/>
@@ -9678,7 +9681,7 @@
       <c r="AF74" s="8"/>
       <c r="AH74" s="8"/>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="D75" s="8"/>
       <c r="F75" s="8"/>
@@ -9697,7 +9700,7 @@
       <c r="AF75" s="8"/>
       <c r="AH75" s="8"/>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="D76" s="8"/>
       <c r="F76" s="8"/>
@@ -9716,7 +9719,7 @@
       <c r="AF76" s="8"/>
       <c r="AH76" s="8"/>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
       <c r="F77" s="8"/>
@@ -9735,7 +9738,7 @@
       <c r="AF77" s="8"/>
       <c r="AH77" s="8"/>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
       <c r="F78" s="8"/>
@@ -9754,7 +9757,7 @@
       <c r="AF78" s="8"/>
       <c r="AH78" s="8"/>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="D79" s="8"/>
       <c r="F79" s="8"/>
@@ -9773,7 +9776,7 @@
       <c r="AF79" s="8"/>
       <c r="AH79" s="8"/>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="D80" s="8"/>
       <c r="F80" s="8"/>
@@ -9792,7 +9795,7 @@
       <c r="AF80" s="8"/>
       <c r="AH80" s="8"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="D81" s="8"/>
       <c r="F81" s="8"/>
@@ -9811,7 +9814,7 @@
       <c r="AF81" s="8"/>
       <c r="AH81" s="8"/>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="D82" s="8"/>
       <c r="F82" s="8"/>
@@ -9830,7 +9833,7 @@
       <c r="AF82" s="8"/>
       <c r="AH82" s="8"/>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="D83" s="8"/>
       <c r="F83" s="8"/>
@@ -9849,7 +9852,7 @@
       <c r="AF83" s="8"/>
       <c r="AH83" s="8"/>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="D84" s="8"/>
       <c r="F84" s="8"/>
@@ -9868,7 +9871,7 @@
       <c r="AF84" s="8"/>
       <c r="AH84" s="8"/>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="D85" s="8"/>
       <c r="F85" s="8"/>
@@ -9887,7 +9890,7 @@
       <c r="AF85" s="8"/>
       <c r="AH85" s="8"/>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="D86" s="8"/>
       <c r="F86" s="8"/>
@@ -9906,7 +9909,7 @@
       <c r="AF86" s="8"/>
       <c r="AH86" s="8"/>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="D87" s="8"/>
       <c r="F87" s="8"/>
@@ -9925,7 +9928,7 @@
       <c r="AF87" s="8"/>
       <c r="AH87" s="8"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="D88" s="8"/>
       <c r="F88" s="8"/>
@@ -9944,7 +9947,7 @@
       <c r="AF88" s="8"/>
       <c r="AH88" s="8"/>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="D89" s="8"/>
       <c r="F89" s="8"/>
@@ -9963,7 +9966,7 @@
       <c r="AF89" s="8"/>
       <c r="AH89" s="8"/>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="D90" s="8"/>
       <c r="F90" s="8"/>
@@ -9982,7 +9985,7 @@
       <c r="AF90" s="8"/>
       <c r="AH90" s="8"/>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="D91" s="8"/>
       <c r="F91" s="8"/>
@@ -10001,7 +10004,7 @@
       <c r="AF91" s="8"/>
       <c r="AH91" s="8"/>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="D92" s="8"/>
       <c r="F92" s="8"/>
@@ -10020,7 +10023,7 @@
       <c r="AF92" s="8"/>
       <c r="AH92" s="8"/>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="D93" s="8"/>
       <c r="F93" s="8"/>
@@ -10039,7 +10042,7 @@
       <c r="AF93" s="8"/>
       <c r="AH93" s="8"/>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="D94" s="8"/>
       <c r="F94" s="8"/>
@@ -10058,7 +10061,7 @@
       <c r="AF94" s="8"/>
       <c r="AH94" s="8"/>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="D95" s="8"/>
       <c r="F95" s="8"/>
@@ -10077,7 +10080,7 @@
       <c r="AF95" s="8"/>
       <c r="AH95" s="8"/>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="D96" s="8"/>
       <c r="F96" s="8"/>
@@ -10096,7 +10099,7 @@
       <c r="AF96" s="8"/>
       <c r="AH96" s="8"/>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="D97" s="8"/>
       <c r="F97" s="8"/>
@@ -10115,7 +10118,7 @@
       <c r="AF97" s="8"/>
       <c r="AH97" s="8"/>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="D98" s="8"/>
       <c r="F98" s="8"/>
@@ -10134,7 +10137,7 @@
       <c r="AF98" s="8"/>
       <c r="AH98" s="8"/>
     </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="F99" s="8"/>
@@ -10153,7 +10156,7 @@
       <c r="AF99" s="8"/>
       <c r="AH99" s="8"/>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="D100" s="8"/>
       <c r="F100" s="8"/>
@@ -10172,7 +10175,7 @@
       <c r="AF100" s="8"/>
       <c r="AH100" s="8"/>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="D101" s="8"/>
       <c r="F101" s="8"/>
@@ -10191,7 +10194,7 @@
       <c r="AF101" s="8"/>
       <c r="AH101" s="8"/>
     </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="D102" s="8"/>
       <c r="F102" s="8"/>
@@ -10210,7 +10213,7 @@
       <c r="AF102" s="8"/>
       <c r="AH102" s="8"/>
     </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="D103" s="8"/>
       <c r="F103" s="8"/>
@@ -10229,7 +10232,7 @@
       <c r="AF103" s="8"/>
       <c r="AH103" s="8"/>
     </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="D104" s="8"/>
       <c r="F104" s="8"/>
@@ -10248,7 +10251,7 @@
       <c r="AF104" s="8"/>
       <c r="AH104" s="8"/>
     </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="D105" s="8"/>
       <c r="F105" s="8"/>
@@ -10267,7 +10270,7 @@
       <c r="AF105" s="8"/>
       <c r="AH105" s="8"/>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="D106" s="8"/>
       <c r="F106" s="8"/>
@@ -10286,7 +10289,7 @@
       <c r="AF106" s="8"/>
       <c r="AH106" s="8"/>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="D107" s="8"/>
       <c r="F107" s="8"/>
@@ -10305,7 +10308,7 @@
       <c r="AF107" s="8"/>
       <c r="AH107" s="8"/>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="D108" s="8"/>
       <c r="F108" s="8"/>
@@ -10324,7 +10327,7 @@
       <c r="AF108" s="8"/>
       <c r="AH108" s="8"/>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="D109" s="8"/>
       <c r="F109" s="8"/>
@@ -10343,7 +10346,7 @@
       <c r="AF109" s="8"/>
       <c r="AH109" s="8"/>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="D110" s="8"/>
       <c r="F110" s="8"/>
@@ -10362,7 +10365,7 @@
       <c r="AF110" s="8"/>
       <c r="AH110" s="8"/>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="D111" s="8"/>
       <c r="F111" s="8"/>
@@ -10381,7 +10384,7 @@
       <c r="AF111" s="8"/>
       <c r="AH111" s="8"/>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="D112" s="8"/>
       <c r="F112" s="8"/>
@@ -10400,7 +10403,7 @@
       <c r="AF112" s="8"/>
       <c r="AH112" s="8"/>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="D113" s="8"/>
       <c r="F113" s="8"/>
@@ -10419,7 +10422,7 @@
       <c r="AF113" s="8"/>
       <c r="AH113" s="8"/>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="D114" s="8"/>
       <c r="F114" s="8"/>
@@ -10438,7 +10441,7 @@
       <c r="AF114" s="8"/>
       <c r="AH114" s="8"/>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="D115" s="8"/>
       <c r="F115" s="8"/>
@@ -10457,7 +10460,7 @@
       <c r="AF115" s="8"/>
       <c r="AH115" s="8"/>
     </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="D116" s="8"/>
       <c r="F116" s="8"/>
@@ -10487,33 +10490,33 @@
   <dimension ref="A2:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>134</v>
       </c>
@@ -10524,7 +10527,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -10537,11 +10540,11 @@
         <v>888</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>1776</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -10554,28 +10557,28 @@
         <v>13</v>
       </c>
       <c r="H6" s="9">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="8">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="H7" s="9">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -10592,7 +10595,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -10610,7 +10613,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -10628,7 +10631,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -10646,7 +10649,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -10664,7 +10667,7 @@
       <c r="J12" s="7"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -10676,7 +10679,7 @@
         <v>30</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -10686,7 +10689,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -10704,7 +10707,7 @@
       <c r="J14" s="7"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -10724,48 +10727,48 @@
       <c r="L15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E16" s="36"/>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="8">
         <f>SUM(B5:B17)</f>
-        <v>3388</v>
+        <v>3432</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
       </c>
       <c r="E18" s="29">
         <f>B45-B18</f>
-        <v>-98</v>
+        <v>-142</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H19" s="9"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>140</v>
       </c>
       <c r="H20" s="9"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -10780,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -10795,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>148</v>
       </c>
@@ -10810,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>149</v>
       </c>
@@ -10825,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>150</v>
       </c>
@@ -10840,16 +10843,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -10862,23 +10865,23 @@
       </c>
       <c r="E29" s="8">
         <f>(E18-B29)</f>
-        <v>-352</v>
+        <v>-396</v>
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>141</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>142</v>
       </c>
@@ -10890,10 +10893,10 @@
         <v>200</v>
       </c>
       <c r="H33" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>143</v>
       </c>
@@ -10908,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>98</v>
       </c>
@@ -10923,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>147</v>
       </c>
@@ -10938,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>151</v>
       </c>
@@ -10950,11 +10953,11 @@
         <v>25</v>
       </c>
       <c r="H37" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>152</v>
       </c>
@@ -10970,7 +10973,7 @@
       </c>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>157</v>
       </c>
@@ -10979,14 +10982,14 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>47</v>
       </c>
@@ -10999,11 +11002,11 @@
       </c>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -11023,15 +11026,15 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -11045,49 +11048,49 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>146</v>
       </c>
       <c r="B47" s="8">
         <f>SUM(B18,B29,B42)</f>
-        <v>4258</v>
+        <v>4302</v>
       </c>
       <c r="F47" s="9">
         <f>SUM(F5:F40)</f>
-        <v>1716.5</v>
+        <v>1738.5</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9">
         <f>SUM(H5:H40)</f>
-        <v>342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
         <v>145</v>
       </c>
       <c r="B48" s="31">
         <f>E29-B42</f>
-        <v>-968</v>
+        <v>-1012</v>
       </c>
       <c r="C48" s="31"/>
       <c r="F48" s="9">
         <f>C45-F47</f>
-        <v>-71.5</v>
+        <v>-93.5</v>
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -11095,25 +11098,27 @@
         <v>62</v>
       </c>
       <c r="F51" s="12">
-        <v>328</v>
+        <v>2836</v>
       </c>
       <c r="H51" s="34">
         <f>F51-H47</f>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B52" s="32">
         <f>B18/B45</f>
-        <v>1.0297872340425531</v>
+        <v>1.0431610942249241</v>
       </c>
       <c r="C52" s="32"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F52" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>140</v>
       </c>
@@ -11125,7 +11130,7 @@
       <c r="F53" s="12"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>141</v>
       </c>
@@ -11137,78 +11142,78 @@
       <c r="F54" s="12"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="32">
         <f>B48/B45</f>
-        <v>-0.29422492401215805</v>
+        <v>-0.30759878419452885</v>
       </c>
       <c r="C55" s="32"/>
       <c r="F55" s="12"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F56" s="12"/>
       <c r="G56" s="7"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" s="12"/>
       <c r="G57" s="7"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F58" s="12"/>
       <c r="G58" s="7"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F59" s="12"/>
       <c r="G59" s="7"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F60" s="12"/>
       <c r="G60" s="7"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F61" s="12"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F64" s="12"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="12"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="12"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="12"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="12"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="12"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="12"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="12"/>
     </row>
   </sheetData>
@@ -11225,15 +11230,15 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42839</v>
       </c>
@@ -11241,7 +11246,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11252,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11263,7 +11268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11274,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -11285,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -11303,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11318,7 +11323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -11333,7 +11338,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -11346,7 +11351,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -11359,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -11372,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11387,7 +11392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -11400,7 +11405,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -11409,13 +11414,13 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -11431,10 +11436,10 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -11448,10 +11453,10 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -11467,13 +11472,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>34</v>
       </c>
@@ -11481,13 +11486,13 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="9">
         <f>SUM(E7:E14)</f>
         <v>1096</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>35</v>
       </c>
@@ -11496,10 +11501,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>36</v>
       </c>
@@ -11507,7 +11512,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>37</v>
       </c>
@@ -11515,10 +11520,10 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>38</v>
       </c>
@@ -11526,7 +11531,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>39</v>
       </c>
@@ -11534,13 +11539,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E34" s="8">
         <f>SUM(E32:E33)</f>
         <v>1112</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>40</v>
       </c>
@@ -11549,10 +11554,10 @@
         <v>873</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>41</v>
       </c>
@@ -11560,10 +11565,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -11572,43 +11577,43 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="8"/>
     </row>
   </sheetData>
@@ -11623,15 +11628,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -11639,7 +11644,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -11647,7 +11652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>90</v>
       </c>
@@ -11661,7 +11666,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>91</v>
       </c>
@@ -11675,7 +11680,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>92</v>
       </c>
@@ -11689,7 +11694,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>93</v>
       </c>
@@ -11697,7 +11702,7 @@
         <v>146.79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>26</v>
       </c>
@@ -11705,7 +11710,7 @@
         <v>72.709999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>47</v>
       </c>
@@ -11713,7 +11718,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>0</v>
       </c>
@@ -11721,7 +11726,7 @@
         <v>1035.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>94</v>
       </c>
@@ -11729,7 +11734,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>95</v>
       </c>
@@ -11738,7 +11743,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>96</v>
       </c>
@@ -11747,7 +11752,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>55</v>
       </c>
@@ -11756,7 +11761,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>94</v>
       </c>
@@ -11765,7 +11770,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>26</v>
       </c>
@@ -11774,7 +11779,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>97</v>
       </c>
@@ -11783,7 +11788,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>94</v>
       </c>
@@ -11792,7 +11797,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>99</v>
       </c>
@@ -11800,7 +11805,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>94</v>
       </c>
@@ -11808,7 +11813,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>100</v>
       </c>
@@ -11816,7 +11821,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>101</v>
       </c>
@@ -11824,7 +11829,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>102</v>
       </c>
@@ -11832,7 +11837,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>98</v>
       </c>
@@ -11840,7 +11845,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>103</v>
       </c>
@@ -11848,7 +11853,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>98</v>
       </c>
@@ -11856,7 +11861,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>104</v>
       </c>
@@ -11864,7 +11869,7 @@
         <v>70.16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -11872,7 +11877,7 @@
         <v>97.17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
@@ -11880,7 +11885,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>94</v>
       </c>
@@ -11888,7 +11893,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>130</v>
       </c>
@@ -11896,7 +11901,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>129</v>
       </c>
@@ -11904,7 +11909,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>128</v>
       </c>
@@ -11912,7 +11917,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>127</v>
       </c>
@@ -11920,7 +11925,7 @@
         <v>26.71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>114</v>
       </c>
@@ -11928,7 +11933,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>94</v>
       </c>
@@ -11936,7 +11941,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>94</v>
       </c>
@@ -11944,7 +11949,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>126</v>
       </c>
@@ -11952,7 +11957,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>94</v>
       </c>
@@ -11960,7 +11965,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>125</v>
       </c>
@@ -11968,7 +11973,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>124</v>
       </c>
@@ -11976,7 +11981,7 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>47</v>
       </c>
@@ -11984,7 +11989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>94</v>
       </c>
@@ -11992,7 +11997,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>105</v>
       </c>
@@ -12000,7 +12005,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>94</v>
       </c>
@@ -12008,7 +12013,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
         <v>123</v>
       </c>
@@ -12016,7 +12021,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>98</v>
       </c>
@@ -12024,7 +12029,7 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>122</v>
       </c>
@@ -12032,7 +12037,7 @@
         <v>26.27</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>121</v>
       </c>
@@ -12040,7 +12045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>104</v>
       </c>
@@ -12048,7 +12053,7 @@
         <v>80.33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>106</v>
       </c>
@@ -12056,7 +12061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>120</v>
       </c>
@@ -12064,7 +12069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>105</v>
       </c>
@@ -12072,7 +12077,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>16</v>
       </c>
@@ -12080,7 +12085,7 @@
         <v>63.59</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>30</v>
       </c>
@@ -12088,7 +12093,7 @@
         <v>244.42</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>119</v>
       </c>
@@ -12096,7 +12101,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>92</v>
       </c>
@@ -12104,7 +12109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>118</v>
       </c>
@@ -12112,7 +12117,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
         <v>117</v>
       </c>
@@ -12120,7 +12125,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>116</v>
       </c>
@@ -12128,7 +12133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>107</v>
       </c>
@@ -12136,7 +12141,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>108</v>
       </c>
@@ -12144,7 +12149,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>115</v>
       </c>
@@ -12152,7 +12157,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
         <v>114</v>
       </c>
@@ -12160,7 +12165,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
         <v>92</v>
       </c>
@@ -12168,7 +12173,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>2</v>
       </c>
@@ -12176,7 +12181,7 @@
         <v>164.84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>94</v>
       </c>
@@ -12184,7 +12189,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
         <v>94</v>
       </c>
@@ -12192,7 +12197,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>113</v>
       </c>
@@ -12200,7 +12205,7 @@
         <v>35.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>112</v>
       </c>
@@ -12208,7 +12213,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>94</v>
       </c>
@@ -12216,7 +12221,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>102</v>
       </c>
@@ -12224,7 +12229,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>105</v>
       </c>
@@ -12232,7 +12237,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="23" t="s">
         <v>94</v>
       </c>
@@ -12240,7 +12245,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22" t="s">
         <v>111</v>
       </c>
@@ -12248,7 +12253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>104</v>
       </c>
@@ -12256,7 +12261,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>94</v>
       </c>
@@ -12264,7 +12269,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="22" t="s">
         <v>110</v>
       </c>
@@ -12272,7 +12277,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
         <v>109</v>
       </c>
@@ -12280,7 +12285,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>47</v>
       </c>
@@ -12302,14 +12307,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -12320,7 +12325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43156</v>
       </c>
@@ -12331,7 +12336,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43542</v>
       </c>
@@ -12342,7 +12347,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43599</v>
       </c>
@@ -12353,7 +12358,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43606</v>
       </c>
@@ -12364,7 +12369,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43609</v>
       </c>
@@ -12375,7 +12380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43630</v>
       </c>
@@ -12386,16 +12391,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -12404,7 +12409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -12412,7 +12417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12440,22 +12445,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42867</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12466,7 +12471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12477,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12488,7 +12493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12499,7 +12504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12518,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12534,7 +12539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12546,7 +12551,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12560,7 +12565,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12572,7 +12577,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12588,7 +12593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12602,7 +12607,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12611,13 +12616,13 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -12633,10 +12638,10 @@
         <v>883</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12651,10 +12656,10 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -12667,12 +12672,12 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -12680,7 +12685,7 @@
         <v>1136.5899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -12689,7 +12694,7 @@
         <v>544.56999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -12698,7 +12703,7 @@
         <v>592.02</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -12706,7 +12711,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -12718,7 +12723,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>345</v>
       </c>
@@ -12737,20 +12742,20 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42881</v>
       </c>
@@ -12761,7 +12766,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -12778,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12795,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12812,7 +12817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12829,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12851,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12871,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12891,7 +12896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12911,7 +12916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12931,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12954,7 +12959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12972,7 +12977,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -12987,15 +12992,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13018,11 +13023,11 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13045,11 +13050,11 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13072,7 +13077,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13089,17 +13094,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42923</v>
       </c>
@@ -13107,7 +13112,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13121,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13135,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13149,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13163,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13179,7 +13184,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13195,7 +13200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13211,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13227,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13243,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13259,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13275,7 +13280,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13287,13 +13292,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13309,10 +13314,10 @@
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13326,10 +13331,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13345,7 +13350,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13362,17 +13367,17 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42951</v>
       </c>
@@ -13380,7 +13385,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13394,7 +13399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13408,7 +13413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13422,7 +13427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13436,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13454,7 +13459,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13470,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13486,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13502,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13518,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13534,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13550,7 +13555,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13562,13 +13567,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13584,10 +13589,10 @@
         <v>1132.57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13601,10 +13606,10 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13620,7 +13625,7 @@
         <v>206.43000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13637,20 +13642,20 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="10"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="10"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>42979</v>
       </c>
@@ -13662,7 +13667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13680,7 +13685,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -13698,7 +13703,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13716,7 +13721,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -13734,7 +13739,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13756,7 +13761,7 @@
         <v>212.57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -13774,7 +13779,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13792,7 +13797,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13810,7 +13815,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -13828,7 +13833,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13846,7 +13851,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -13866,7 +13871,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -13882,15 +13887,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -13907,11 +13912,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13926,11 +13931,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13947,7 +13952,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -13955,7 +13960,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -13964,7 +13969,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -13973,7 +13978,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>
@@ -13990,18 +13995,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43007</v>
       </c>
@@ -14010,7 +14015,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14028,7 +14033,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14043,7 +14048,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14061,7 +14066,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -14079,7 +14084,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14102,7 +14107,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14120,7 +14125,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14138,7 +14143,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14159,7 +14164,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14177,7 +14182,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -14195,7 +14200,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -14211,15 +14216,15 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -14236,11 +14241,11 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -14255,11 +14260,11 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14276,7 +14281,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="6"/>
     </row>
   </sheetData>
@@ -14293,18 +14298,18 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>43035</v>
       </c>
@@ -14313,7 +14318,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14328,7 +14333,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14343,7 +14348,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14358,7 +14363,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -14373,7 +14378,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14393,7 +14398,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -14411,7 +14416,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -14429,7 +14434,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14447,7 +14452,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14465,7 +14470,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -14483,7 +14488,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -14501,7 +14506,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -14514,15 +14519,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -14539,11 +14544,11 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -14558,11 +14563,11 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14579,7 +14584,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
     </row>
   </sheetData>

--- a/bill-pay-checklist_Reichhard.excel.xlsx
+++ b/bill-pay-checklist_Reichhard.excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rreichhard\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD87B81D-1C07-41FF-8BBA-C454FC69FAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F7DAD8-D1C7-45BB-BA5C-54BEA9010B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="161">
   <si>
     <t>Rent</t>
   </si>
@@ -607,9 +607,6 @@
   </si>
   <si>
     <t>Open Sky CC</t>
-  </si>
-  <si>
-    <t>$2436 (+$400 from Chelsea)</t>
   </si>
 </sst>
 </file>
@@ -10489,8 +10486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A2:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10532,12 +10529,12 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="9">
         <f>B5/2</f>
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H5" s="9">
         <v>1776</v>
@@ -10557,7 +10554,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -10574,7 +10571,7 @@
         <v>91</v>
       </c>
       <c r="H7" s="9">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -10679,7 +10676,7 @@
         <v>30</v>
       </c>
       <c r="H13" s="9">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -10720,7 +10717,7 @@
         <v>104.5</v>
       </c>
       <c r="H15" s="9">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="7"/>
@@ -10744,14 +10741,14 @@
       </c>
       <c r="B18" s="8">
         <f>SUM(B5:B17)</f>
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
       </c>
       <c r="E18" s="29">
         <f>B45-B18</f>
-        <v>-142</v>
+        <v>-140</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
@@ -10865,7 +10862,7 @@
       </c>
       <c r="E29" s="8">
         <f>(E18-B29)</f>
-        <v>-396</v>
+        <v>-394</v>
       </c>
       <c r="H29" s="9"/>
     </row>
@@ -10893,7 +10890,7 @@
         <v>200</v>
       </c>
       <c r="H33" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -10953,7 +10950,7 @@
         <v>25</v>
       </c>
       <c r="H37" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I37" s="9"/>
     </row>
@@ -10982,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>0</v>
+        <v>448.31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -11057,16 +11054,16 @@
       </c>
       <c r="B47" s="8">
         <f>SUM(B18,B29,B42)</f>
-        <v>4302</v>
+        <v>4300</v>
       </c>
       <c r="F47" s="9">
         <f>SUM(F5:F40)</f>
-        <v>1738.5</v>
+        <v>1737.5</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9">
         <f>SUM(H5:H40)</f>
-        <v>3035</v>
+        <v>2224.31</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
@@ -11075,12 +11072,12 @@
       </c>
       <c r="B48" s="31">
         <f>E29-B42</f>
-        <v>-1012</v>
+        <v>-1010</v>
       </c>
       <c r="C48" s="31"/>
       <c r="F48" s="9">
         <f>C45-F47</f>
-        <v>-93.5</v>
+        <v>-92.5</v>
       </c>
       <c r="H48" s="9"/>
     </row>
@@ -11098,11 +11095,11 @@
         <v>62</v>
       </c>
       <c r="F51" s="12">
-        <v>2836</v>
+        <v>1844.23</v>
       </c>
       <c r="H51" s="34">
         <f>F51-H47</f>
-        <v>-199</v>
+        <v>-380.07999999999993</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -11111,12 +11108,10 @@
       </c>
       <c r="B52" s="32">
         <f>B18/B45</f>
-        <v>1.0431610942249241</v>
+        <v>1.0425531914893618</v>
       </c>
       <c r="C52" s="32"/>
-      <c r="F52" s="12" t="s">
-        <v>161</v>
-      </c>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
@@ -11148,7 +11143,7 @@
       </c>
       <c r="B55" s="32">
         <f>B48/B45</f>
-        <v>-0.30759878419452885</v>
+        <v>-0.30699088145896658</v>
       </c>
       <c r="C55" s="32"/>
       <c r="F55" s="12"/>
